--- a/app/data/basisdaten_clean.xlsx
+++ b/app/data/basisdaten_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guadaluperomero/ProjectsTSB/innovationserhebung/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A75E88-9D03-2F45-95E9-1C7788DAAA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F57F6B-386F-F14F-BDD7-30623F7E9D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" firstSheet="17" activeTab="25" xr2:uid="{25BCFA3D-CBEA-9B42-8B95-A0D09F81B565}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" firstSheet="22" activeTab="29" xr2:uid="{25BCFA3D-CBEA-9B42-8B95-A0D09F81B565}"/>
   </bookViews>
   <sheets>
     <sheet name="basis_2013_ber" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,10 @@
     <sheet name="anteile_branchen_de" sheetId="26" r:id="rId24"/>
     <sheet name="relevanzbubbles_ber" sheetId="27" r:id="rId25"/>
     <sheet name="relevanzbubbles_de" sheetId="28" r:id="rId26"/>
+    <sheet name="coop_partner_2012_ber" sheetId="29" r:id="rId27"/>
+    <sheet name="coop_partner_2020_ber" sheetId="31" r:id="rId28"/>
+    <sheet name="coop_partner_2012_de" sheetId="32" r:id="rId29"/>
+    <sheet name="coop_partner_2020_de" sheetId="33" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="97">
   <si>
     <t>Nr. der Klas-
 sifikation</t>
@@ -336,6 +340,24 @@
   <si>
     <t>Umsatz mit Produktneuheiten in Mio. €</t>
   </si>
+  <si>
+    <t>insgesamt</t>
+  </si>
+  <si>
+    <t>staatl. Forschung</t>
+  </si>
+  <si>
+    <t>Kunden (privatwirtschaftl.)</t>
+  </si>
+  <si>
+    <t>Lieferanten</t>
+  </si>
+  <si>
+    <t>Wettbewerber</t>
+  </si>
+  <si>
+    <t>WZ</t>
+  </si>
 </sst>
 </file>
 
@@ -344,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,6 +420,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -493,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -630,6 +665,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17372,7 +17417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB49BC20-BD07-9B4E-AF60-DA96205E68A6}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -17874,6 +17919,2655 @@
       <c r="E29" s="60">
         <v>535499</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A328FC18-3C10-8D47-B29E-409DC103D216}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="21">
+        <v>14</v>
+      </c>
+      <c r="D2" s="21">
+        <v>6</v>
+      </c>
+      <c r="E2" s="21">
+        <v>6</v>
+      </c>
+      <c r="F2" s="21">
+        <v>4</v>
+      </c>
+      <c r="G2" s="21">
+        <v>9</v>
+      </c>
+      <c r="H2" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="21">
+        <v>62</v>
+      </c>
+      <c r="D3" s="21">
+        <v>50</v>
+      </c>
+      <c r="E3" s="21">
+        <v>45</v>
+      </c>
+      <c r="F3" s="21">
+        <v>28</v>
+      </c>
+      <c r="G3" s="21">
+        <v>7</v>
+      </c>
+      <c r="H3" s="56">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="21">
+        <v>20</v>
+      </c>
+      <c r="D5" s="21">
+        <v>14</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21">
+        <v>13</v>
+      </c>
+      <c r="G5" s="21">
+        <v>6</v>
+      </c>
+      <c r="H5" s="56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="21">
+        <v>59</v>
+      </c>
+      <c r="D6" s="21">
+        <v>42</v>
+      </c>
+      <c r="E6" s="21">
+        <v>35</v>
+      </c>
+      <c r="F6" s="21">
+        <v>25</v>
+      </c>
+      <c r="G6" s="21">
+        <v>17</v>
+      </c>
+      <c r="H6" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="21">
+        <v>62</v>
+      </c>
+      <c r="D7" s="21">
+        <v>30</v>
+      </c>
+      <c r="E7" s="21">
+        <v>18</v>
+      </c>
+      <c r="F7" s="21">
+        <v>16</v>
+      </c>
+      <c r="G7" s="21">
+        <v>28</v>
+      </c>
+      <c r="H7" s="56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="21">
+        <v>29</v>
+      </c>
+      <c r="D8" s="21">
+        <v>10</v>
+      </c>
+      <c r="E8" s="21">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21">
+        <v>7</v>
+      </c>
+      <c r="G8" s="21">
+        <v>13</v>
+      </c>
+      <c r="H8" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="21">
+        <v>20</v>
+      </c>
+      <c r="D9" s="21">
+        <v>6</v>
+      </c>
+      <c r="E9" s="21">
+        <v>5</v>
+      </c>
+      <c r="F9" s="21">
+        <v>3</v>
+      </c>
+      <c r="G9" s="21">
+        <v>6</v>
+      </c>
+      <c r="H9" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="21">
+        <v>17</v>
+      </c>
+      <c r="D10" s="21">
+        <v>10</v>
+      </c>
+      <c r="E10" s="21">
+        <v>4</v>
+      </c>
+      <c r="F10" s="21">
+        <v>6</v>
+      </c>
+      <c r="G10" s="21">
+        <v>5</v>
+      </c>
+      <c r="H10" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="21">
+        <v>42</v>
+      </c>
+      <c r="D11" s="21">
+        <v>27</v>
+      </c>
+      <c r="E11" s="21">
+        <v>12</v>
+      </c>
+      <c r="F11" s="21">
+        <v>5</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="21">
+        <v>18</v>
+      </c>
+      <c r="D12" s="21">
+        <v>11</v>
+      </c>
+      <c r="E12" s="21">
+        <v>7</v>
+      </c>
+      <c r="F12" s="21">
+        <v>7</v>
+      </c>
+      <c r="G12" s="21">
+        <v>13</v>
+      </c>
+      <c r="H12" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="21">
+        <v>29</v>
+      </c>
+      <c r="D13" s="21">
+        <v>24</v>
+      </c>
+      <c r="E13" s="21">
+        <v>9</v>
+      </c>
+      <c r="F13" s="21">
+        <v>10</v>
+      </c>
+      <c r="G13" s="21">
+        <v>8</v>
+      </c>
+      <c r="H13" s="56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="21">
+        <v>13</v>
+      </c>
+      <c r="D14" s="21">
+        <v>12</v>
+      </c>
+      <c r="E14" s="21">
+        <v>2</v>
+      </c>
+      <c r="F14" s="21">
+        <v>3</v>
+      </c>
+      <c r="G14" s="21">
+        <v>5</v>
+      </c>
+      <c r="H14" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="21">
+        <v>82</v>
+      </c>
+      <c r="D15" s="21">
+        <v>82</v>
+      </c>
+      <c r="E15" s="21">
+        <v>55</v>
+      </c>
+      <c r="F15" s="21">
+        <v>39</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="21">
+        <v>20</v>
+      </c>
+      <c r="D16" s="21">
+        <v>10</v>
+      </c>
+      <c r="E16" s="21">
+        <v>4</v>
+      </c>
+      <c r="F16" s="21">
+        <v>5</v>
+      </c>
+      <c r="G16" s="21">
+        <v>14</v>
+      </c>
+      <c r="H16" s="56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="56"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="21">
+        <v>36</v>
+      </c>
+      <c r="D18" s="21">
+        <v>22</v>
+      </c>
+      <c r="E18" s="21">
+        <v>15</v>
+      </c>
+      <c r="F18" s="21">
+        <v>13</v>
+      </c>
+      <c r="G18" s="21">
+        <v>12</v>
+      </c>
+      <c r="H18" s="56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="21">
+        <v>30</v>
+      </c>
+      <c r="D19" s="21">
+        <v>22</v>
+      </c>
+      <c r="E19" s="21">
+        <v>10</v>
+      </c>
+      <c r="F19" s="21">
+        <v>7</v>
+      </c>
+      <c r="G19" s="21">
+        <v>5</v>
+      </c>
+      <c r="H19" s="56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="56"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="26">
+        <v>32</v>
+      </c>
+      <c r="D21" s="26">
+        <v>22</v>
+      </c>
+      <c r="E21" s="26">
+        <v>11</v>
+      </c>
+      <c r="F21" s="26">
+        <v>9</v>
+      </c>
+      <c r="G21" s="26">
+        <v>7</v>
+      </c>
+      <c r="H21" s="56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="56"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="56"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="21">
+        <v>24</v>
+      </c>
+      <c r="D24" s="21">
+        <v>16</v>
+      </c>
+      <c r="E24" s="21">
+        <v>8</v>
+      </c>
+      <c r="F24" s="21">
+        <v>7</v>
+      </c>
+      <c r="G24" s="21">
+        <v>5</v>
+      </c>
+      <c r="H24" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="21">
+        <v>33</v>
+      </c>
+      <c r="D25" s="21">
+        <v>25</v>
+      </c>
+      <c r="E25" s="21">
+        <v>12</v>
+      </c>
+      <c r="F25" s="21">
+        <v>8</v>
+      </c>
+      <c r="G25" s="21">
+        <v>6</v>
+      </c>
+      <c r="H25" s="56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="21">
+        <v>34</v>
+      </c>
+      <c r="D26" s="21">
+        <v>21</v>
+      </c>
+      <c r="E26" s="21">
+        <v>11</v>
+      </c>
+      <c r="F26" s="21">
+        <v>8</v>
+      </c>
+      <c r="G26" s="21">
+        <v>7</v>
+      </c>
+      <c r="H26" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="21">
+        <v>42</v>
+      </c>
+      <c r="D27" s="21">
+        <v>25</v>
+      </c>
+      <c r="E27" s="21">
+        <v>14</v>
+      </c>
+      <c r="F27" s="21">
+        <v>16</v>
+      </c>
+      <c r="G27" s="21">
+        <v>17</v>
+      </c>
+      <c r="H27" s="56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="21">
+        <v>73</v>
+      </c>
+      <c r="D28" s="21">
+        <v>66</v>
+      </c>
+      <c r="E28" s="21">
+        <v>50</v>
+      </c>
+      <c r="F28" s="21">
+        <v>45</v>
+      </c>
+      <c r="G28" s="21">
+        <v>25</v>
+      </c>
+      <c r="H28" s="56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="21">
+        <v>75</v>
+      </c>
+      <c r="D29" s="21">
+        <v>72</v>
+      </c>
+      <c r="E29" s="21">
+        <v>61</v>
+      </c>
+      <c r="F29" s="21">
+        <v>47</v>
+      </c>
+      <c r="G29" s="21">
+        <v>18</v>
+      </c>
+      <c r="H29" s="56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="56"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="56"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="20">
+        <v>65</v>
+      </c>
+      <c r="D32" s="21">
+        <v>49</v>
+      </c>
+      <c r="E32" s="21">
+        <v>38</v>
+      </c>
+      <c r="F32" s="21">
+        <v>23</v>
+      </c>
+      <c r="G32" s="21">
+        <v>16</v>
+      </c>
+      <c r="H32" s="56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="20">
+        <v>39</v>
+      </c>
+      <c r="D33" s="21">
+        <v>19</v>
+      </c>
+      <c r="E33" s="21">
+        <v>15</v>
+      </c>
+      <c r="F33" s="21">
+        <v>16</v>
+      </c>
+      <c r="G33" s="21">
+        <v>15</v>
+      </c>
+      <c r="H33" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="20">
+        <v>27</v>
+      </c>
+      <c r="D34" s="21">
+        <v>14</v>
+      </c>
+      <c r="E34" s="21">
+        <v>8</v>
+      </c>
+      <c r="F34" s="21">
+        <v>8</v>
+      </c>
+      <c r="G34" s="21">
+        <v>20</v>
+      </c>
+      <c r="H34" s="56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="20">
+        <v>40</v>
+      </c>
+      <c r="D35" s="21">
+        <v>26</v>
+      </c>
+      <c r="E35" s="21">
+        <v>12</v>
+      </c>
+      <c r="F35" s="21">
+        <v>6</v>
+      </c>
+      <c r="G35" s="21">
+        <v>1</v>
+      </c>
+      <c r="H35" s="56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="20">
+        <v>28</v>
+      </c>
+      <c r="D36" s="21">
+        <v>26</v>
+      </c>
+      <c r="E36" s="21">
+        <v>11</v>
+      </c>
+      <c r="F36" s="21">
+        <v>8</v>
+      </c>
+      <c r="G36" s="21">
+        <v>6</v>
+      </c>
+      <c r="H36" s="56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="20">
+        <v>26</v>
+      </c>
+      <c r="D37" s="21">
+        <v>20</v>
+      </c>
+      <c r="E37" s="21">
+        <v>8</v>
+      </c>
+      <c r="F37" s="21">
+        <v>11</v>
+      </c>
+      <c r="G37" s="21">
+        <v>8</v>
+      </c>
+      <c r="H37" s="56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="20">
+        <v>17</v>
+      </c>
+      <c r="D38" s="21">
+        <v>9</v>
+      </c>
+      <c r="E38" s="21">
+        <v>4</v>
+      </c>
+      <c r="F38" s="21">
+        <v>6</v>
+      </c>
+      <c r="G38" s="21">
+        <v>9</v>
+      </c>
+      <c r="H38" s="56">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8892AF24-D85C-4D49-A7A1-70F793B3C12F}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="56">
+        <v>7</v>
+      </c>
+      <c r="D2" s="66">
+        <v>1</v>
+      </c>
+      <c r="E2" s="66">
+        <v>1</v>
+      </c>
+      <c r="F2" s="66">
+        <v>5</v>
+      </c>
+      <c r="G2" s="66">
+        <v>5</v>
+      </c>
+      <c r="H2" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="56">
+        <v>43</v>
+      </c>
+      <c r="D3" s="66">
+        <v>23</v>
+      </c>
+      <c r="E3" s="66">
+        <v>7</v>
+      </c>
+      <c r="F3" s="66">
+        <v>10</v>
+      </c>
+      <c r="G3" s="66">
+        <v>2</v>
+      </c>
+      <c r="H3" s="66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="56">
+        <v>43</v>
+      </c>
+      <c r="D4" s="66">
+        <v>6</v>
+      </c>
+      <c r="E4" s="66">
+        <v>1</v>
+      </c>
+      <c r="F4" s="66">
+        <v>5</v>
+      </c>
+      <c r="G4" s="66">
+        <v>1</v>
+      </c>
+      <c r="H4" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="56">
+        <v>8</v>
+      </c>
+      <c r="D5" s="66">
+        <v>8</v>
+      </c>
+      <c r="E5" s="66">
+        <v>1</v>
+      </c>
+      <c r="F5" s="66">
+        <v>1</v>
+      </c>
+      <c r="G5" s="66">
+        <v>0</v>
+      </c>
+      <c r="H5" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="56">
+        <v>35</v>
+      </c>
+      <c r="D6" s="66">
+        <v>23</v>
+      </c>
+      <c r="E6" s="66">
+        <v>23</v>
+      </c>
+      <c r="F6" s="66">
+        <v>6</v>
+      </c>
+      <c r="G6" s="66">
+        <v>7</v>
+      </c>
+      <c r="H6" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="56">
+        <v>45</v>
+      </c>
+      <c r="D7" s="66">
+        <v>32</v>
+      </c>
+      <c r="E7" s="66">
+        <v>26</v>
+      </c>
+      <c r="F7" s="66">
+        <v>2</v>
+      </c>
+      <c r="G7" s="66">
+        <v>13</v>
+      </c>
+      <c r="H7" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="56">
+        <v>38</v>
+      </c>
+      <c r="D8" s="66">
+        <v>33</v>
+      </c>
+      <c r="E8" s="66">
+        <v>1</v>
+      </c>
+      <c r="F8" s="66">
+        <v>5</v>
+      </c>
+      <c r="G8" s="66">
+        <v>0</v>
+      </c>
+      <c r="H8" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="56">
+        <v>24</v>
+      </c>
+      <c r="D9" s="66">
+        <v>9</v>
+      </c>
+      <c r="E9" s="66">
+        <v>7</v>
+      </c>
+      <c r="F9" s="66">
+        <v>6</v>
+      </c>
+      <c r="G9" s="66">
+        <v>0</v>
+      </c>
+      <c r="H9" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="56">
+        <v>23</v>
+      </c>
+      <c r="D10" s="66">
+        <v>1</v>
+      </c>
+      <c r="E10" s="66">
+        <v>0</v>
+      </c>
+      <c r="F10" s="66">
+        <v>0</v>
+      </c>
+      <c r="G10" s="66">
+        <v>0</v>
+      </c>
+      <c r="H10" s="66">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="56">
+        <v>34</v>
+      </c>
+      <c r="D11" s="66">
+        <v>26</v>
+      </c>
+      <c r="E11" s="66">
+        <v>10</v>
+      </c>
+      <c r="F11" s="66">
+        <v>9</v>
+      </c>
+      <c r="G11" s="66">
+        <v>7</v>
+      </c>
+      <c r="H11" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="56">
+        <v>14</v>
+      </c>
+      <c r="D12" s="66">
+        <v>2</v>
+      </c>
+      <c r="E12" s="66">
+        <v>1</v>
+      </c>
+      <c r="F12" s="66">
+        <v>6</v>
+      </c>
+      <c r="G12" s="66">
+        <v>1</v>
+      </c>
+      <c r="H12" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="56">
+        <v>28</v>
+      </c>
+      <c r="D13" s="66">
+        <v>27</v>
+      </c>
+      <c r="E13" s="66">
+        <v>14</v>
+      </c>
+      <c r="F13" s="66">
+        <v>10</v>
+      </c>
+      <c r="G13" s="66">
+        <v>17</v>
+      </c>
+      <c r="H13" s="66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="56">
+        <v>22</v>
+      </c>
+      <c r="D14" s="66">
+        <v>8</v>
+      </c>
+      <c r="E14" s="66">
+        <v>2</v>
+      </c>
+      <c r="F14" s="66">
+        <v>6</v>
+      </c>
+      <c r="G14" s="66">
+        <v>4</v>
+      </c>
+      <c r="H14" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="56">
+        <v>88</v>
+      </c>
+      <c r="D15" s="66">
+        <v>75</v>
+      </c>
+      <c r="E15" s="66">
+        <v>56</v>
+      </c>
+      <c r="F15" s="66">
+        <v>35</v>
+      </c>
+      <c r="G15" s="66">
+        <v>8</v>
+      </c>
+      <c r="H15" s="66">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="56">
+        <v>20</v>
+      </c>
+      <c r="D16" s="66">
+        <v>11</v>
+      </c>
+      <c r="E16" s="66">
+        <v>3</v>
+      </c>
+      <c r="F16" s="66">
+        <v>10</v>
+      </c>
+      <c r="G16" s="66">
+        <v>5</v>
+      </c>
+      <c r="H16" s="66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="56">
+        <v>31</v>
+      </c>
+      <c r="D18" s="66">
+        <v>19</v>
+      </c>
+      <c r="E18" s="66">
+        <v>10</v>
+      </c>
+      <c r="F18" s="66">
+        <v>5</v>
+      </c>
+      <c r="G18" s="66">
+        <v>4</v>
+      </c>
+      <c r="H18" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="56">
+        <v>29</v>
+      </c>
+      <c r="D19" s="66">
+        <v>19</v>
+      </c>
+      <c r="E19" s="66">
+        <v>8</v>
+      </c>
+      <c r="F19" s="66">
+        <v>8</v>
+      </c>
+      <c r="G19" s="66">
+        <v>6</v>
+      </c>
+      <c r="H19" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="56">
+        <v>30</v>
+      </c>
+      <c r="D21" s="70">
+        <v>19</v>
+      </c>
+      <c r="E21" s="70">
+        <v>9</v>
+      </c>
+      <c r="F21" s="70">
+        <v>8</v>
+      </c>
+      <c r="G21" s="70">
+        <v>6</v>
+      </c>
+      <c r="H21" s="70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="56">
+        <v>19</v>
+      </c>
+      <c r="D24" s="66">
+        <v>7</v>
+      </c>
+      <c r="E24" s="66">
+        <v>4</v>
+      </c>
+      <c r="F24" s="66">
+        <v>4</v>
+      </c>
+      <c r="G24" s="66">
+        <v>2</v>
+      </c>
+      <c r="H24" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="56">
+        <v>32</v>
+      </c>
+      <c r="D25" s="66">
+        <v>25</v>
+      </c>
+      <c r="E25" s="66">
+        <v>13</v>
+      </c>
+      <c r="F25" s="66">
+        <v>11</v>
+      </c>
+      <c r="G25" s="66">
+        <v>6</v>
+      </c>
+      <c r="H25" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="56">
+        <v>30</v>
+      </c>
+      <c r="D26" s="66">
+        <v>20</v>
+      </c>
+      <c r="E26" s="66">
+        <v>10</v>
+      </c>
+      <c r="F26" s="66">
+        <v>8</v>
+      </c>
+      <c r="G26" s="66">
+        <v>8</v>
+      </c>
+      <c r="H26" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="56">
+        <v>41</v>
+      </c>
+      <c r="D27" s="66">
+        <v>29</v>
+      </c>
+      <c r="E27" s="66">
+        <v>7</v>
+      </c>
+      <c r="F27" s="66">
+        <v>7</v>
+      </c>
+      <c r="G27" s="66">
+        <v>9</v>
+      </c>
+      <c r="H27" s="66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="56">
+        <v>71</v>
+      </c>
+      <c r="D28" s="66">
+        <v>39</v>
+      </c>
+      <c r="E28" s="66">
+        <v>17</v>
+      </c>
+      <c r="F28" s="66">
+        <v>25</v>
+      </c>
+      <c r="G28" s="66">
+        <v>15</v>
+      </c>
+      <c r="H28" s="66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="56">
+        <v>91</v>
+      </c>
+      <c r="D29" s="66">
+        <v>59</v>
+      </c>
+      <c r="E29" s="66">
+        <v>30</v>
+      </c>
+      <c r="F29" s="66">
+        <v>25</v>
+      </c>
+      <c r="G29" s="66">
+        <v>17</v>
+      </c>
+      <c r="H29" s="66">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="56">
+        <v>61</v>
+      </c>
+      <c r="D32" s="66">
+        <v>41</v>
+      </c>
+      <c r="E32" s="66">
+        <v>33</v>
+      </c>
+      <c r="F32" s="66">
+        <v>9</v>
+      </c>
+      <c r="G32" s="66">
+        <v>10</v>
+      </c>
+      <c r="H32" s="66">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="56">
+        <v>53</v>
+      </c>
+      <c r="D33" s="66">
+        <v>42</v>
+      </c>
+      <c r="E33" s="66">
+        <v>16</v>
+      </c>
+      <c r="F33" s="66">
+        <v>5</v>
+      </c>
+      <c r="G33" s="66">
+        <v>5</v>
+      </c>
+      <c r="H33" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="56">
+        <v>25</v>
+      </c>
+      <c r="D34" s="66">
+        <v>3</v>
+      </c>
+      <c r="E34" s="66">
+        <v>2</v>
+      </c>
+      <c r="F34" s="66">
+        <v>11</v>
+      </c>
+      <c r="G34" s="66">
+        <v>1</v>
+      </c>
+      <c r="H34" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="56">
+        <v>33</v>
+      </c>
+      <c r="D35" s="66">
+        <v>26</v>
+      </c>
+      <c r="E35" s="66">
+        <v>10</v>
+      </c>
+      <c r="F35" s="66">
+        <v>8</v>
+      </c>
+      <c r="G35" s="66">
+        <v>7</v>
+      </c>
+      <c r="H35" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="56">
+        <v>31</v>
+      </c>
+      <c r="D36" s="66">
+        <v>19</v>
+      </c>
+      <c r="E36" s="66">
+        <v>10</v>
+      </c>
+      <c r="F36" s="66">
+        <v>11</v>
+      </c>
+      <c r="G36" s="66">
+        <v>4</v>
+      </c>
+      <c r="H36" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="56">
+        <v>28</v>
+      </c>
+      <c r="D37" s="66">
+        <v>20</v>
+      </c>
+      <c r="E37" s="66">
+        <v>9</v>
+      </c>
+      <c r="F37" s="66">
+        <v>10</v>
+      </c>
+      <c r="G37" s="66">
+        <v>15</v>
+      </c>
+      <c r="H37" s="66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="56">
+        <v>22</v>
+      </c>
+      <c r="D38" s="66">
+        <v>2</v>
+      </c>
+      <c r="E38" s="66">
+        <v>1</v>
+      </c>
+      <c r="F38" s="66">
+        <v>1</v>
+      </c>
+      <c r="G38" s="66">
+        <v>0</v>
+      </c>
+      <c r="H38" s="66">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD8627D-4657-EE4C-962D-304C4103ABD4}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="56">
+        <v>5</v>
+      </c>
+      <c r="D2" s="21">
+        <v>4</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21">
+        <v>4</v>
+      </c>
+      <c r="G2" s="21">
+        <v>3</v>
+      </c>
+      <c r="H2" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="56">
+        <v>36</v>
+      </c>
+      <c r="D3" s="21">
+        <v>19</v>
+      </c>
+      <c r="E3" s="21">
+        <v>12</v>
+      </c>
+      <c r="F3" s="21">
+        <v>13</v>
+      </c>
+      <c r="G3" s="21">
+        <v>16</v>
+      </c>
+      <c r="H3" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="56">
+        <v>13</v>
+      </c>
+      <c r="D4" s="21">
+        <v>4</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
+        <v>8</v>
+      </c>
+      <c r="G4" s="21">
+        <v>5</v>
+      </c>
+      <c r="H4" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="56">
+        <v>20</v>
+      </c>
+      <c r="D5" s="21">
+        <v>12</v>
+      </c>
+      <c r="E5" s="21">
+        <v>5</v>
+      </c>
+      <c r="F5" s="21">
+        <v>5</v>
+      </c>
+      <c r="G5" s="21">
+        <v>7</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="56">
+        <v>38</v>
+      </c>
+      <c r="D6" s="21">
+        <v>22</v>
+      </c>
+      <c r="E6" s="21">
+        <v>10</v>
+      </c>
+      <c r="F6" s="21">
+        <v>12</v>
+      </c>
+      <c r="G6" s="21">
+        <v>14</v>
+      </c>
+      <c r="H6" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="56">
+        <v>32</v>
+      </c>
+      <c r="D7" s="21">
+        <v>18</v>
+      </c>
+      <c r="E7" s="21">
+        <v>8</v>
+      </c>
+      <c r="F7" s="21">
+        <v>14</v>
+      </c>
+      <c r="G7" s="21">
+        <v>17</v>
+      </c>
+      <c r="H7" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="56">
+        <v>20</v>
+      </c>
+      <c r="D8" s="21">
+        <v>10</v>
+      </c>
+      <c r="E8" s="21">
+        <v>6</v>
+      </c>
+      <c r="F8" s="21">
+        <v>8</v>
+      </c>
+      <c r="G8" s="21">
+        <v>5</v>
+      </c>
+      <c r="H8" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="56">
+        <v>17</v>
+      </c>
+      <c r="D9" s="21">
+        <v>11</v>
+      </c>
+      <c r="E9" s="21">
+        <v>6</v>
+      </c>
+      <c r="F9" s="21">
+        <v>6</v>
+      </c>
+      <c r="G9" s="21">
+        <v>11</v>
+      </c>
+      <c r="H9" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="56">
+        <v>13</v>
+      </c>
+      <c r="D10" s="21">
+        <v>8</v>
+      </c>
+      <c r="E10" s="21">
+        <v>7</v>
+      </c>
+      <c r="F10" s="21">
+        <v>3</v>
+      </c>
+      <c r="G10" s="21">
+        <v>3</v>
+      </c>
+      <c r="H10" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="56">
+        <v>29</v>
+      </c>
+      <c r="D11" s="21">
+        <v>21</v>
+      </c>
+      <c r="E11" s="21">
+        <v>10</v>
+      </c>
+      <c r="F11" s="21">
+        <v>11</v>
+      </c>
+      <c r="G11" s="21">
+        <v>7</v>
+      </c>
+      <c r="H11" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="56">
+        <v>15</v>
+      </c>
+      <c r="D12" s="21">
+        <v>3</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21">
+        <v>4</v>
+      </c>
+      <c r="G12" s="21">
+        <v>4</v>
+      </c>
+      <c r="H12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="56">
+        <v>27</v>
+      </c>
+      <c r="D13" s="21">
+        <v>18</v>
+      </c>
+      <c r="E13" s="21">
+        <v>4</v>
+      </c>
+      <c r="F13" s="21">
+        <v>15</v>
+      </c>
+      <c r="G13" s="21">
+        <v>17</v>
+      </c>
+      <c r="H13" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="56">
+        <v>23</v>
+      </c>
+      <c r="D14" s="21">
+        <v>17</v>
+      </c>
+      <c r="E14" s="21">
+        <v>9</v>
+      </c>
+      <c r="F14" s="21">
+        <v>11</v>
+      </c>
+      <c r="G14" s="21">
+        <v>10</v>
+      </c>
+      <c r="H14" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="56">
+        <v>86</v>
+      </c>
+      <c r="D15" s="21">
+        <v>75</v>
+      </c>
+      <c r="E15" s="21">
+        <v>55</v>
+      </c>
+      <c r="F15" s="21">
+        <v>50</v>
+      </c>
+      <c r="G15" s="21">
+        <v>32</v>
+      </c>
+      <c r="H15" s="21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="56">
+        <v>20</v>
+      </c>
+      <c r="D16" s="21">
+        <v>3</v>
+      </c>
+      <c r="E16" s="21">
+        <v>2</v>
+      </c>
+      <c r="F16" s="21">
+        <v>6</v>
+      </c>
+      <c r="G16" s="21">
+        <v>9</v>
+      </c>
+      <c r="H16" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="56">
+        <v>24</v>
+      </c>
+      <c r="D18" s="21">
+        <v>14</v>
+      </c>
+      <c r="E18" s="21">
+        <v>7</v>
+      </c>
+      <c r="F18" s="21">
+        <v>9</v>
+      </c>
+      <c r="G18" s="21">
+        <v>11</v>
+      </c>
+      <c r="H18" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="56">
+        <v>26</v>
+      </c>
+      <c r="D19" s="21">
+        <v>17</v>
+      </c>
+      <c r="E19" s="21">
+        <v>9</v>
+      </c>
+      <c r="F19" s="21">
+        <v>11</v>
+      </c>
+      <c r="G19" s="21">
+        <v>9</v>
+      </c>
+      <c r="H19" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="56">
+        <v>25</v>
+      </c>
+      <c r="D21" s="26">
+        <v>15</v>
+      </c>
+      <c r="E21" s="26">
+        <v>7</v>
+      </c>
+      <c r="F21" s="26">
+        <v>10</v>
+      </c>
+      <c r="G21" s="26">
+        <v>10</v>
+      </c>
+      <c r="H21" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="56">
+        <v>19</v>
+      </c>
+      <c r="D24" s="21">
+        <v>10</v>
+      </c>
+      <c r="E24" s="21">
+        <v>6</v>
+      </c>
+      <c r="F24" s="21">
+        <v>8</v>
+      </c>
+      <c r="G24" s="21">
+        <v>8</v>
+      </c>
+      <c r="H24" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="56">
+        <v>20</v>
+      </c>
+      <c r="D25" s="21">
+        <v>13</v>
+      </c>
+      <c r="E25" s="21">
+        <v>6</v>
+      </c>
+      <c r="F25" s="21">
+        <v>8</v>
+      </c>
+      <c r="G25" s="21">
+        <v>8</v>
+      </c>
+      <c r="H25" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="56">
+        <v>24</v>
+      </c>
+      <c r="D26" s="21">
+        <v>14</v>
+      </c>
+      <c r="E26" s="21">
+        <v>7</v>
+      </c>
+      <c r="F26" s="21">
+        <v>8</v>
+      </c>
+      <c r="G26" s="21">
+        <v>8</v>
+      </c>
+      <c r="H26" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="56">
+        <v>34</v>
+      </c>
+      <c r="D27" s="21">
+        <v>21</v>
+      </c>
+      <c r="E27" s="21">
+        <v>9</v>
+      </c>
+      <c r="F27" s="21">
+        <v>11</v>
+      </c>
+      <c r="G27" s="21">
+        <v>14</v>
+      </c>
+      <c r="H27" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="56">
+        <v>51</v>
+      </c>
+      <c r="D28" s="21">
+        <v>36</v>
+      </c>
+      <c r="E28" s="21">
+        <v>16</v>
+      </c>
+      <c r="F28" s="21">
+        <v>24</v>
+      </c>
+      <c r="G28" s="21">
+        <v>24</v>
+      </c>
+      <c r="H28" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="56">
+        <v>84</v>
+      </c>
+      <c r="D29" s="21">
+        <v>71</v>
+      </c>
+      <c r="E29" s="21">
+        <v>46</v>
+      </c>
+      <c r="F29" s="21">
+        <v>55</v>
+      </c>
+      <c r="G29" s="21">
+        <v>58</v>
+      </c>
+      <c r="H29" s="21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19056,6 +21750,833 @@
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FE29F2-626E-664E-9813-62F674DA7A6D}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="67">
+        <v>8</v>
+      </c>
+      <c r="D2" s="66">
+        <v>4</v>
+      </c>
+      <c r="E2" s="66">
+        <v>2</v>
+      </c>
+      <c r="F2" s="66">
+        <v>5</v>
+      </c>
+      <c r="G2" s="66">
+        <v>6</v>
+      </c>
+      <c r="H2" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="67">
+        <v>35</v>
+      </c>
+      <c r="D3" s="66">
+        <v>21</v>
+      </c>
+      <c r="E3" s="66">
+        <v>9</v>
+      </c>
+      <c r="F3" s="66">
+        <v>11</v>
+      </c>
+      <c r="G3" s="66">
+        <v>10</v>
+      </c>
+      <c r="H3" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="67">
+        <v>10</v>
+      </c>
+      <c r="D4" s="66">
+        <v>2</v>
+      </c>
+      <c r="E4" s="66">
+        <v>1</v>
+      </c>
+      <c r="F4" s="66">
+        <v>4</v>
+      </c>
+      <c r="G4" s="66">
+        <v>4</v>
+      </c>
+      <c r="H4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="67">
+        <v>17</v>
+      </c>
+      <c r="D5" s="66">
+        <v>12</v>
+      </c>
+      <c r="E5" s="66">
+        <v>5</v>
+      </c>
+      <c r="F5" s="66">
+        <v>4</v>
+      </c>
+      <c r="G5" s="66">
+        <v>7</v>
+      </c>
+      <c r="H5" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="67">
+        <v>43</v>
+      </c>
+      <c r="D6" s="66">
+        <v>26</v>
+      </c>
+      <c r="E6" s="66">
+        <v>15</v>
+      </c>
+      <c r="F6" s="66">
+        <v>13</v>
+      </c>
+      <c r="G6" s="66">
+        <v>11</v>
+      </c>
+      <c r="H6" s="66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="67">
+        <v>33</v>
+      </c>
+      <c r="D7" s="66">
+        <v>23</v>
+      </c>
+      <c r="E7" s="66">
+        <v>8</v>
+      </c>
+      <c r="F7" s="66">
+        <v>9</v>
+      </c>
+      <c r="G7" s="66">
+        <v>10</v>
+      </c>
+      <c r="H7" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="67">
+        <v>11</v>
+      </c>
+      <c r="D8" s="66">
+        <v>7</v>
+      </c>
+      <c r="E8" s="66">
+        <v>2</v>
+      </c>
+      <c r="F8" s="66">
+        <v>1</v>
+      </c>
+      <c r="G8" s="66">
+        <v>3</v>
+      </c>
+      <c r="H8" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="67">
+        <v>17</v>
+      </c>
+      <c r="D9" s="66">
+        <v>9</v>
+      </c>
+      <c r="E9" s="66">
+        <v>4</v>
+      </c>
+      <c r="F9" s="66">
+        <v>4</v>
+      </c>
+      <c r="G9" s="66">
+        <v>8</v>
+      </c>
+      <c r="H9" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="67">
+        <v>21</v>
+      </c>
+      <c r="D10" s="66">
+        <v>7</v>
+      </c>
+      <c r="E10" s="66">
+        <v>1</v>
+      </c>
+      <c r="F10" s="66">
+        <v>5</v>
+      </c>
+      <c r="G10" s="66">
+        <v>6</v>
+      </c>
+      <c r="H10" s="66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="67">
+        <v>29</v>
+      </c>
+      <c r="D11" s="66">
+        <v>19</v>
+      </c>
+      <c r="E11" s="66">
+        <v>7</v>
+      </c>
+      <c r="F11" s="66">
+        <v>8</v>
+      </c>
+      <c r="G11" s="66">
+        <v>5</v>
+      </c>
+      <c r="H11" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="67">
+        <v>22</v>
+      </c>
+      <c r="D12" s="66">
+        <v>3</v>
+      </c>
+      <c r="E12" s="66">
+        <v>0</v>
+      </c>
+      <c r="F12" s="66">
+        <v>4</v>
+      </c>
+      <c r="G12" s="66">
+        <v>8</v>
+      </c>
+      <c r="H12" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="67">
+        <v>31</v>
+      </c>
+      <c r="D13" s="66">
+        <v>19</v>
+      </c>
+      <c r="E13" s="66">
+        <v>5</v>
+      </c>
+      <c r="F13" s="66">
+        <v>23</v>
+      </c>
+      <c r="G13" s="66">
+        <v>5</v>
+      </c>
+      <c r="H13" s="66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="67">
+        <v>15</v>
+      </c>
+      <c r="D14" s="66">
+        <v>12</v>
+      </c>
+      <c r="E14" s="66">
+        <v>5</v>
+      </c>
+      <c r="F14" s="66">
+        <v>8</v>
+      </c>
+      <c r="G14" s="66">
+        <v>2</v>
+      </c>
+      <c r="H14" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="67">
+        <v>82</v>
+      </c>
+      <c r="D15" s="66">
+        <v>67</v>
+      </c>
+      <c r="E15" s="66">
+        <v>35</v>
+      </c>
+      <c r="F15" s="66">
+        <v>41</v>
+      </c>
+      <c r="G15" s="66">
+        <v>20</v>
+      </c>
+      <c r="H15" s="66">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="67">
+        <v>13</v>
+      </c>
+      <c r="D16" s="66">
+        <v>7</v>
+      </c>
+      <c r="E16" s="66">
+        <v>1</v>
+      </c>
+      <c r="F16" s="66">
+        <v>6</v>
+      </c>
+      <c r="G16" s="66">
+        <v>5</v>
+      </c>
+      <c r="H16" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="67">
+        <v>23</v>
+      </c>
+      <c r="D18" s="66">
+        <v>14</v>
+      </c>
+      <c r="E18" s="66">
+        <v>6</v>
+      </c>
+      <c r="F18" s="66">
+        <v>7</v>
+      </c>
+      <c r="G18" s="66">
+        <v>8</v>
+      </c>
+      <c r="H18" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="67">
+        <v>24</v>
+      </c>
+      <c r="D19" s="66">
+        <v>15</v>
+      </c>
+      <c r="E19" s="66">
+        <v>5</v>
+      </c>
+      <c r="F19" s="66">
+        <v>9</v>
+      </c>
+      <c r="G19" s="66">
+        <v>5</v>
+      </c>
+      <c r="H19" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="71">
+        <v>24</v>
+      </c>
+      <c r="D21" s="70">
+        <v>15</v>
+      </c>
+      <c r="E21" s="70">
+        <v>6</v>
+      </c>
+      <c r="F21" s="70">
+        <v>8</v>
+      </c>
+      <c r="G21" s="70">
+        <v>7</v>
+      </c>
+      <c r="H21" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="67">
+        <v>16</v>
+      </c>
+      <c r="D24" s="66">
+        <v>10</v>
+      </c>
+      <c r="E24" s="66">
+        <v>2</v>
+      </c>
+      <c r="F24" s="66">
+        <v>8</v>
+      </c>
+      <c r="G24" s="66">
+        <v>3</v>
+      </c>
+      <c r="H24" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="67">
+        <v>19</v>
+      </c>
+      <c r="D25" s="66">
+        <v>12</v>
+      </c>
+      <c r="E25" s="66">
+        <v>6</v>
+      </c>
+      <c r="F25" s="66">
+        <v>4</v>
+      </c>
+      <c r="G25" s="66">
+        <v>5</v>
+      </c>
+      <c r="H25" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="67">
+        <v>25</v>
+      </c>
+      <c r="D26" s="66">
+        <v>15</v>
+      </c>
+      <c r="E26" s="66">
+        <v>6</v>
+      </c>
+      <c r="F26" s="66">
+        <v>9</v>
+      </c>
+      <c r="G26" s="66">
+        <v>7</v>
+      </c>
+      <c r="H26" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="67">
+        <v>30</v>
+      </c>
+      <c r="D27" s="66">
+        <v>20</v>
+      </c>
+      <c r="E27" s="66">
+        <v>7</v>
+      </c>
+      <c r="F27" s="66">
+        <v>8</v>
+      </c>
+      <c r="G27" s="66">
+        <v>8</v>
+      </c>
+      <c r="H27" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="67">
+        <v>50</v>
+      </c>
+      <c r="D28" s="66">
+        <v>35</v>
+      </c>
+      <c r="E28" s="66">
+        <v>14</v>
+      </c>
+      <c r="F28" s="66">
+        <v>15</v>
+      </c>
+      <c r="G28" s="66">
+        <v>22</v>
+      </c>
+      <c r="H28" s="66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="67">
+        <v>85</v>
+      </c>
+      <c r="D29" s="66">
+        <v>63</v>
+      </c>
+      <c r="E29" s="66">
+        <v>31</v>
+      </c>
+      <c r="F29" s="66">
+        <v>30</v>
+      </c>
+      <c r="G29" s="66">
+        <v>45</v>
+      </c>
+      <c r="H29" s="66">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/data/basisdaten_clean.xlsx
+++ b/app/data/basisdaten_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guadaluperomero/ProjectsTSB/innovationserhebung/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F57F6B-386F-F14F-BDD7-30623F7E9D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC83D8-7C2A-AF4E-9BB2-A4CBF371A309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" firstSheet="22" activeTab="29" xr2:uid="{25BCFA3D-CBEA-9B42-8B95-A0D09F81B565}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{25BCFA3D-CBEA-9B42-8B95-A0D09F81B565}"/>
   </bookViews>
   <sheets>
     <sheet name="basis_2013_ber" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="96">
   <si>
     <t>Nr. der Klas-
 sifikation</t>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>Anzahl Beschäf-tigte*</t>
-  </si>
-  <si>
-    <t>v</t>
   </si>
   <si>
     <t>Jahr</t>
@@ -16218,22 +16215,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="C1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="D1" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="E1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="56" t="s">
         <v>77</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -16403,22 +16400,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="C1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="D1" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="E1" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" t="s">
         <v>77</v>
-      </c>
-      <c r="F1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -16582,7 +16579,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1">
         <v>2012</v>
@@ -16647,7 +16644,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="57">
         <f>100-SUM(B3:B5)</f>
@@ -16675,7 +16672,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1">
         <v>2012</v>
@@ -16730,7 +16727,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="57">
         <f t="shared" ref="B6" si="0">100-SUM(B2:B5)</f>
@@ -16769,13 +16766,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>82</v>
-      </c>
       <c r="E1" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -17035,7 +17032,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="56">
         <v>0</v>
@@ -17086,7 +17083,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="56">
         <v>0</v>
@@ -17120,7 +17117,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="56">
         <v>0</v>
@@ -17157,7 +17154,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="61">
         <v>105</v>
@@ -17174,7 +17171,7 @@
         <v>47</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="61">
         <v>125</v>
@@ -17191,7 +17188,7 @@
         <v>48</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="61">
         <v>375</v>
@@ -17208,7 +17205,7 @@
         <v>49</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="61">
         <v>413</v>
@@ -17225,7 +17222,7 @@
         <v>50</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="61">
         <v>437</v>
@@ -17242,7 +17239,7 @@
         <v>51</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="61">
         <v>1587</v>
@@ -17256,7 +17253,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="56">
         <v>0</v>
@@ -17435,13 +17432,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="64" t="s">
-        <v>82</v>
-      </c>
       <c r="E1" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -17701,7 +17698,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -17752,7 +17749,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -17786,7 +17783,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -17823,7 +17820,7 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="60">
         <v>1427</v>
@@ -17840,7 +17837,7 @@
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="60">
         <v>1929</v>
@@ -17857,7 +17854,7 @@
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="60">
         <v>3615</v>
@@ -17874,7 +17871,7 @@
         <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="60">
         <v>11351</v>
@@ -17891,7 +17888,7 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="60">
         <v>16210</v>
@@ -17908,7 +17905,7 @@
         <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="60">
         <v>72490</v>
@@ -17937,28 +17934,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="H1" s="56" t="s">
         <v>94</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -18848,28 +18845,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="H1" s="56" t="s">
         <v>94</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -19759,28 +19756,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="H1" s="56" t="s">
         <v>94</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -20578,7 +20575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3617C5-31E3-BA4A-AE6E-FA8E9080AA63}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -20742,8 +20739,8 @@
       <c r="C6" s="20">
         <v>334</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>72</v>
+      <c r="D6" s="21">
+        <v>139</v>
       </c>
       <c r="E6" s="21">
         <v>113</v>
@@ -21760,7 +21757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FE29F2-626E-664E-9813-62F674DA7A6D}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -21768,28 +21765,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="H1" s="56" t="s">
         <v>94</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/app/data/basisdaten_clean.xlsx
+++ b/app/data/basisdaten_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guadaluperomero/ProjectsTSB/innovationserhebung/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC83D8-7C2A-AF4E-9BB2-A4CBF371A309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129FF03C-EDE2-8446-A100-62A0D43C997A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{25BCFA3D-CBEA-9B42-8B95-A0D09F81B565}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" firstSheet="26" activeTab="30" xr2:uid="{25BCFA3D-CBEA-9B42-8B95-A0D09F81B565}"/>
   </bookViews>
   <sheets>
     <sheet name="basis_2013_ber" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,10 @@
     <sheet name="coop_partner_2020_ber" sheetId="31" r:id="rId28"/>
     <sheet name="coop_partner_2012_de" sheetId="32" r:id="rId29"/>
     <sheet name="coop_partner_2020_de" sheetId="33" r:id="rId30"/>
+    <sheet name="coop_region_2012_ber" sheetId="34" r:id="rId31"/>
+    <sheet name="coop_region_2012_de" sheetId="35" r:id="rId32"/>
+    <sheet name="coop_region_2020_ber" sheetId="36" r:id="rId33"/>
+    <sheet name="coop_region_2020_de" sheetId="37" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="102">
   <si>
     <t>Nr. der Klas-
 sifikation</t>
@@ -355,6 +359,24 @@
   <si>
     <t>WZ</t>
   </si>
+  <si>
+    <t>der Region</t>
+  </si>
+  <si>
+    <t>anderen Regionen in Deutschland</t>
+  </si>
+  <si>
+    <t>anderen europäischen Ländern</t>
+  </si>
+  <si>
+    <t>den USA</t>
+  </si>
+  <si>
+    <t>Asien</t>
+  </si>
+  <si>
+    <t>anderen Ländern</t>
+  </si>
 </sst>
 </file>
 
@@ -525,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -671,6 +693,12 @@
     </xf>
     <xf numFmtId="1" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17927,7 +17955,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20575,7 +20603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3617C5-31E3-BA4A-AE6E-FA8E9080AA63}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -22574,6 +22602,3324 @@
       <c r="F38" s="56"/>
       <c r="G38" s="56"/>
       <c r="H38" s="56"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F37096C-7559-CA40-8E34-33BBEFF02349}">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21">
+        <v>14</v>
+      </c>
+      <c r="D3" s="21">
+        <v>6</v>
+      </c>
+      <c r="E3" s="21">
+        <v>6</v>
+      </c>
+      <c r="F3" s="21">
+        <v>4</v>
+      </c>
+      <c r="G3" s="21">
+        <v>3</v>
+      </c>
+      <c r="H3" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="21">
+        <v>59</v>
+      </c>
+      <c r="D4" s="21">
+        <v>45</v>
+      </c>
+      <c r="E4" s="21">
+        <v>41</v>
+      </c>
+      <c r="F4" s="21">
+        <v>11</v>
+      </c>
+      <c r="G4" s="21">
+        <v>10</v>
+      </c>
+      <c r="H4" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="21">
+        <v>14</v>
+      </c>
+      <c r="D6" s="21">
+        <v>8</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21">
+        <v>45</v>
+      </c>
+      <c r="D7" s="21">
+        <v>42</v>
+      </c>
+      <c r="E7" s="21">
+        <v>20</v>
+      </c>
+      <c r="F7" s="21">
+        <v>8</v>
+      </c>
+      <c r="G7" s="21">
+        <v>8</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="21">
+        <v>44</v>
+      </c>
+      <c r="D8" s="21">
+        <v>25</v>
+      </c>
+      <c r="E8" s="21">
+        <v>20</v>
+      </c>
+      <c r="F8" s="21">
+        <v>3</v>
+      </c>
+      <c r="G8" s="21">
+        <v>3</v>
+      </c>
+      <c r="H8" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="21">
+        <v>10</v>
+      </c>
+      <c r="D9" s="21">
+        <v>29</v>
+      </c>
+      <c r="E9" s="21">
+        <v>2</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="21">
+        <v>20</v>
+      </c>
+      <c r="D10" s="21">
+        <v>14</v>
+      </c>
+      <c r="E10" s="21">
+        <v>5</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="21">
+        <v>10</v>
+      </c>
+      <c r="D11" s="21">
+        <v>11</v>
+      </c>
+      <c r="E11" s="21">
+        <v>7</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <v>4</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="21">
+        <v>20</v>
+      </c>
+      <c r="D12" s="21">
+        <v>28</v>
+      </c>
+      <c r="E12" s="21">
+        <v>8</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="21">
+        <v>18</v>
+      </c>
+      <c r="D13" s="21">
+        <v>11</v>
+      </c>
+      <c r="E13" s="21">
+        <v>11</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="21">
+        <v>22</v>
+      </c>
+      <c r="D14" s="21">
+        <v>23</v>
+      </c>
+      <c r="E14" s="21">
+        <v>17</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="21">
+        <v>11</v>
+      </c>
+      <c r="D15" s="21">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="21">
+        <v>66</v>
+      </c>
+      <c r="D16" s="21">
+        <v>62</v>
+      </c>
+      <c r="E16" s="21">
+        <v>35</v>
+      </c>
+      <c r="F16" s="21">
+        <v>14</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="21">
+        <v>18</v>
+      </c>
+      <c r="D17" s="21">
+        <v>14</v>
+      </c>
+      <c r="E17" s="21">
+        <v>3</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="21">
+        <v>27</v>
+      </c>
+      <c r="D19" s="21">
+        <v>23</v>
+      </c>
+      <c r="E19" s="21">
+        <v>12</v>
+      </c>
+      <c r="F19" s="21">
+        <v>3</v>
+      </c>
+      <c r="G19" s="21">
+        <v>3</v>
+      </c>
+      <c r="H19" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="21">
+        <v>19</v>
+      </c>
+      <c r="D20" s="21">
+        <v>20</v>
+      </c>
+      <c r="E20" s="21">
+        <v>9</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="26">
+        <v>22</v>
+      </c>
+      <c r="D22" s="26">
+        <v>21</v>
+      </c>
+      <c r="E22" s="26">
+        <v>10</v>
+      </c>
+      <c r="F22" s="26">
+        <v>2</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1</v>
+      </c>
+      <c r="H22" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="21">
+        <v>16</v>
+      </c>
+      <c r="D25" s="21">
+        <v>15</v>
+      </c>
+      <c r="E25" s="21">
+        <v>4</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <v>1</v>
+      </c>
+      <c r="H25" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="21">
+        <v>20</v>
+      </c>
+      <c r="D26" s="21">
+        <v>22</v>
+      </c>
+      <c r="E26" s="21">
+        <v>11</v>
+      </c>
+      <c r="F26" s="21">
+        <v>2</v>
+      </c>
+      <c r="G26" s="21">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="21">
+        <v>25</v>
+      </c>
+      <c r="D27" s="21">
+        <v>22</v>
+      </c>
+      <c r="E27" s="21">
+        <v>11</v>
+      </c>
+      <c r="F27" s="21">
+        <v>1</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="21">
+        <v>30</v>
+      </c>
+      <c r="D28" s="21">
+        <v>29</v>
+      </c>
+      <c r="E28" s="21">
+        <v>12</v>
+      </c>
+      <c r="F28" s="21">
+        <v>2</v>
+      </c>
+      <c r="G28" s="21">
+        <v>2</v>
+      </c>
+      <c r="H28" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="21">
+        <v>73</v>
+      </c>
+      <c r="D29" s="21">
+        <v>63</v>
+      </c>
+      <c r="E29" s="21">
+        <v>54</v>
+      </c>
+      <c r="F29" s="21">
+        <v>25</v>
+      </c>
+      <c r="G29" s="21">
+        <v>24</v>
+      </c>
+      <c r="H29" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="21">
+        <v>70</v>
+      </c>
+      <c r="D30" s="21">
+        <v>74</v>
+      </c>
+      <c r="E30" s="21">
+        <v>66</v>
+      </c>
+      <c r="F30" s="21">
+        <v>34</v>
+      </c>
+      <c r="G30" s="21">
+        <v>31</v>
+      </c>
+      <c r="H30" s="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="21">
+        <v>48</v>
+      </c>
+      <c r="D33" s="21">
+        <v>50</v>
+      </c>
+      <c r="E33" s="21">
+        <v>21</v>
+      </c>
+      <c r="F33" s="21">
+        <v>4</v>
+      </c>
+      <c r="G33" s="21">
+        <v>4</v>
+      </c>
+      <c r="H33" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="21">
+        <v>27</v>
+      </c>
+      <c r="D34" s="21">
+        <v>24</v>
+      </c>
+      <c r="E34" s="21">
+        <v>12</v>
+      </c>
+      <c r="F34" s="21">
+        <v>5</v>
+      </c>
+      <c r="G34" s="21">
+        <v>5</v>
+      </c>
+      <c r="H34" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="21">
+        <v>27</v>
+      </c>
+      <c r="D35" s="21">
+        <v>14</v>
+      </c>
+      <c r="E35" s="21">
+        <v>14</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0</v>
+      </c>
+      <c r="G35" s="21">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="21">
+        <v>20</v>
+      </c>
+      <c r="D36" s="21">
+        <v>26</v>
+      </c>
+      <c r="E36" s="21">
+        <v>8</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0</v>
+      </c>
+      <c r="G36" s="21">
+        <v>0</v>
+      </c>
+      <c r="H36" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="21">
+        <v>23</v>
+      </c>
+      <c r="D37" s="21">
+        <v>21</v>
+      </c>
+      <c r="E37" s="21">
+        <v>8</v>
+      </c>
+      <c r="F37" s="21">
+        <v>3</v>
+      </c>
+      <c r="G37" s="21">
+        <v>0</v>
+      </c>
+      <c r="H37" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="21">
+        <v>18</v>
+      </c>
+      <c r="D38" s="21">
+        <v>19</v>
+      </c>
+      <c r="E38" s="21">
+        <v>13</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0</v>
+      </c>
+      <c r="G38" s="21">
+        <v>0</v>
+      </c>
+      <c r="H38" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="21">
+        <v>11</v>
+      </c>
+      <c r="D39" s="21">
+        <v>12</v>
+      </c>
+      <c r="E39" s="21">
+        <v>6</v>
+      </c>
+      <c r="F39" s="21">
+        <v>1</v>
+      </c>
+      <c r="G39" s="21">
+        <v>3</v>
+      </c>
+      <c r="H39" s="21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B88AB3-21CC-DA43-8C02-907780E2EA1D}">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>46</v>
+      </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>48</v>
+      </c>
+      <c r="E30">
+        <v>26</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>41</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>19</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38">
+        <v>22</v>
+      </c>
+      <c r="D38">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4127A38E-1EC4-954D-9DB2-9DE0917309B4}">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="8">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8">
+        <v>25</v>
+      </c>
+      <c r="E4" s="8">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8">
+        <v>27</v>
+      </c>
+      <c r="D7" s="8">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8">
+        <v>11</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8">
+        <v>7</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8">
+        <v>14</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="8">
+        <v>56</v>
+      </c>
+      <c r="D16" s="8">
+        <v>66</v>
+      </c>
+      <c r="E16" s="8">
+        <v>42</v>
+      </c>
+      <c r="F16" s="8">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4</v>
+      </c>
+      <c r="H16" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8">
+        <v>12</v>
+      </c>
+      <c r="D17" s="8">
+        <v>13</v>
+      </c>
+      <c r="E17" s="8">
+        <v>10</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="8">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8">
+        <v>16</v>
+      </c>
+      <c r="E19" s="8">
+        <v>7</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="8">
+        <v>18</v>
+      </c>
+      <c r="D20" s="8">
+        <v>18</v>
+      </c>
+      <c r="E20" s="8">
+        <v>6</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="11">
+        <v>17</v>
+      </c>
+      <c r="D22" s="11">
+        <v>17</v>
+      </c>
+      <c r="E22" s="11">
+        <v>7</v>
+      </c>
+      <c r="F22" s="11">
+        <v>2</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="8">
+        <v>13</v>
+      </c>
+      <c r="D25" s="8">
+        <v>13</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="8">
+        <v>14</v>
+      </c>
+      <c r="D26" s="8">
+        <v>12</v>
+      </c>
+      <c r="E26" s="8">
+        <v>5</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="8">
+        <v>17</v>
+      </c>
+      <c r="D27" s="8">
+        <v>16</v>
+      </c>
+      <c r="E27" s="8">
+        <v>6</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="8">
+        <v>20</v>
+      </c>
+      <c r="D28" s="8">
+        <v>25</v>
+      </c>
+      <c r="E28" s="8">
+        <v>8</v>
+      </c>
+      <c r="F28" s="8">
+        <v>3</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="8">
+        <v>32</v>
+      </c>
+      <c r="D29" s="8">
+        <v>42</v>
+      </c>
+      <c r="E29" s="8">
+        <v>24</v>
+      </c>
+      <c r="F29" s="8">
+        <v>11</v>
+      </c>
+      <c r="G29" s="8">
+        <v>8</v>
+      </c>
+      <c r="H29" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="8">
+        <v>73</v>
+      </c>
+      <c r="D30" s="8">
+        <v>80</v>
+      </c>
+      <c r="E30" s="8">
+        <v>60</v>
+      </c>
+      <c r="F30" s="8">
+        <v>39</v>
+      </c>
+      <c r="G30" s="8">
+        <v>30</v>
+      </c>
+      <c r="H30" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807574F5-FF77-854A-A93F-8E1CF13D6163}">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <v>36</v>
+      </c>
+      <c r="F16">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>59</v>
+      </c>
+      <c r="D30">
+        <v>67</v>
+      </c>
+      <c r="E30">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>26</v>
+      </c>
+      <c r="G30">
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/data/basisdaten_clean.xlsx
+++ b/app/data/basisdaten_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guadaluperomero/ProjectsTSB/innovationserhebung/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129FF03C-EDE2-8446-A100-62A0D43C997A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94787883-4D56-3248-A476-7060BF50CAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" firstSheet="26" activeTab="30" xr2:uid="{25BCFA3D-CBEA-9B42-8B95-A0D09F81B565}"/>
+    <workbookView xWindow="15260" yWindow="-28300" windowWidth="24940" windowHeight="26560" firstSheet="36" activeTab="41" xr2:uid="{25BCFA3D-CBEA-9B42-8B95-A0D09F81B565}"/>
   </bookViews>
   <sheets>
     <sheet name="basis_2013_ber" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,14 @@
     <sheet name="coop_region_2012_de" sheetId="35" r:id="rId32"/>
     <sheet name="coop_region_2020_ber" sheetId="36" r:id="rId33"/>
     <sheet name="coop_region_2020_de" sheetId="37" r:id="rId34"/>
+    <sheet name="protection_2012_ber" sheetId="42" r:id="rId35"/>
+    <sheet name="protection_2020_ber" sheetId="43" r:id="rId36"/>
+    <sheet name="protection_2012_de" sheetId="40" r:id="rId37"/>
+    <sheet name="protection_2020_de" sheetId="41" r:id="rId38"/>
+    <sheet name="public_funding_2012_ber" sheetId="44" r:id="rId39"/>
+    <sheet name="public_funding_2020_ber" sheetId="45" r:id="rId40"/>
+    <sheet name="public_funding_2012_de" sheetId="46" r:id="rId41"/>
+    <sheet name="public_funding_2020_de" sheetId="47" r:id="rId42"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="110">
   <si>
     <t>Nr. der Klas-
 sifikation</t>
@@ -377,6 +385,30 @@
   <si>
     <t>anderen Ländern</t>
   </si>
+  <si>
+    <t>Anmeldung von Patenten</t>
+  </si>
+  <si>
+    <t>Anmeldung von Gebrauchs-mustern</t>
+  </si>
+  <si>
+    <t>Eintragung von Geschmacks-mustern</t>
+  </si>
+  <si>
+    <t>Eintragung von Marken</t>
+  </si>
+  <si>
+    <t>Geltend-machung von Urheber-rechten</t>
+  </si>
+  <si>
+    <t>vom Land</t>
+  </si>
+  <si>
+    <t>vom Bund</t>
+  </si>
+  <si>
+    <t>von der EU</t>
+  </si>
 </sst>
 </file>
 
@@ -480,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -543,11 +575,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -699,6 +746,32 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17955,7 +18028,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18865,8 +18938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8892AF24-D85C-4D49-A7A1-70F793B3C12F}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22612,7 +22685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F37096C-7559-CA40-8E34-33BBEFF02349}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -25919,6 +25992,3303 @@
       </c>
       <c r="B39" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B9D5ED-1821-684A-BE84-B774B2FEECBB}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="20">
+        <v>3.4</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="21">
+        <v>4.3</v>
+      </c>
+      <c r="F2" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="20">
+        <v>23.5</v>
+      </c>
+      <c r="C3" s="21">
+        <v>9.6</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="E3" s="21">
+        <v>22.9</v>
+      </c>
+      <c r="F3" s="21">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="21">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="20">
+        <v>4.8</v>
+      </c>
+      <c r="C5" s="21">
+        <v>7.1</v>
+      </c>
+      <c r="D5" s="21">
+        <v>2.8</v>
+      </c>
+      <c r="E5" s="21">
+        <v>2.8</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="20">
+        <v>34.5</v>
+      </c>
+      <c r="C6" s="21">
+        <v>17.7</v>
+      </c>
+      <c r="D6" s="21">
+        <v>7.3</v>
+      </c>
+      <c r="E6" s="21">
+        <v>29.2</v>
+      </c>
+      <c r="F6" s="21">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="20">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C7" s="21">
+        <v>11.5</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="E7" s="21">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F7" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C8" s="21">
+        <v>4.2</v>
+      </c>
+      <c r="D8" s="21">
+        <v>2</v>
+      </c>
+      <c r="E8" s="21">
+        <v>15.6</v>
+      </c>
+      <c r="F8" s="21">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="20">
+        <v>3.3</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="E9" s="21">
+        <v>7.6</v>
+      </c>
+      <c r="F9" s="21">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="20">
+        <v>5.4</v>
+      </c>
+      <c r="C10" s="21">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="21">
+        <v>11.2</v>
+      </c>
+      <c r="F10" s="21">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="20">
+        <v>6.6</v>
+      </c>
+      <c r="C11" s="21">
+        <v>4.8</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="21">
+        <v>30.9</v>
+      </c>
+      <c r="F11" s="21">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="20">
+        <v>5.7</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>5.6</v>
+      </c>
+      <c r="E13" s="21">
+        <v>17.5</v>
+      </c>
+      <c r="F13" s="21">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="E14" s="21">
+        <v>3</v>
+      </c>
+      <c r="F14" s="21">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="20">
+        <v>43.4</v>
+      </c>
+      <c r="C15" s="21">
+        <v>3</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="21">
+        <v>12.9</v>
+      </c>
+      <c r="F15" s="21">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="20">
+        <v>4.3</v>
+      </c>
+      <c r="C16" s="21">
+        <v>7.2</v>
+      </c>
+      <c r="D16" s="21">
+        <v>5.7</v>
+      </c>
+      <c r="E16" s="21">
+        <v>18.3</v>
+      </c>
+      <c r="F16" s="21">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="20">
+        <v>10.6</v>
+      </c>
+      <c r="C18" s="21">
+        <v>7.3</v>
+      </c>
+      <c r="D18" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="E18" s="21">
+        <v>12.9</v>
+      </c>
+      <c r="F18" s="21">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="20">
+        <v>5.9</v>
+      </c>
+      <c r="C19" s="21">
+        <v>3.4</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="E19" s="21">
+        <v>15.6</v>
+      </c>
+      <c r="F19" s="21">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="76">
+        <v>7.5</v>
+      </c>
+      <c r="C21" s="77">
+        <v>4.7</v>
+      </c>
+      <c r="D21" s="77">
+        <v>1.9</v>
+      </c>
+      <c r="E21" s="77">
+        <v>14.7</v>
+      </c>
+      <c r="F21" s="77">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="C24" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="E24" s="21">
+        <v>12.5</v>
+      </c>
+      <c r="F24" s="21">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="20">
+        <v>3.3</v>
+      </c>
+      <c r="C25" s="21">
+        <v>2.8</v>
+      </c>
+      <c r="D25" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E25" s="21">
+        <v>15.3</v>
+      </c>
+      <c r="F25" s="21">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="20">
+        <v>6.9</v>
+      </c>
+      <c r="C26" s="21">
+        <v>5</v>
+      </c>
+      <c r="D26" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="E26" s="21">
+        <v>12.4</v>
+      </c>
+      <c r="F26" s="21">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="20">
+        <v>21.8</v>
+      </c>
+      <c r="C27" s="21">
+        <v>11.6</v>
+      </c>
+      <c r="D27" s="21">
+        <v>3.3</v>
+      </c>
+      <c r="E27" s="21">
+        <v>21.2</v>
+      </c>
+      <c r="F27" s="21">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="20">
+        <v>30.6</v>
+      </c>
+      <c r="C28" s="21">
+        <v>21.3</v>
+      </c>
+      <c r="D28" s="21">
+        <v>14.2</v>
+      </c>
+      <c r="E28" s="21">
+        <v>43.6</v>
+      </c>
+      <c r="F28" s="21">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="20">
+        <v>35</v>
+      </c>
+      <c r="C29" s="21">
+        <v>25.2</v>
+      </c>
+      <c r="D29" s="21">
+        <v>20.5</v>
+      </c>
+      <c r="E29" s="21">
+        <v>36.6</v>
+      </c>
+      <c r="F29" s="21">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="20">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C32" s="21">
+        <v>17.8</v>
+      </c>
+      <c r="D32" s="21">
+        <v>6</v>
+      </c>
+      <c r="E32" s="21">
+        <v>33.9</v>
+      </c>
+      <c r="F32" s="21">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="20">
+        <v>11</v>
+      </c>
+      <c r="C33" s="21">
+        <v>10.1</v>
+      </c>
+      <c r="D33" s="21">
+        <v>3.1</v>
+      </c>
+      <c r="E33" s="21">
+        <v>12.2</v>
+      </c>
+      <c r="F33" s="21">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="20">
+        <v>0</v>
+      </c>
+      <c r="C34" s="21">
+        <v>0</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
+        <v>0</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="20">
+        <v>5.9</v>
+      </c>
+      <c r="C35" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+      <c r="E35" s="21">
+        <v>31.4</v>
+      </c>
+      <c r="F35" s="21">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="20">
+        <v>6.9</v>
+      </c>
+      <c r="C36" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D36" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E36" s="21">
+        <v>4.3</v>
+      </c>
+      <c r="F36" s="21">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="20">
+        <v>5.6</v>
+      </c>
+      <c r="C37" s="21">
+        <v>5.3</v>
+      </c>
+      <c r="D37" s="21">
+        <v>5.2</v>
+      </c>
+      <c r="E37" s="21">
+        <v>21.3</v>
+      </c>
+      <c r="F37" s="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="C38" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="D38" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="E38" s="21">
+        <v>13.5</v>
+      </c>
+      <c r="F38" s="21">
+        <v>29.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D1B602-E86B-E146-BA02-5C569582881A}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="67">
+        <v>14</v>
+      </c>
+      <c r="C2" s="66">
+        <v>5</v>
+      </c>
+      <c r="D2" s="66">
+        <v>5</v>
+      </c>
+      <c r="E2" s="66">
+        <v>37</v>
+      </c>
+      <c r="F2" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="67">
+        <v>16</v>
+      </c>
+      <c r="C3" s="66">
+        <v>10</v>
+      </c>
+      <c r="D3" s="66">
+        <v>10</v>
+      </c>
+      <c r="E3" s="66">
+        <v>27</v>
+      </c>
+      <c r="F3" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="67">
+        <v>0</v>
+      </c>
+      <c r="C4" s="66">
+        <v>0</v>
+      </c>
+      <c r="D4" s="66">
+        <v>0</v>
+      </c>
+      <c r="E4" s="66">
+        <v>4</v>
+      </c>
+      <c r="F4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="67">
+        <v>0</v>
+      </c>
+      <c r="C5" s="66">
+        <v>0</v>
+      </c>
+      <c r="D5" s="66">
+        <v>0</v>
+      </c>
+      <c r="E5" s="66">
+        <v>0</v>
+      </c>
+      <c r="F5" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="67">
+        <v>6</v>
+      </c>
+      <c r="C6" s="66">
+        <v>0</v>
+      </c>
+      <c r="D6" s="66">
+        <v>0</v>
+      </c>
+      <c r="E6" s="66">
+        <v>8</v>
+      </c>
+      <c r="F6" s="66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="67">
+        <v>23</v>
+      </c>
+      <c r="C7" s="66">
+        <v>14</v>
+      </c>
+      <c r="D7" s="66">
+        <v>0</v>
+      </c>
+      <c r="E7" s="66">
+        <v>18</v>
+      </c>
+      <c r="F7" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="67">
+        <v>10</v>
+      </c>
+      <c r="C8" s="66">
+        <v>20</v>
+      </c>
+      <c r="D8" s="66">
+        <v>5</v>
+      </c>
+      <c r="E8" s="66">
+        <v>21</v>
+      </c>
+      <c r="F8" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="67">
+        <v>3</v>
+      </c>
+      <c r="C9" s="66">
+        <v>0</v>
+      </c>
+      <c r="D9" s="66">
+        <v>0</v>
+      </c>
+      <c r="E9" s="66">
+        <v>0</v>
+      </c>
+      <c r="F9" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="67">
+        <v>3</v>
+      </c>
+      <c r="C10" s="66">
+        <v>1</v>
+      </c>
+      <c r="D10" s="66">
+        <v>1</v>
+      </c>
+      <c r="E10" s="66">
+        <v>7</v>
+      </c>
+      <c r="F10" s="66">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="67">
+        <v>6</v>
+      </c>
+      <c r="C11" s="66">
+        <v>3</v>
+      </c>
+      <c r="D11" s="66">
+        <v>0</v>
+      </c>
+      <c r="E11" s="66">
+        <v>24</v>
+      </c>
+      <c r="F11" s="66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="67">
+        <v>1</v>
+      </c>
+      <c r="C12" s="66">
+        <v>0</v>
+      </c>
+      <c r="D12" s="66">
+        <v>0</v>
+      </c>
+      <c r="E12" s="66">
+        <v>20</v>
+      </c>
+      <c r="F12" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="67">
+        <v>5</v>
+      </c>
+      <c r="C13" s="66">
+        <v>0</v>
+      </c>
+      <c r="D13" s="66">
+        <v>6</v>
+      </c>
+      <c r="E13" s="66">
+        <v>32</v>
+      </c>
+      <c r="F13" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="67">
+        <v>4</v>
+      </c>
+      <c r="C14" s="66">
+        <v>7</v>
+      </c>
+      <c r="D14" s="66">
+        <v>0</v>
+      </c>
+      <c r="E14" s="66">
+        <v>8</v>
+      </c>
+      <c r="F14" s="66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="67">
+        <v>36</v>
+      </c>
+      <c r="C15" s="66">
+        <v>17</v>
+      </c>
+      <c r="D15" s="66">
+        <v>0</v>
+      </c>
+      <c r="E15" s="66">
+        <v>22</v>
+      </c>
+      <c r="F15" s="66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="67">
+        <v>0</v>
+      </c>
+      <c r="C16" s="66">
+        <v>0</v>
+      </c>
+      <c r="D16" s="66">
+        <v>1</v>
+      </c>
+      <c r="E16" s="66">
+        <v>20</v>
+      </c>
+      <c r="F16" s="66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="67">
+        <v>10</v>
+      </c>
+      <c r="C18" s="66">
+        <v>7</v>
+      </c>
+      <c r="D18" s="66">
+        <v>2</v>
+      </c>
+      <c r="E18" s="66">
+        <v>16</v>
+      </c>
+      <c r="F18" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="67">
+        <v>5</v>
+      </c>
+      <c r="C19" s="66">
+        <v>3</v>
+      </c>
+      <c r="D19" s="66">
+        <v>1</v>
+      </c>
+      <c r="E19" s="66">
+        <v>20</v>
+      </c>
+      <c r="F19" s="66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="71">
+        <v>6</v>
+      </c>
+      <c r="C21" s="70">
+        <v>4</v>
+      </c>
+      <c r="D21" s="70">
+        <v>1</v>
+      </c>
+      <c r="E21" s="70">
+        <v>19</v>
+      </c>
+      <c r="F21" s="70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="67">
+        <v>3</v>
+      </c>
+      <c r="C24" s="66">
+        <v>4</v>
+      </c>
+      <c r="D24" s="66">
+        <v>0</v>
+      </c>
+      <c r="E24" s="66">
+        <v>7</v>
+      </c>
+      <c r="F24" s="66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="67">
+        <v>7</v>
+      </c>
+      <c r="C25" s="66">
+        <v>2</v>
+      </c>
+      <c r="D25" s="66">
+        <v>0</v>
+      </c>
+      <c r="E25" s="66">
+        <v>17</v>
+      </c>
+      <c r="F25" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="67">
+        <v>6</v>
+      </c>
+      <c r="C26" s="66">
+        <v>4</v>
+      </c>
+      <c r="D26" s="66">
+        <v>1</v>
+      </c>
+      <c r="E26" s="66">
+        <v>30</v>
+      </c>
+      <c r="F26" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="67">
+        <v>14</v>
+      </c>
+      <c r="C27" s="66">
+        <v>6</v>
+      </c>
+      <c r="D27" s="66">
+        <v>5</v>
+      </c>
+      <c r="E27" s="66">
+        <v>34</v>
+      </c>
+      <c r="F27" s="66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="67">
+        <v>7</v>
+      </c>
+      <c r="C28" s="66">
+        <v>7</v>
+      </c>
+      <c r="D28" s="66">
+        <v>7</v>
+      </c>
+      <c r="E28" s="66">
+        <v>25</v>
+      </c>
+      <c r="F28" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="67">
+        <v>17</v>
+      </c>
+      <c r="C29" s="66">
+        <v>10</v>
+      </c>
+      <c r="D29" s="66">
+        <v>7</v>
+      </c>
+      <c r="E29" s="66">
+        <v>24</v>
+      </c>
+      <c r="F29" s="66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="67">
+        <v>12</v>
+      </c>
+      <c r="C32" s="66">
+        <v>8</v>
+      </c>
+      <c r="D32" s="66">
+        <v>0</v>
+      </c>
+      <c r="E32" s="66">
+        <v>13</v>
+      </c>
+      <c r="F32" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="67">
+        <v>18</v>
+      </c>
+      <c r="C33" s="66">
+        <v>8</v>
+      </c>
+      <c r="D33" s="66">
+        <v>4</v>
+      </c>
+      <c r="E33" s="66">
+        <v>26</v>
+      </c>
+      <c r="F33" s="66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="67">
+        <v>0</v>
+      </c>
+      <c r="C34" s="66">
+        <v>0</v>
+      </c>
+      <c r="D34" s="66">
+        <v>0</v>
+      </c>
+      <c r="E34" s="66">
+        <v>24</v>
+      </c>
+      <c r="F34" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="67">
+        <v>6</v>
+      </c>
+      <c r="C35" s="66">
+        <v>3</v>
+      </c>
+      <c r="D35" s="66">
+        <v>0</v>
+      </c>
+      <c r="E35" s="66">
+        <v>24</v>
+      </c>
+      <c r="F35" s="66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="67">
+        <v>9</v>
+      </c>
+      <c r="C36" s="66">
+        <v>8</v>
+      </c>
+      <c r="D36" s="66">
+        <v>0</v>
+      </c>
+      <c r="E36" s="66">
+        <v>13</v>
+      </c>
+      <c r="F36" s="66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="67">
+        <v>3</v>
+      </c>
+      <c r="C37" s="66">
+        <v>0</v>
+      </c>
+      <c r="D37" s="66">
+        <v>4</v>
+      </c>
+      <c r="E37" s="66">
+        <v>28</v>
+      </c>
+      <c r="F37" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="67">
+        <v>2</v>
+      </c>
+      <c r="C38" s="66">
+        <v>0</v>
+      </c>
+      <c r="D38" s="66">
+        <v>0</v>
+      </c>
+      <c r="E38" s="66">
+        <v>10</v>
+      </c>
+      <c r="F38" s="66">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C2E48A-BB55-9949-AE02-B813B2BB5A43}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="C3" s="8">
+        <v>14.1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="E3" s="8">
+        <v>22.7</v>
+      </c>
+      <c r="F3" s="8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="E4" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7">
+        <v>22.2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E8" s="8">
+        <v>12.1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F10" s="8">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="8">
+        <v>20.8</v>
+      </c>
+      <c r="F11" s="8">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>5</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7">
+        <v>60.6</v>
+      </c>
+      <c r="C15" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>24.4</v>
+      </c>
+      <c r="F15" s="8">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="E16" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="F16" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="C18" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="E18" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E19" s="8">
+        <v>11.3</v>
+      </c>
+      <c r="F19" s="8">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="78">
+        <v>9.6</v>
+      </c>
+      <c r="C21" s="79">
+        <v>6.6</v>
+      </c>
+      <c r="D21" s="79">
+        <v>2.9</v>
+      </c>
+      <c r="E21" s="79">
+        <v>10.5</v>
+      </c>
+      <c r="F21" s="79">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E24" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="F24" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="E25" s="8">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="C26" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="D26" s="8">
+        <v>3</v>
+      </c>
+      <c r="E26" s="8">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="7">
+        <v>21.7</v>
+      </c>
+      <c r="C27" s="8">
+        <v>14.1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>5</v>
+      </c>
+      <c r="E27" s="8">
+        <v>19.3</v>
+      </c>
+      <c r="F27" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="7">
+        <v>42.4</v>
+      </c>
+      <c r="C28" s="8">
+        <v>26.3</v>
+      </c>
+      <c r="D28" s="8">
+        <v>13.9</v>
+      </c>
+      <c r="E28" s="8">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F28" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="7">
+        <v>51</v>
+      </c>
+      <c r="C29" s="8">
+        <v>32</v>
+      </c>
+      <c r="D29" s="8">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E29" s="8">
+        <v>44.2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985237C6-29B4-DB47-A521-10B54A0BB5EF}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="80">
+        <v>3</v>
+      </c>
+      <c r="C2" s="49">
+        <v>3</v>
+      </c>
+      <c r="D2" s="49">
+        <v>2</v>
+      </c>
+      <c r="E2" s="49">
+        <v>9</v>
+      </c>
+      <c r="F2" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="80">
+        <v>18</v>
+      </c>
+      <c r="C3" s="49">
+        <v>14</v>
+      </c>
+      <c r="D3" s="49">
+        <v>5</v>
+      </c>
+      <c r="E3" s="49">
+        <v>23</v>
+      </c>
+      <c r="F3" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="80">
+        <v>5</v>
+      </c>
+      <c r="C4" s="49">
+        <v>6</v>
+      </c>
+      <c r="D4" s="49">
+        <v>1</v>
+      </c>
+      <c r="E4" s="49">
+        <v>11</v>
+      </c>
+      <c r="F4" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="80">
+        <v>12</v>
+      </c>
+      <c r="C5" s="49">
+        <v>10</v>
+      </c>
+      <c r="D5" s="49">
+        <v>6</v>
+      </c>
+      <c r="E5" s="49">
+        <v>13</v>
+      </c>
+      <c r="F5" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="80">
+        <v>28</v>
+      </c>
+      <c r="C6" s="49">
+        <v>12</v>
+      </c>
+      <c r="D6" s="49">
+        <v>8</v>
+      </c>
+      <c r="E6" s="49">
+        <v>19</v>
+      </c>
+      <c r="F6" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="80">
+        <v>35</v>
+      </c>
+      <c r="C7" s="49">
+        <v>16</v>
+      </c>
+      <c r="D7" s="49">
+        <v>4</v>
+      </c>
+      <c r="E7" s="49">
+        <v>19</v>
+      </c>
+      <c r="F7" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="80">
+        <v>11</v>
+      </c>
+      <c r="C8" s="49">
+        <v>18</v>
+      </c>
+      <c r="D8" s="49">
+        <v>10</v>
+      </c>
+      <c r="E8" s="49">
+        <v>25</v>
+      </c>
+      <c r="F8" s="49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="80">
+        <v>2</v>
+      </c>
+      <c r="C9" s="49">
+        <v>1</v>
+      </c>
+      <c r="D9" s="49">
+        <v>0</v>
+      </c>
+      <c r="E9" s="49">
+        <v>7</v>
+      </c>
+      <c r="F9" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="80">
+        <v>6</v>
+      </c>
+      <c r="C10" s="49">
+        <v>6</v>
+      </c>
+      <c r="D10" s="49">
+        <v>3</v>
+      </c>
+      <c r="E10" s="49">
+        <v>23</v>
+      </c>
+      <c r="F10" s="49">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="80">
+        <v>6</v>
+      </c>
+      <c r="C11" s="49">
+        <v>2</v>
+      </c>
+      <c r="D11" s="49">
+        <v>0</v>
+      </c>
+      <c r="E11" s="49">
+        <v>16</v>
+      </c>
+      <c r="F11" s="49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="80">
+        <v>2</v>
+      </c>
+      <c r="C12" s="49">
+        <v>0</v>
+      </c>
+      <c r="D12" s="49">
+        <v>0</v>
+      </c>
+      <c r="E12" s="49">
+        <v>13</v>
+      </c>
+      <c r="F12" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="80">
+        <v>1</v>
+      </c>
+      <c r="C13" s="49">
+        <v>5</v>
+      </c>
+      <c r="D13" s="49">
+        <v>1</v>
+      </c>
+      <c r="E13" s="49">
+        <v>33</v>
+      </c>
+      <c r="F13" s="49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="80">
+        <v>4</v>
+      </c>
+      <c r="C14" s="49">
+        <v>1</v>
+      </c>
+      <c r="D14" s="49">
+        <v>0</v>
+      </c>
+      <c r="E14" s="49">
+        <v>4</v>
+      </c>
+      <c r="F14" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="80">
+        <v>38</v>
+      </c>
+      <c r="C15" s="49">
+        <v>5</v>
+      </c>
+      <c r="D15" s="49">
+        <v>3</v>
+      </c>
+      <c r="E15" s="49">
+        <v>22</v>
+      </c>
+      <c r="F15" s="49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="80">
+        <v>1</v>
+      </c>
+      <c r="C16" s="49">
+        <v>2</v>
+      </c>
+      <c r="D16" s="49">
+        <v>1</v>
+      </c>
+      <c r="E16" s="49">
+        <v>11</v>
+      </c>
+      <c r="F16" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="80">
+        <v>17</v>
+      </c>
+      <c r="C18" s="49">
+        <v>11</v>
+      </c>
+      <c r="D18" s="49">
+        <v>5</v>
+      </c>
+      <c r="E18" s="49">
+        <v>16</v>
+      </c>
+      <c r="F18" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="80">
+        <v>5</v>
+      </c>
+      <c r="C19" s="49">
+        <v>2</v>
+      </c>
+      <c r="D19" s="49">
+        <v>0</v>
+      </c>
+      <c r="E19" s="49">
+        <v>14</v>
+      </c>
+      <c r="F19" s="49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="82">
+        <v>12</v>
+      </c>
+      <c r="C21" s="83">
+        <v>7</v>
+      </c>
+      <c r="D21" s="83">
+        <v>3</v>
+      </c>
+      <c r="E21" s="83">
+        <v>15</v>
+      </c>
+      <c r="F21" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="80">
+        <v>6</v>
+      </c>
+      <c r="C24" s="49">
+        <v>5</v>
+      </c>
+      <c r="D24" s="49">
+        <v>2</v>
+      </c>
+      <c r="E24" s="49">
+        <v>12</v>
+      </c>
+      <c r="F24" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="80">
+        <v>6</v>
+      </c>
+      <c r="C25" s="49">
+        <v>4</v>
+      </c>
+      <c r="D25" s="49">
+        <v>1</v>
+      </c>
+      <c r="E25" s="49">
+        <v>11</v>
+      </c>
+      <c r="F25" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="80">
+        <v>12</v>
+      </c>
+      <c r="C26" s="49">
+        <v>6</v>
+      </c>
+      <c r="D26" s="49">
+        <v>3</v>
+      </c>
+      <c r="E26" s="49">
+        <v>16</v>
+      </c>
+      <c r="F26" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="80">
+        <v>22</v>
+      </c>
+      <c r="C27" s="49">
+        <v>13</v>
+      </c>
+      <c r="D27" s="49">
+        <v>5</v>
+      </c>
+      <c r="E27" s="49">
+        <v>22</v>
+      </c>
+      <c r="F27" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="80">
+        <v>39</v>
+      </c>
+      <c r="C28" s="49">
+        <v>24</v>
+      </c>
+      <c r="D28" s="49">
+        <v>11</v>
+      </c>
+      <c r="E28" s="49">
+        <v>29</v>
+      </c>
+      <c r="F28" s="49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="80">
+        <v>51</v>
+      </c>
+      <c r="C29" s="49">
+        <v>29</v>
+      </c>
+      <c r="D29" s="49">
+        <v>14</v>
+      </c>
+      <c r="E29" s="49">
+        <v>39</v>
+      </c>
+      <c r="F29" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D177C939-6B65-2B4B-9575-55CD93E36919}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21">
+        <v>14</v>
+      </c>
+      <c r="D3" s="21">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21">
+        <v>7</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="21">
+        <v>57</v>
+      </c>
+      <c r="D4" s="21">
+        <v>16</v>
+      </c>
+      <c r="E4" s="21">
+        <v>54</v>
+      </c>
+      <c r="F4" s="21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="21">
+        <v>27</v>
+      </c>
+      <c r="D5" s="21">
+        <v>13</v>
+      </c>
+      <c r="E5" s="21">
+        <v>5</v>
+      </c>
+      <c r="F5" s="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="21">
+        <v>19</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>19</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21">
+        <v>67</v>
+      </c>
+      <c r="D7" s="21">
+        <v>21</v>
+      </c>
+      <c r="E7" s="21">
+        <v>64</v>
+      </c>
+      <c r="F7" s="21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="21">
+        <v>63</v>
+      </c>
+      <c r="D8" s="21">
+        <v>12</v>
+      </c>
+      <c r="E8" s="21">
+        <v>51</v>
+      </c>
+      <c r="F8" s="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="21">
+        <v>23</v>
+      </c>
+      <c r="D9" s="21">
+        <v>17</v>
+      </c>
+      <c r="E9" s="21">
+        <v>15</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="21">
+        <v>8</v>
+      </c>
+      <c r="D10" s="21">
+        <v>3</v>
+      </c>
+      <c r="E10" s="21">
+        <v>6</v>
+      </c>
+      <c r="F10" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="21">
+        <v>20</v>
+      </c>
+      <c r="D11" s="21">
+        <v>6</v>
+      </c>
+      <c r="E11" s="21">
+        <v>12</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="21">
+        <v>50</v>
+      </c>
+      <c r="D12" s="21">
+        <v>6</v>
+      </c>
+      <c r="E12" s="21">
+        <v>39</v>
+      </c>
+      <c r="F12" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="21">
+        <v>30</v>
+      </c>
+      <c r="D14" s="21">
+        <v>4</v>
+      </c>
+      <c r="E14" s="21">
+        <v>22</v>
+      </c>
+      <c r="F14" s="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="21">
+        <v>18</v>
+      </c>
+      <c r="D15" s="21">
+        <v>6</v>
+      </c>
+      <c r="E15" s="21">
+        <v>12</v>
+      </c>
+      <c r="F15" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="21">
+        <v>85</v>
+      </c>
+      <c r="D16" s="21">
+        <v>44</v>
+      </c>
+      <c r="E16" s="21">
+        <v>77</v>
+      </c>
+      <c r="F16" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="21">
+        <v>25</v>
+      </c>
+      <c r="D17" s="21">
+        <v>18</v>
+      </c>
+      <c r="E17" s="21">
+        <v>18</v>
+      </c>
+      <c r="F17" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="21">
+        <v>38</v>
+      </c>
+      <c r="D19" s="21">
+        <v>12</v>
+      </c>
+      <c r="E19" s="21">
+        <v>31</v>
+      </c>
+      <c r="F19" s="21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="21">
+        <v>33</v>
+      </c>
+      <c r="D20" s="21">
+        <v>9</v>
+      </c>
+      <c r="E20" s="21">
+        <v>26</v>
+      </c>
+      <c r="F20" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="26">
+        <v>35</v>
+      </c>
+      <c r="D22" s="26">
+        <v>10</v>
+      </c>
+      <c r="E22" s="26">
+        <v>27</v>
+      </c>
+      <c r="F22" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="21">
+        <v>25</v>
+      </c>
+      <c r="D25" s="21">
+        <v>7</v>
+      </c>
+      <c r="E25" s="21">
+        <v>19</v>
+      </c>
+      <c r="F25" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="21">
+        <v>36</v>
+      </c>
+      <c r="D26" s="21">
+        <v>13</v>
+      </c>
+      <c r="E26" s="21">
+        <v>27</v>
+      </c>
+      <c r="F26" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="21">
+        <v>42</v>
+      </c>
+      <c r="D27" s="21">
+        <v>8</v>
+      </c>
+      <c r="E27" s="21">
+        <v>34</v>
+      </c>
+      <c r="F27" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="21">
+        <v>53</v>
+      </c>
+      <c r="D28" s="21">
+        <v>16</v>
+      </c>
+      <c r="E28" s="21">
+        <v>43</v>
+      </c>
+      <c r="F28" s="21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="21">
+        <v>58</v>
+      </c>
+      <c r="D29" s="21">
+        <v>18</v>
+      </c>
+      <c r="E29" s="21">
+        <v>51</v>
+      </c>
+      <c r="F29" s="21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="21">
+        <v>49</v>
+      </c>
+      <c r="D30" s="21">
+        <v>18</v>
+      </c>
+      <c r="E30" s="21">
+        <v>43</v>
+      </c>
+      <c r="F30" s="21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="20">
+        <v>75</v>
+      </c>
+      <c r="D33" s="21">
+        <v>26</v>
+      </c>
+      <c r="E33" s="21">
+        <v>74</v>
+      </c>
+      <c r="F33" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="20">
+        <v>37</v>
+      </c>
+      <c r="D34" s="21">
+        <v>12</v>
+      </c>
+      <c r="E34" s="21">
+        <v>29</v>
+      </c>
+      <c r="F34" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="20">
+        <v>0</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="20">
+        <v>49</v>
+      </c>
+      <c r="D36" s="21">
+        <v>7</v>
+      </c>
+      <c r="E36" s="21">
+        <v>38</v>
+      </c>
+      <c r="F36" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="20">
+        <v>33</v>
+      </c>
+      <c r="D37" s="21">
+        <v>16</v>
+      </c>
+      <c r="E37" s="21">
+        <v>25</v>
+      </c>
+      <c r="F37" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="20">
+        <v>30</v>
+      </c>
+      <c r="D38" s="21">
+        <v>9</v>
+      </c>
+      <c r="E38" s="21">
+        <v>24</v>
+      </c>
+      <c r="F38" s="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="20">
+        <v>13</v>
+      </c>
+      <c r="D39" s="21">
+        <v>2</v>
+      </c>
+      <c r="E39" s="21">
+        <v>8</v>
+      </c>
+      <c r="F39" s="21">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -26990,6 +30360,2047 @@
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA997AF-CFE8-384D-9ADC-A91F3B5ECC2C}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="67">
+        <v>0</v>
+      </c>
+      <c r="D3" s="66">
+        <v>0</v>
+      </c>
+      <c r="E3" s="66">
+        <v>0</v>
+      </c>
+      <c r="F3" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="67">
+        <v>26</v>
+      </c>
+      <c r="D4" s="66">
+        <v>5</v>
+      </c>
+      <c r="E4" s="66">
+        <v>21</v>
+      </c>
+      <c r="F4" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="67">
+        <v>9</v>
+      </c>
+      <c r="D5" s="66">
+        <v>8</v>
+      </c>
+      <c r="E5" s="66">
+        <v>1</v>
+      </c>
+      <c r="F5" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="67">
+        <v>13</v>
+      </c>
+      <c r="D6" s="66">
+        <v>5</v>
+      </c>
+      <c r="E6" s="66">
+        <v>0</v>
+      </c>
+      <c r="F6" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="67">
+        <v>44</v>
+      </c>
+      <c r="D7" s="66">
+        <v>12</v>
+      </c>
+      <c r="E7" s="66">
+        <v>44</v>
+      </c>
+      <c r="F7" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="67">
+        <v>42</v>
+      </c>
+      <c r="D8" s="66">
+        <v>15</v>
+      </c>
+      <c r="E8" s="66">
+        <v>28</v>
+      </c>
+      <c r="F8" s="66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="67">
+        <v>29</v>
+      </c>
+      <c r="D9" s="66">
+        <v>21</v>
+      </c>
+      <c r="E9" s="66">
+        <v>9</v>
+      </c>
+      <c r="F9" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="67">
+        <v>22</v>
+      </c>
+      <c r="D10" s="66">
+        <v>3</v>
+      </c>
+      <c r="E10" s="66">
+        <v>22</v>
+      </c>
+      <c r="F10" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="67">
+        <v>19</v>
+      </c>
+      <c r="D11" s="66">
+        <v>19</v>
+      </c>
+      <c r="E11" s="66">
+        <v>0</v>
+      </c>
+      <c r="F11" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="67">
+        <v>26</v>
+      </c>
+      <c r="D12" s="66">
+        <v>6</v>
+      </c>
+      <c r="E12" s="66">
+        <v>20</v>
+      </c>
+      <c r="F12" s="66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="67">
+        <v>0</v>
+      </c>
+      <c r="D13" s="66">
+        <v>0</v>
+      </c>
+      <c r="E13" s="66">
+        <v>0</v>
+      </c>
+      <c r="F13" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="67">
+        <v>18</v>
+      </c>
+      <c r="D14" s="66">
+        <v>9</v>
+      </c>
+      <c r="E14" s="66">
+        <v>14</v>
+      </c>
+      <c r="F14" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="67">
+        <v>13</v>
+      </c>
+      <c r="D15" s="66">
+        <v>3</v>
+      </c>
+      <c r="E15" s="66">
+        <v>9</v>
+      </c>
+      <c r="F15" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="67">
+        <v>70</v>
+      </c>
+      <c r="D16" s="66">
+        <v>30</v>
+      </c>
+      <c r="E16" s="66">
+        <v>55</v>
+      </c>
+      <c r="F16" s="66">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="67">
+        <v>12</v>
+      </c>
+      <c r="D17" s="66">
+        <v>13</v>
+      </c>
+      <c r="E17" s="66">
+        <v>0</v>
+      </c>
+      <c r="F17" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="67">
+        <v>25</v>
+      </c>
+      <c r="D19" s="66">
+        <v>10</v>
+      </c>
+      <c r="E19" s="66">
+        <v>17</v>
+      </c>
+      <c r="F19" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="67">
+        <v>21</v>
+      </c>
+      <c r="D20" s="66">
+        <v>9</v>
+      </c>
+      <c r="E20" s="66">
+        <v>13</v>
+      </c>
+      <c r="F20" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="71">
+        <v>22</v>
+      </c>
+      <c r="D22" s="70">
+        <v>9</v>
+      </c>
+      <c r="E22" s="70">
+        <v>14</v>
+      </c>
+      <c r="F22" s="70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="67">
+        <v>15</v>
+      </c>
+      <c r="D25" s="66">
+        <v>8</v>
+      </c>
+      <c r="E25" s="66">
+        <v>8</v>
+      </c>
+      <c r="F25" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="67">
+        <v>25</v>
+      </c>
+      <c r="D26" s="66">
+        <v>11</v>
+      </c>
+      <c r="E26" s="66">
+        <v>15</v>
+      </c>
+      <c r="F26" s="66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="67">
+        <v>18</v>
+      </c>
+      <c r="D27" s="66">
+        <v>4</v>
+      </c>
+      <c r="E27" s="66">
+        <v>16</v>
+      </c>
+      <c r="F27" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="67">
+        <v>35</v>
+      </c>
+      <c r="D28" s="66">
+        <v>15</v>
+      </c>
+      <c r="E28" s="66">
+        <v>20</v>
+      </c>
+      <c r="F28" s="66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="67">
+        <v>35</v>
+      </c>
+      <c r="D29" s="66">
+        <v>14</v>
+      </c>
+      <c r="E29" s="66">
+        <v>31</v>
+      </c>
+      <c r="F29" s="66">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="67">
+        <v>55</v>
+      </c>
+      <c r="D30" s="66">
+        <v>32</v>
+      </c>
+      <c r="E30" s="66">
+        <v>44</v>
+      </c>
+      <c r="F30" s="66">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="67">
+        <v>62</v>
+      </c>
+      <c r="D33" s="66">
+        <v>16</v>
+      </c>
+      <c r="E33" s="66">
+        <v>54</v>
+      </c>
+      <c r="F33" s="66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="67">
+        <v>39</v>
+      </c>
+      <c r="D34" s="66">
+        <v>25</v>
+      </c>
+      <c r="E34" s="66">
+        <v>21</v>
+      </c>
+      <c r="F34" s="66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="67">
+        <v>0</v>
+      </c>
+      <c r="D35" s="66">
+        <v>0</v>
+      </c>
+      <c r="E35" s="66">
+        <v>0</v>
+      </c>
+      <c r="F35" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="67">
+        <v>25</v>
+      </c>
+      <c r="D36" s="66">
+        <v>6</v>
+      </c>
+      <c r="E36" s="66">
+        <v>19</v>
+      </c>
+      <c r="F36" s="66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="67">
+        <v>23</v>
+      </c>
+      <c r="D37" s="66">
+        <v>9</v>
+      </c>
+      <c r="E37" s="66">
+        <v>16</v>
+      </c>
+      <c r="F37" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="67">
+        <v>18</v>
+      </c>
+      <c r="D38" s="66">
+        <v>13</v>
+      </c>
+      <c r="E38" s="66">
+        <v>8</v>
+      </c>
+      <c r="F38" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="67">
+        <v>17</v>
+      </c>
+      <c r="D39" s="66">
+        <v>17</v>
+      </c>
+      <c r="E39" s="66">
+        <v>0</v>
+      </c>
+      <c r="F39" s="66">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0301A2E4-C076-F344-8CA6-A1C0FAD6CDFB}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="20">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21">
+        <v>2</v>
+      </c>
+      <c r="F3" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="20">
+        <v>31</v>
+      </c>
+      <c r="D4" s="21">
+        <v>8</v>
+      </c>
+      <c r="E4" s="21">
+        <v>22</v>
+      </c>
+      <c r="F4" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="20">
+        <v>13</v>
+      </c>
+      <c r="D5" s="21">
+        <v>5</v>
+      </c>
+      <c r="E5" s="21">
+        <v>6</v>
+      </c>
+      <c r="F5" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="20">
+        <v>25</v>
+      </c>
+      <c r="D6" s="21">
+        <v>5</v>
+      </c>
+      <c r="E6" s="21">
+        <v>19</v>
+      </c>
+      <c r="F6" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="20">
+        <v>45</v>
+      </c>
+      <c r="D7" s="21">
+        <v>14</v>
+      </c>
+      <c r="E7" s="21">
+        <v>36</v>
+      </c>
+      <c r="F7" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="20">
+        <v>40</v>
+      </c>
+      <c r="D8" s="21">
+        <v>13</v>
+      </c>
+      <c r="E8" s="21">
+        <v>29</v>
+      </c>
+      <c r="F8" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="20">
+        <v>14</v>
+      </c>
+      <c r="D9" s="21">
+        <v>5</v>
+      </c>
+      <c r="E9" s="21">
+        <v>11</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="20">
+        <v>11</v>
+      </c>
+      <c r="D10" s="21">
+        <v>3</v>
+      </c>
+      <c r="E10" s="21">
+        <v>6</v>
+      </c>
+      <c r="F10" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="20">
+        <v>12</v>
+      </c>
+      <c r="D11" s="21">
+        <v>4</v>
+      </c>
+      <c r="E11" s="21">
+        <v>8</v>
+      </c>
+      <c r="F11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="20">
+        <v>31</v>
+      </c>
+      <c r="D12" s="21">
+        <v>9</v>
+      </c>
+      <c r="E12" s="21">
+        <v>21</v>
+      </c>
+      <c r="F12" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="20">
+        <v>20</v>
+      </c>
+      <c r="D14" s="21">
+        <v>12</v>
+      </c>
+      <c r="E14" s="21">
+        <v>12</v>
+      </c>
+      <c r="F14" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="20">
+        <v>18</v>
+      </c>
+      <c r="D15" s="21">
+        <v>3</v>
+      </c>
+      <c r="E15" s="21">
+        <v>14</v>
+      </c>
+      <c r="F15" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="20">
+        <v>82</v>
+      </c>
+      <c r="D16" s="21">
+        <v>29</v>
+      </c>
+      <c r="E16" s="21">
+        <v>75</v>
+      </c>
+      <c r="F16" s="21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="20">
+        <v>7</v>
+      </c>
+      <c r="D17" s="21">
+        <v>2</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="20">
+        <v>27</v>
+      </c>
+      <c r="D19" s="21">
+        <v>8</v>
+      </c>
+      <c r="E19" s="21">
+        <v>19</v>
+      </c>
+      <c r="F19" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="20">
+        <v>21</v>
+      </c>
+      <c r="D20" s="21">
+        <v>6</v>
+      </c>
+      <c r="E20" s="21">
+        <v>16</v>
+      </c>
+      <c r="F20" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="25">
+        <v>25</v>
+      </c>
+      <c r="D22" s="26">
+        <v>8</v>
+      </c>
+      <c r="E22" s="26">
+        <v>18</v>
+      </c>
+      <c r="F22" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="20">
+        <v>18</v>
+      </c>
+      <c r="D25" s="21">
+        <v>5</v>
+      </c>
+      <c r="E25" s="21">
+        <v>13</v>
+      </c>
+      <c r="F25" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="20">
+        <v>23</v>
+      </c>
+      <c r="D26" s="21">
+        <v>8</v>
+      </c>
+      <c r="E26" s="21">
+        <v>17</v>
+      </c>
+      <c r="F26" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="20">
+        <v>32</v>
+      </c>
+      <c r="D27" s="21">
+        <v>10</v>
+      </c>
+      <c r="E27" s="21">
+        <v>21</v>
+      </c>
+      <c r="F27" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="20">
+        <v>29</v>
+      </c>
+      <c r="D28" s="21">
+        <v>7</v>
+      </c>
+      <c r="E28" s="21">
+        <v>22</v>
+      </c>
+      <c r="F28" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="20">
+        <v>32</v>
+      </c>
+      <c r="D29" s="21">
+        <v>10</v>
+      </c>
+      <c r="E29" s="21">
+        <v>25</v>
+      </c>
+      <c r="F29" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="20">
+        <v>50</v>
+      </c>
+      <c r="D30" s="21">
+        <v>22</v>
+      </c>
+      <c r="E30" s="21">
+        <v>42</v>
+      </c>
+      <c r="F30" s="21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="19"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8059DFE-4CC2-FA43-9912-3A775AA99AFE}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="67">
+        <v>0</v>
+      </c>
+      <c r="D3" s="66">
+        <v>0</v>
+      </c>
+      <c r="E3" s="66">
+        <v>0</v>
+      </c>
+      <c r="F3" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="67">
+        <v>37</v>
+      </c>
+      <c r="D4" s="66">
+        <v>7</v>
+      </c>
+      <c r="E4" s="66">
+        <v>34</v>
+      </c>
+      <c r="F4" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="67">
+        <v>1</v>
+      </c>
+      <c r="D5" s="66">
+        <v>0</v>
+      </c>
+      <c r="E5" s="66">
+        <v>0</v>
+      </c>
+      <c r="F5" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="67">
+        <v>20</v>
+      </c>
+      <c r="D6" s="66">
+        <v>1</v>
+      </c>
+      <c r="E6" s="66">
+        <v>17</v>
+      </c>
+      <c r="F6" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="67">
+        <v>52</v>
+      </c>
+      <c r="D7" s="66">
+        <v>14</v>
+      </c>
+      <c r="E7" s="66">
+        <v>41</v>
+      </c>
+      <c r="F7" s="66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="67">
+        <v>40</v>
+      </c>
+      <c r="D8" s="66">
+        <v>5</v>
+      </c>
+      <c r="E8" s="66">
+        <v>36</v>
+      </c>
+      <c r="F8" s="66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="67">
+        <v>15</v>
+      </c>
+      <c r="D9" s="66">
+        <v>13</v>
+      </c>
+      <c r="E9" s="66">
+        <v>15</v>
+      </c>
+      <c r="F9" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="67">
+        <v>11</v>
+      </c>
+      <c r="D10" s="66">
+        <v>4</v>
+      </c>
+      <c r="E10" s="66">
+        <v>10</v>
+      </c>
+      <c r="F10" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="67">
+        <v>16</v>
+      </c>
+      <c r="D11" s="66">
+        <v>8</v>
+      </c>
+      <c r="E11" s="66">
+        <v>11</v>
+      </c>
+      <c r="F11" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="67">
+        <v>36</v>
+      </c>
+      <c r="D12" s="66">
+        <v>9</v>
+      </c>
+      <c r="E12" s="66">
+        <v>33</v>
+      </c>
+      <c r="F12" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="67">
+        <v>8</v>
+      </c>
+      <c r="D13" s="66">
+        <v>0</v>
+      </c>
+      <c r="E13" s="66">
+        <v>0</v>
+      </c>
+      <c r="F13" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="67">
+        <v>17</v>
+      </c>
+      <c r="D14" s="66">
+        <v>16</v>
+      </c>
+      <c r="E14" s="66">
+        <v>6</v>
+      </c>
+      <c r="F14" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="67">
+        <v>21</v>
+      </c>
+      <c r="D15" s="66">
+        <v>3</v>
+      </c>
+      <c r="E15" s="66">
+        <v>19</v>
+      </c>
+      <c r="F15" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="67">
+        <v>43</v>
+      </c>
+      <c r="D16" s="66">
+        <v>25</v>
+      </c>
+      <c r="E16" s="66">
+        <v>43</v>
+      </c>
+      <c r="F16" s="66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="67">
+        <v>5</v>
+      </c>
+      <c r="D17" s="66">
+        <v>3</v>
+      </c>
+      <c r="E17" s="66">
+        <v>5</v>
+      </c>
+      <c r="F17" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="67">
+        <v>25</v>
+      </c>
+      <c r="D19" s="66">
+        <v>5</v>
+      </c>
+      <c r="E19" s="66">
+        <v>22</v>
+      </c>
+      <c r="F19" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="67">
+        <v>21</v>
+      </c>
+      <c r="D20" s="66">
+        <v>8</v>
+      </c>
+      <c r="E20" s="66">
+        <v>17</v>
+      </c>
+      <c r="F20" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="71">
+        <v>23</v>
+      </c>
+      <c r="D22" s="70">
+        <v>7</v>
+      </c>
+      <c r="E22" s="70">
+        <v>19</v>
+      </c>
+      <c r="F22" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="67">
+        <v>22</v>
+      </c>
+      <c r="D25" s="66">
+        <v>7</v>
+      </c>
+      <c r="E25" s="66">
+        <v>19</v>
+      </c>
+      <c r="F25" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="67">
+        <v>26</v>
+      </c>
+      <c r="D26" s="66">
+        <v>10</v>
+      </c>
+      <c r="E26" s="66">
+        <v>20</v>
+      </c>
+      <c r="F26" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="67">
+        <v>23</v>
+      </c>
+      <c r="D27" s="66">
+        <v>3</v>
+      </c>
+      <c r="E27" s="66">
+        <v>21</v>
+      </c>
+      <c r="F27" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="67">
+        <v>16</v>
+      </c>
+      <c r="D28" s="66">
+        <v>5</v>
+      </c>
+      <c r="E28" s="66">
+        <v>12</v>
+      </c>
+      <c r="F28" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="67">
+        <v>26</v>
+      </c>
+      <c r="D29" s="66">
+        <v>8</v>
+      </c>
+      <c r="E29" s="66">
+        <v>21</v>
+      </c>
+      <c r="F29" s="66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="67">
+        <v>40</v>
+      </c>
+      <c r="D30" s="66">
+        <v>23</v>
+      </c>
+      <c r="E30" s="66">
+        <v>38</v>
+      </c>
+      <c r="F30" s="66">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="67">
+        <v>62</v>
+      </c>
+      <c r="D33" s="66">
+        <v>16</v>
+      </c>
+      <c r="E33" s="66">
+        <v>54</v>
+      </c>
+      <c r="F33" s="66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="67">
+        <v>39</v>
+      </c>
+      <c r="D34" s="66">
+        <v>25</v>
+      </c>
+      <c r="E34" s="66">
+        <v>21</v>
+      </c>
+      <c r="F34" s="66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="67">
+        <v>0</v>
+      </c>
+      <c r="D35" s="66">
+        <v>0</v>
+      </c>
+      <c r="E35" s="66">
+        <v>0</v>
+      </c>
+      <c r="F35" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="67">
+        <v>25</v>
+      </c>
+      <c r="D36" s="66">
+        <v>6</v>
+      </c>
+      <c r="E36" s="66">
+        <v>19</v>
+      </c>
+      <c r="F36" s="66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="67">
+        <v>23</v>
+      </c>
+      <c r="D37" s="66">
+        <v>9</v>
+      </c>
+      <c r="E37" s="66">
+        <v>16</v>
+      </c>
+      <c r="F37" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="67">
+        <v>18</v>
+      </c>
+      <c r="D38" s="66">
+        <v>13</v>
+      </c>
+      <c r="E38" s="66">
+        <v>8</v>
+      </c>
+      <c r="F38" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="67">
+        <v>17</v>
+      </c>
+      <c r="D39" s="66">
+        <v>17</v>
+      </c>
+      <c r="E39" s="66">
+        <v>0</v>
+      </c>
+      <c r="F39" s="66">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/data/basisdaten_clean.xlsx
+++ b/app/data/basisdaten_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guadaluperomero/ProjectsTSB/innovationserhebung/app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthieu/dev/innovationserhebung/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94787883-4D56-3248-A476-7060BF50CAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04D967B-125A-194B-8A71-60505476AAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15260" yWindow="-28300" windowWidth="24940" windowHeight="26560" firstSheet="36" activeTab="41" xr2:uid="{25BCFA3D-CBEA-9B42-8B95-A0D09F81B565}"/>
+    <workbookView xWindow="15260" yWindow="-28300" windowWidth="24940" windowHeight="26560" firstSheet="32" activeTab="34" xr2:uid="{25BCFA3D-CBEA-9B42-8B95-A0D09F81B565}"/>
   </bookViews>
   <sheets>
     <sheet name="basis_2013_ber" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,9 @@
     <sheet name="coop_region_2012_de" sheetId="35" r:id="rId32"/>
     <sheet name="coop_region_2020_ber" sheetId="36" r:id="rId33"/>
     <sheet name="coop_region_2020_de" sheetId="37" r:id="rId34"/>
-    <sheet name="protection_2012_ber" sheetId="42" r:id="rId35"/>
+    <sheet name="protection_2014_ber" sheetId="42" r:id="rId35"/>
     <sheet name="protection_2020_ber" sheetId="43" r:id="rId36"/>
-    <sheet name="protection_2012_de" sheetId="40" r:id="rId37"/>
+    <sheet name="protection_2014_de" sheetId="40" r:id="rId37"/>
     <sheet name="protection_2020_de" sheetId="41" r:id="rId38"/>
     <sheet name="public_funding_2012_ber" sheetId="44" r:id="rId39"/>
     <sheet name="public_funding_2020_ber" sheetId="45" r:id="rId40"/>
@@ -775,7 +775,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -920,9 +920,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -960,7 +960,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1066,7 +1066,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1208,7 +1208,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -26003,8 +26003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B9D5ED-1821-684A-BE84-B774B2FEECBB}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27409,8 +27409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C2E48A-BB55-9949-AE02-B813B2BB5A43}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31700,7 +31700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8059DFE-4CC2-FA43-9912-3A775AA99AFE}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>

--- a/app/data/basisdaten_clean.xlsx
+++ b/app/data/basisdaten_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthieu/dev/innovationserhebung/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04D967B-125A-194B-8A71-60505476AAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502FE0DE-6881-6542-B416-C4E17F6679B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15260" yWindow="-28300" windowWidth="24940" windowHeight="26560" firstSheet="32" activeTab="34" xr2:uid="{25BCFA3D-CBEA-9B42-8B95-A0D09F81B565}"/>
+    <workbookView xWindow="15660" yWindow="-28800" windowWidth="25480" windowHeight="28800" firstSheet="17" activeTab="21" xr2:uid="{25BCFA3D-CBEA-9B42-8B95-A0D09F81B565}"/>
   </bookViews>
   <sheets>
     <sheet name="basis_2013_ber" sheetId="1" r:id="rId1"/>
@@ -33,28 +33,30 @@
     <sheet name="basis_2021_de" sheetId="20" r:id="rId18"/>
     <sheet name="basis_2022_ber" sheetId="21" r:id="rId19"/>
     <sheet name="basis_2022_de" sheetId="22" r:id="rId20"/>
-    <sheet name="fue_ausgaben_ber" sheetId="23" r:id="rId21"/>
-    <sheet name="fue_ausgaben_de" sheetId="24" r:id="rId22"/>
-    <sheet name="anteile_branchen_ber" sheetId="25" r:id="rId23"/>
-    <sheet name="anteile_branchen_de" sheetId="26" r:id="rId24"/>
-    <sheet name="relevanzbubbles_ber" sheetId="27" r:id="rId25"/>
-    <sheet name="relevanzbubbles_de" sheetId="28" r:id="rId26"/>
-    <sheet name="coop_partner_2012_ber" sheetId="29" r:id="rId27"/>
-    <sheet name="coop_partner_2020_ber" sheetId="31" r:id="rId28"/>
-    <sheet name="coop_partner_2012_de" sheetId="32" r:id="rId29"/>
-    <sheet name="coop_partner_2020_de" sheetId="33" r:id="rId30"/>
-    <sheet name="coop_region_2012_ber" sheetId="34" r:id="rId31"/>
-    <sheet name="coop_region_2012_de" sheetId="35" r:id="rId32"/>
-    <sheet name="coop_region_2020_ber" sheetId="36" r:id="rId33"/>
-    <sheet name="coop_region_2020_de" sheetId="37" r:id="rId34"/>
-    <sheet name="protection_2014_ber" sheetId="42" r:id="rId35"/>
-    <sheet name="protection_2020_ber" sheetId="43" r:id="rId36"/>
-    <sheet name="protection_2014_de" sheetId="40" r:id="rId37"/>
-    <sheet name="protection_2020_de" sheetId="41" r:id="rId38"/>
-    <sheet name="public_funding_2012_ber" sheetId="44" r:id="rId39"/>
-    <sheet name="public_funding_2020_ber" sheetId="45" r:id="rId40"/>
-    <sheet name="public_funding_2012_de" sheetId="46" r:id="rId41"/>
-    <sheet name="public_funding_2020_de" sheetId="47" r:id="rId42"/>
+    <sheet name="basis_2023_ber" sheetId="50" r:id="rId21"/>
+    <sheet name="basis_2023_de" sheetId="49" r:id="rId22"/>
+    <sheet name="fue_ausgaben_ber" sheetId="23" r:id="rId23"/>
+    <sheet name="fue_ausgaben_de" sheetId="24" r:id="rId24"/>
+    <sheet name="anteile_branchen_ber" sheetId="25" r:id="rId25"/>
+    <sheet name="anteile_branchen_de" sheetId="26" r:id="rId26"/>
+    <sheet name="relevanzbubbles_ber" sheetId="27" r:id="rId27"/>
+    <sheet name="relevanzbubbles_de" sheetId="28" r:id="rId28"/>
+    <sheet name="coop_partner_2012_ber" sheetId="29" r:id="rId29"/>
+    <sheet name="coop_partner_2020_ber" sheetId="31" r:id="rId30"/>
+    <sheet name="coop_partner_2012_de" sheetId="32" r:id="rId31"/>
+    <sheet name="coop_partner_2020_de" sheetId="33" r:id="rId32"/>
+    <sheet name="coop_region_2012_ber" sheetId="34" r:id="rId33"/>
+    <sheet name="coop_region_2012_de" sheetId="35" r:id="rId34"/>
+    <sheet name="coop_region_2020_ber" sheetId="36" r:id="rId35"/>
+    <sheet name="coop_region_2020_de" sheetId="37" r:id="rId36"/>
+    <sheet name="protection_2014_ber" sheetId="42" r:id="rId37"/>
+    <sheet name="protection_2020_ber" sheetId="43" r:id="rId38"/>
+    <sheet name="protection_2014_de" sheetId="40" r:id="rId39"/>
+    <sheet name="protection_2020_de" sheetId="41" r:id="rId40"/>
+    <sheet name="public_funding_2012_ber" sheetId="44" r:id="rId41"/>
+    <sheet name="public_funding_2020_ber" sheetId="45" r:id="rId42"/>
+    <sheet name="public_funding_2012_de" sheetId="46" r:id="rId43"/>
+    <sheet name="public_funding_2020_de" sheetId="47" r:id="rId44"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="110">
   <si>
     <t>Nr. der Klas-
 sifikation</t>
@@ -594,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -773,11 +775,36 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2365,7 +2392,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 I1:IJ1">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3423,7 +3450,7 @@
     <row r="47" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 L1:IA1">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4662,7 +4689,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 L1:IA1">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5770,7 +5797,7 @@
     <row r="47" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 L1:IA1">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7011,7 +7038,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 L1:IA1">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8123,7 +8150,7 @@
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 L1:IA1">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9372,7 +9399,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 L1:IA1">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10486,7 +10513,7 @@
     <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 L1:IA1">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11735,7 +11762,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 L1:IA1">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12849,7 +12876,7 @@
     <row r="49" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 L1:IA1">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14099,7 +14126,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 L1:IA1">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15178,7 +15205,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 I1:IJ1">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16292,7 +16319,7 @@
     <row r="49" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 L1:IA1">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16301,6 +16328,2370 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13D1D2D-A948-3F4B-B974-35B37FF4E7AF}">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" style="44" customWidth="1"/>
+    <col min="12" max="23" width="9.5" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="5"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="27">
+        <v>252</v>
+      </c>
+      <c r="D3" s="28">
+        <v>161</v>
+      </c>
+      <c r="E3" s="28">
+        <v>157</v>
+      </c>
+      <c r="F3" s="45">
+        <v>14500</v>
+      </c>
+      <c r="G3" s="46">
+        <v>5293</v>
+      </c>
+      <c r="H3" s="46">
+        <v>283</v>
+      </c>
+      <c r="I3" s="46">
+        <v>71</v>
+      </c>
+      <c r="J3" s="46">
+        <v>48</v>
+      </c>
+      <c r="K3" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="27">
+        <v>170</v>
+      </c>
+      <c r="D4" s="28">
+        <v>144</v>
+      </c>
+      <c r="E4" s="28">
+        <v>104</v>
+      </c>
+      <c r="F4" s="45">
+        <v>20186</v>
+      </c>
+      <c r="G4" s="46">
+        <v>9008</v>
+      </c>
+      <c r="H4" s="46">
+        <v>1332</v>
+      </c>
+      <c r="I4" s="46">
+        <v>317</v>
+      </c>
+      <c r="J4" s="46">
+        <v>1524</v>
+      </c>
+      <c r="K4" s="84">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="27">
+        <v>172</v>
+      </c>
+      <c r="D5" s="28">
+        <v>80</v>
+      </c>
+      <c r="E5" s="28">
+        <v>48</v>
+      </c>
+      <c r="F5" s="45">
+        <v>9684</v>
+      </c>
+      <c r="G5" s="46">
+        <v>2099</v>
+      </c>
+      <c r="H5" s="46">
+        <v>145</v>
+      </c>
+      <c r="I5" s="46">
+        <v>78</v>
+      </c>
+      <c r="J5" s="46">
+        <v>113</v>
+      </c>
+      <c r="K5" s="84">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="27">
+        <v>265</v>
+      </c>
+      <c r="D6" s="28">
+        <v>151</v>
+      </c>
+      <c r="E6" s="28">
+        <v>136</v>
+      </c>
+      <c r="F6" s="45">
+        <v>9454</v>
+      </c>
+      <c r="G6" s="46">
+        <v>2663</v>
+      </c>
+      <c r="H6" s="46">
+        <v>199</v>
+      </c>
+      <c r="I6" s="46">
+        <v>121</v>
+      </c>
+      <c r="J6" s="46">
+        <v>88</v>
+      </c>
+      <c r="K6" s="84">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="27">
+        <v>253</v>
+      </c>
+      <c r="D7" s="28">
+        <v>239</v>
+      </c>
+      <c r="E7" s="28">
+        <v>226</v>
+      </c>
+      <c r="F7" s="45">
+        <v>25124</v>
+      </c>
+      <c r="G7" s="46">
+        <v>9449</v>
+      </c>
+      <c r="H7" s="46">
+        <v>1407</v>
+      </c>
+      <c r="I7" s="46">
+        <v>725</v>
+      </c>
+      <c r="J7" s="46">
+        <v>864</v>
+      </c>
+      <c r="K7" s="84">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="27">
+        <v>275</v>
+      </c>
+      <c r="D8" s="28">
+        <v>188</v>
+      </c>
+      <c r="E8" s="28">
+        <v>138</v>
+      </c>
+      <c r="F8" s="45">
+        <v>24062</v>
+      </c>
+      <c r="G8" s="46">
+        <v>14275</v>
+      </c>
+      <c r="H8" s="46">
+        <v>3888</v>
+      </c>
+      <c r="I8" s="46">
+        <v>1699</v>
+      </c>
+      <c r="J8" s="46">
+        <v>595</v>
+      </c>
+      <c r="K8" s="84">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="27">
+        <v>316</v>
+      </c>
+      <c r="D9" s="28">
+        <v>245</v>
+      </c>
+      <c r="E9" s="28">
+        <v>200</v>
+      </c>
+      <c r="F9" s="45">
+        <v>8529</v>
+      </c>
+      <c r="G9" s="46">
+        <v>1115</v>
+      </c>
+      <c r="H9" s="46">
+        <v>145</v>
+      </c>
+      <c r="I9" s="46">
+        <v>18</v>
+      </c>
+      <c r="J9" s="46">
+        <v>77</v>
+      </c>
+      <c r="K9" s="84">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="27">
+        <v>162</v>
+      </c>
+      <c r="D10" s="28">
+        <v>103</v>
+      </c>
+      <c r="E10" s="28">
+        <v>86</v>
+      </c>
+      <c r="F10" s="45">
+        <v>19603</v>
+      </c>
+      <c r="G10" s="46">
+        <v>28228</v>
+      </c>
+      <c r="H10" s="46">
+        <v>1293</v>
+      </c>
+      <c r="I10" s="46">
+        <v>155</v>
+      </c>
+      <c r="J10" s="46">
+        <v>220</v>
+      </c>
+      <c r="K10" s="84">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="27">
+        <v>612</v>
+      </c>
+      <c r="D11" s="28">
+        <v>401</v>
+      </c>
+      <c r="E11" s="28">
+        <v>384</v>
+      </c>
+      <c r="F11" s="45">
+        <v>36050</v>
+      </c>
+      <c r="G11" s="46">
+        <v>10984</v>
+      </c>
+      <c r="H11" s="46">
+        <v>2083</v>
+      </c>
+      <c r="I11" s="46">
+        <v>426</v>
+      </c>
+      <c r="J11" s="46">
+        <v>316</v>
+      </c>
+      <c r="K11" s="84">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="27">
+        <v>1967</v>
+      </c>
+      <c r="D12" s="28">
+        <v>1688</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1622</v>
+      </c>
+      <c r="F12" s="45">
+        <v>93547</v>
+      </c>
+      <c r="G12" s="46">
+        <v>11208</v>
+      </c>
+      <c r="H12" s="46">
+        <v>4111</v>
+      </c>
+      <c r="I12" s="46">
+        <v>1276</v>
+      </c>
+      <c r="J12" s="46">
+        <v>977</v>
+      </c>
+      <c r="K12" s="84">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="27">
+        <v>412</v>
+      </c>
+      <c r="D13" s="28">
+        <v>218</v>
+      </c>
+      <c r="E13" s="28">
+        <v>136</v>
+      </c>
+      <c r="F13" s="45">
+        <v>33190</v>
+      </c>
+      <c r="G13" s="46">
+        <v>26430</v>
+      </c>
+      <c r="H13" s="46">
+        <v>1668</v>
+      </c>
+      <c r="I13" s="46">
+        <v>416</v>
+      </c>
+      <c r="J13" s="46">
+        <v>245</v>
+      </c>
+      <c r="K13" s="84">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="27">
+        <v>639</v>
+      </c>
+      <c r="D14" s="28">
+        <v>487</v>
+      </c>
+      <c r="E14" s="28">
+        <v>415</v>
+      </c>
+      <c r="F14" s="45">
+        <v>15289</v>
+      </c>
+      <c r="G14" s="46">
+        <v>3264</v>
+      </c>
+      <c r="H14" s="46">
+        <v>570</v>
+      </c>
+      <c r="I14" s="46">
+        <v>429</v>
+      </c>
+      <c r="J14" s="46">
+        <v>124</v>
+      </c>
+      <c r="K14" s="84">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="27">
+        <v>1175</v>
+      </c>
+      <c r="D15" s="28">
+        <v>761</v>
+      </c>
+      <c r="E15" s="28">
+        <v>672</v>
+      </c>
+      <c r="F15" s="45">
+        <v>44636</v>
+      </c>
+      <c r="G15" s="46">
+        <v>4538</v>
+      </c>
+      <c r="H15" s="46">
+        <v>201</v>
+      </c>
+      <c r="I15" s="46">
+        <v>48</v>
+      </c>
+      <c r="J15" s="46">
+        <v>93</v>
+      </c>
+      <c r="K15" s="84">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="27">
+        <v>182</v>
+      </c>
+      <c r="D16" s="28">
+        <v>175</v>
+      </c>
+      <c r="E16" s="28">
+        <v>171</v>
+      </c>
+      <c r="F16" s="45">
+        <v>9670</v>
+      </c>
+      <c r="G16" s="46">
+        <v>985</v>
+      </c>
+      <c r="H16" s="46">
+        <v>268</v>
+      </c>
+      <c r="I16" s="46">
+        <v>96</v>
+      </c>
+      <c r="J16" s="47">
+        <v>269</v>
+      </c>
+      <c r="K16" s="84">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="27">
+        <v>703</v>
+      </c>
+      <c r="D17" s="28">
+        <v>525</v>
+      </c>
+      <c r="E17" s="28">
+        <v>481</v>
+      </c>
+      <c r="F17" s="45">
+        <v>22749</v>
+      </c>
+      <c r="G17" s="46">
+        <v>3483</v>
+      </c>
+      <c r="H17" s="46">
+        <v>292</v>
+      </c>
+      <c r="I17" s="46">
+        <v>24</v>
+      </c>
+      <c r="J17" s="46">
+        <v>56</v>
+      </c>
+      <c r="K17" s="84">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="84"/>
+    </row>
+    <row r="19" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="27">
+        <v>1867</v>
+      </c>
+      <c r="D19" s="28">
+        <v>1312</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1095</v>
+      </c>
+      <c r="F19" s="45">
+        <v>131142</v>
+      </c>
+      <c r="G19" s="46">
+        <v>72129</v>
+      </c>
+      <c r="H19" s="46">
+        <v>8694</v>
+      </c>
+      <c r="I19" s="46">
+        <v>3184</v>
+      </c>
+      <c r="J19" s="46">
+        <v>3529</v>
+      </c>
+      <c r="K19" s="84">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="27">
+        <v>5689</v>
+      </c>
+      <c r="D20" s="28">
+        <v>4255</v>
+      </c>
+      <c r="E20" s="28">
+        <v>3881</v>
+      </c>
+      <c r="F20" s="28">
+        <v>255130</v>
+      </c>
+      <c r="G20" s="46">
+        <v>60892</v>
+      </c>
+      <c r="H20" s="46">
+        <v>9192</v>
+      </c>
+      <c r="I20" s="46">
+        <v>2714</v>
+      </c>
+      <c r="J20" s="46">
+        <v>2080</v>
+      </c>
+      <c r="K20" s="46">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+    </row>
+    <row r="22" spans="1:11" s="31" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="32">
+        <v>7555</v>
+      </c>
+      <c r="D22" s="33">
+        <v>5567</v>
+      </c>
+      <c r="E22" s="33">
+        <v>4975</v>
+      </c>
+      <c r="F22" s="33">
+        <v>386272</v>
+      </c>
+      <c r="G22" s="48">
+        <v>133021</v>
+      </c>
+      <c r="H22" s="48">
+        <v>17886</v>
+      </c>
+      <c r="I22" s="48">
+        <v>5899</v>
+      </c>
+      <c r="J22" s="48">
+        <v>5609</v>
+      </c>
+      <c r="K22" s="48">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+    </row>
+    <row r="24" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+    </row>
+    <row r="25" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="27">
+        <v>2691</v>
+      </c>
+      <c r="D25" s="28">
+        <v>1793</v>
+      </c>
+      <c r="E25" s="28">
+        <v>1580</v>
+      </c>
+      <c r="F25" s="28">
+        <v>28854</v>
+      </c>
+      <c r="G25" s="46">
+        <v>4259</v>
+      </c>
+      <c r="H25" s="46">
+        <v>542</v>
+      </c>
+      <c r="I25" s="46">
+        <v>32</v>
+      </c>
+      <c r="J25" s="46">
+        <v>170</v>
+      </c>
+      <c r="K25" s="46">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="27">
+        <v>2244</v>
+      </c>
+      <c r="D26" s="28">
+        <v>1633</v>
+      </c>
+      <c r="E26" s="28">
+        <v>1419</v>
+      </c>
+      <c r="F26" s="28">
+        <v>37132</v>
+      </c>
+      <c r="G26" s="46">
+        <v>3939</v>
+      </c>
+      <c r="H26" s="46">
+        <v>337</v>
+      </c>
+      <c r="I26" s="46">
+        <v>57</v>
+      </c>
+      <c r="J26" s="46">
+        <v>161</v>
+      </c>
+      <c r="K26" s="46">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="27">
+        <v>1583</v>
+      </c>
+      <c r="D27" s="28">
+        <v>1222</v>
+      </c>
+      <c r="E27" s="28">
+        <v>1115</v>
+      </c>
+      <c r="F27" s="28">
+        <v>53314</v>
+      </c>
+      <c r="G27" s="46">
+        <v>10340</v>
+      </c>
+      <c r="H27" s="46">
+        <v>1192</v>
+      </c>
+      <c r="I27" s="46">
+        <v>262</v>
+      </c>
+      <c r="J27" s="46">
+        <v>430</v>
+      </c>
+      <c r="K27" s="46">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="27">
+        <v>860</v>
+      </c>
+      <c r="D28" s="28">
+        <v>764</v>
+      </c>
+      <c r="E28" s="28">
+        <v>714</v>
+      </c>
+      <c r="F28" s="28">
+        <v>87974</v>
+      </c>
+      <c r="G28" s="46">
+        <v>17785</v>
+      </c>
+      <c r="H28" s="46">
+        <v>1551</v>
+      </c>
+      <c r="I28" s="46">
+        <v>298</v>
+      </c>
+      <c r="J28" s="46">
+        <v>595</v>
+      </c>
+      <c r="K28" s="46">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="27">
+        <v>130</v>
+      </c>
+      <c r="D29" s="28">
+        <v>110</v>
+      </c>
+      <c r="E29" s="28">
+        <v>103</v>
+      </c>
+      <c r="F29" s="28">
+        <v>62913</v>
+      </c>
+      <c r="G29" s="46">
+        <v>22701</v>
+      </c>
+      <c r="H29" s="46">
+        <v>2274</v>
+      </c>
+      <c r="I29" s="46">
+        <v>1081</v>
+      </c>
+      <c r="J29" s="46">
+        <v>1090</v>
+      </c>
+      <c r="K29" s="46">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="27">
+        <v>48</v>
+      </c>
+      <c r="D30" s="28">
+        <v>46</v>
+      </c>
+      <c r="E30" s="28">
+        <v>45</v>
+      </c>
+      <c r="F30" s="28">
+        <v>116085</v>
+      </c>
+      <c r="G30" s="46">
+        <v>73998</v>
+      </c>
+      <c r="H30" s="46">
+        <v>11991</v>
+      </c>
+      <c r="I30" s="46">
+        <v>4168</v>
+      </c>
+      <c r="J30" s="46">
+        <v>3162</v>
+      </c>
+      <c r="K30" s="46">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+    </row>
+    <row r="32" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+    </row>
+    <row r="33" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="27">
+        <v>225</v>
+      </c>
+      <c r="D33" s="28">
+        <v>225</v>
+      </c>
+      <c r="E33" s="28">
+        <v>205</v>
+      </c>
+      <c r="F33" s="28">
+        <v>24130</v>
+      </c>
+      <c r="G33" s="46">
+        <v>10157</v>
+      </c>
+      <c r="H33" s="46">
+        <v>1743</v>
+      </c>
+      <c r="I33" s="46">
+        <v>398</v>
+      </c>
+      <c r="J33" s="46">
+        <v>1819</v>
+      </c>
+      <c r="K33" s="46">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="27">
+        <v>303</v>
+      </c>
+      <c r="D34" s="28">
+        <v>288</v>
+      </c>
+      <c r="E34" s="28">
+        <v>208</v>
+      </c>
+      <c r="F34" s="28">
+        <v>23440</v>
+      </c>
+      <c r="G34" s="46">
+        <v>11522</v>
+      </c>
+      <c r="H34" s="46">
+        <v>3882</v>
+      </c>
+      <c r="I34" s="46">
+        <v>1560</v>
+      </c>
+      <c r="J34" s="46">
+        <v>561</v>
+      </c>
+      <c r="K34" s="46">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="27">
+        <v>154</v>
+      </c>
+      <c r="D35" s="28">
+        <v>82</v>
+      </c>
+      <c r="E35" s="28">
+        <v>82</v>
+      </c>
+      <c r="F35" s="28">
+        <v>26112</v>
+      </c>
+      <c r="G35" s="46">
+        <v>21904</v>
+      </c>
+      <c r="H35" s="46">
+        <v>1591</v>
+      </c>
+      <c r="I35" s="46">
+        <v>416</v>
+      </c>
+      <c r="J35" s="46">
+        <v>234</v>
+      </c>
+      <c r="K35" s="46">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="27">
+        <v>1980</v>
+      </c>
+      <c r="D36" s="28">
+        <v>1706</v>
+      </c>
+      <c r="E36" s="28">
+        <v>1643</v>
+      </c>
+      <c r="F36" s="28">
+        <v>97498</v>
+      </c>
+      <c r="G36" s="46">
+        <v>14811</v>
+      </c>
+      <c r="H36" s="46">
+        <v>5112</v>
+      </c>
+      <c r="I36" s="46">
+        <v>1374</v>
+      </c>
+      <c r="J36" s="46">
+        <v>1011</v>
+      </c>
+      <c r="K36" s="46">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="27">
+        <v>1498</v>
+      </c>
+      <c r="D37" s="28">
+        <v>1041</v>
+      </c>
+      <c r="E37" s="28">
+        <v>950</v>
+      </c>
+      <c r="F37" s="28">
+        <v>55397</v>
+      </c>
+      <c r="G37" s="46">
+        <v>5600</v>
+      </c>
+      <c r="H37" s="46">
+        <v>628</v>
+      </c>
+      <c r="I37" s="46">
+        <v>141</v>
+      </c>
+      <c r="J37" s="46">
+        <v>375</v>
+      </c>
+      <c r="K37" s="46">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="27">
+        <v>979</v>
+      </c>
+      <c r="D38" s="28">
+        <v>735</v>
+      </c>
+      <c r="E38" s="28">
+        <v>636</v>
+      </c>
+      <c r="F38" s="28">
+        <v>26892</v>
+      </c>
+      <c r="G38" s="46">
+        <v>5231</v>
+      </c>
+      <c r="H38" s="46">
+        <v>676</v>
+      </c>
+      <c r="I38" s="46">
+        <v>436</v>
+      </c>
+      <c r="J38" s="46">
+        <v>161</v>
+      </c>
+      <c r="K38" s="46">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="27">
+        <v>636</v>
+      </c>
+      <c r="D39" s="28">
+        <v>536</v>
+      </c>
+      <c r="E39" s="28">
+        <v>515</v>
+      </c>
+      <c r="F39" s="28">
+        <v>24164</v>
+      </c>
+      <c r="G39" s="46">
+        <v>4818</v>
+      </c>
+      <c r="H39" s="46">
+        <v>1089</v>
+      </c>
+      <c r="I39" s="46">
+        <v>329</v>
+      </c>
+      <c r="J39" s="46">
+        <v>287</v>
+      </c>
+      <c r="K39" s="46">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+    </row>
+    <row r="42" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:B1 L1:IA1">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A894A423-8F4E-A24B-826F-A12881840248}">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" style="44" customWidth="1"/>
+    <col min="12" max="23" width="9.5" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="5"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="27">
+        <v>15904</v>
+      </c>
+      <c r="D3" s="28">
+        <v>8534</v>
+      </c>
+      <c r="E3" s="28">
+        <v>7409</v>
+      </c>
+      <c r="F3" s="28">
+        <v>889354</v>
+      </c>
+      <c r="G3" s="46">
+        <v>247187</v>
+      </c>
+      <c r="H3" s="46">
+        <v>14695</v>
+      </c>
+      <c r="I3" s="46">
+        <v>3400</v>
+      </c>
+      <c r="J3" s="46">
+        <v>2305</v>
+      </c>
+      <c r="K3" s="46">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="27">
+        <v>10098</v>
+      </c>
+      <c r="D4" s="28">
+        <v>7396</v>
+      </c>
+      <c r="E4" s="28">
+        <v>6475</v>
+      </c>
+      <c r="F4" s="28">
+        <v>1073596</v>
+      </c>
+      <c r="G4" s="46">
+        <v>535449</v>
+      </c>
+      <c r="H4" s="46">
+        <v>60762</v>
+      </c>
+      <c r="I4" s="46">
+        <v>13548</v>
+      </c>
+      <c r="J4" s="46">
+        <v>23473</v>
+      </c>
+      <c r="K4" s="46">
+        <v>15805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="27">
+        <v>7999</v>
+      </c>
+      <c r="D5" s="28">
+        <v>4812</v>
+      </c>
+      <c r="E5" s="28">
+        <v>4497</v>
+      </c>
+      <c r="F5" s="28">
+        <v>359695</v>
+      </c>
+      <c r="G5" s="46">
+        <v>106275</v>
+      </c>
+      <c r="H5" s="46">
+        <v>5806</v>
+      </c>
+      <c r="I5" s="46">
+        <v>912</v>
+      </c>
+      <c r="J5" s="46">
+        <v>1381</v>
+      </c>
+      <c r="K5" s="46">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="27">
+        <v>25427</v>
+      </c>
+      <c r="D6" s="28">
+        <v>15246</v>
+      </c>
+      <c r="E6" s="28">
+        <v>13069</v>
+      </c>
+      <c r="F6" s="28">
+        <v>1269193</v>
+      </c>
+      <c r="G6" s="46">
+        <v>360989</v>
+      </c>
+      <c r="H6" s="46">
+        <v>24810</v>
+      </c>
+      <c r="I6" s="46">
+        <v>6267</v>
+      </c>
+      <c r="J6" s="46">
+        <v>5822</v>
+      </c>
+      <c r="K6" s="46">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="27">
+        <v>7743</v>
+      </c>
+      <c r="D7" s="28">
+        <v>6340</v>
+      </c>
+      <c r="E7" s="28">
+        <v>5281</v>
+      </c>
+      <c r="F7" s="28">
+        <v>849914</v>
+      </c>
+      <c r="G7" s="46">
+        <v>233706</v>
+      </c>
+      <c r="H7" s="46">
+        <v>44334</v>
+      </c>
+      <c r="I7" s="46">
+        <v>12645</v>
+      </c>
+      <c r="J7" s="46">
+        <v>21744</v>
+      </c>
+      <c r="K7" s="46">
+        <v>16284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="27">
+        <v>18639</v>
+      </c>
+      <c r="D8" s="28">
+        <v>13863</v>
+      </c>
+      <c r="E8" s="28">
+        <v>11989</v>
+      </c>
+      <c r="F8" s="28">
+        <v>2373515</v>
+      </c>
+      <c r="G8" s="46">
+        <v>981354</v>
+      </c>
+      <c r="H8" s="46">
+        <v>313995</v>
+      </c>
+      <c r="I8" s="46">
+        <v>114100</v>
+      </c>
+      <c r="J8" s="46">
+        <v>75828</v>
+      </c>
+      <c r="K8" s="46">
+        <v>50069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="27">
+        <v>10078</v>
+      </c>
+      <c r="D9" s="28">
+        <v>6241</v>
+      </c>
+      <c r="E9" s="28">
+        <v>5683</v>
+      </c>
+      <c r="F9" s="28">
+        <v>355364</v>
+      </c>
+      <c r="G9" s="46">
+        <v>66509</v>
+      </c>
+      <c r="H9" s="46">
+        <v>6915</v>
+      </c>
+      <c r="I9" s="46">
+        <v>2081</v>
+      </c>
+      <c r="J9" s="46">
+        <v>2829</v>
+      </c>
+      <c r="K9" s="46">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="27">
+        <v>7355</v>
+      </c>
+      <c r="D10" s="28">
+        <v>3573</v>
+      </c>
+      <c r="E10" s="28">
+        <v>2853</v>
+      </c>
+      <c r="F10" s="28">
+        <v>554191</v>
+      </c>
+      <c r="G10" s="47">
+        <v>1348299</v>
+      </c>
+      <c r="H10" s="47">
+        <v>69721</v>
+      </c>
+      <c r="I10" s="47">
+        <v>29831</v>
+      </c>
+      <c r="J10" s="46">
+        <v>4022</v>
+      </c>
+      <c r="K10" s="46">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="27">
+        <v>5681</v>
+      </c>
+      <c r="D11" s="28">
+        <v>4099</v>
+      </c>
+      <c r="E11" s="28">
+        <v>3285</v>
+      </c>
+      <c r="F11" s="28">
+        <v>384880</v>
+      </c>
+      <c r="G11" s="46">
+        <v>144065</v>
+      </c>
+      <c r="H11" s="46">
+        <v>24003</v>
+      </c>
+      <c r="I11" s="46">
+        <v>3439</v>
+      </c>
+      <c r="J11" s="46">
+        <v>6336</v>
+      </c>
+      <c r="K11" s="46">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="27">
+        <v>21268</v>
+      </c>
+      <c r="D12" s="28">
+        <v>18629</v>
+      </c>
+      <c r="E12" s="28">
+        <v>17403</v>
+      </c>
+      <c r="F12" s="28">
+        <v>996568</v>
+      </c>
+      <c r="G12" s="46">
+        <v>187222</v>
+      </c>
+      <c r="H12" s="46">
+        <v>59328</v>
+      </c>
+      <c r="I12" s="46">
+        <v>12938</v>
+      </c>
+      <c r="J12" s="46">
+        <v>16594</v>
+      </c>
+      <c r="K12" s="46">
+        <v>11579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="27">
+        <v>8391</v>
+      </c>
+      <c r="D13" s="28">
+        <v>5216</v>
+      </c>
+      <c r="E13" s="28">
+        <v>4931</v>
+      </c>
+      <c r="F13" s="28">
+        <v>887623</v>
+      </c>
+      <c r="G13" s="46">
+        <v>741215</v>
+      </c>
+      <c r="H13" s="46">
+        <v>98263</v>
+      </c>
+      <c r="I13" s="46">
+        <v>12061</v>
+      </c>
+      <c r="J13" s="46">
+        <v>6631</v>
+      </c>
+      <c r="K13" s="46">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="27">
+        <v>6858</v>
+      </c>
+      <c r="D14" s="28">
+        <v>5027</v>
+      </c>
+      <c r="E14" s="28">
+        <v>4244</v>
+      </c>
+      <c r="F14" s="28">
+        <v>185646</v>
+      </c>
+      <c r="G14" s="46">
+        <v>31500</v>
+      </c>
+      <c r="H14" s="46">
+        <v>3932</v>
+      </c>
+      <c r="I14" s="46">
+        <v>1970</v>
+      </c>
+      <c r="J14" s="46">
+        <v>581</v>
+      </c>
+      <c r="K14" s="46">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="27">
+        <v>22027</v>
+      </c>
+      <c r="D15" s="28">
+        <v>12927</v>
+      </c>
+      <c r="E15" s="28">
+        <v>11909</v>
+      </c>
+      <c r="F15" s="28">
+        <v>620656</v>
+      </c>
+      <c r="G15" s="47">
+        <v>85851</v>
+      </c>
+      <c r="H15" s="47">
+        <v>5787</v>
+      </c>
+      <c r="I15" s="47">
+        <v>384</v>
+      </c>
+      <c r="J15" s="46">
+        <v>1847</v>
+      </c>
+      <c r="K15" s="46">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="27">
+        <v>2153</v>
+      </c>
+      <c r="D16" s="28">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1566</v>
+      </c>
+      <c r="F16" s="28">
+        <v>125960</v>
+      </c>
+      <c r="G16" s="46">
+        <v>24314</v>
+      </c>
+      <c r="H16" s="46">
+        <v>16873</v>
+      </c>
+      <c r="I16" s="46">
+        <v>13935</v>
+      </c>
+      <c r="J16" s="46">
+        <v>7198</v>
+      </c>
+      <c r="K16" s="46">
+        <v>6376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="27">
+        <v>8870</v>
+      </c>
+      <c r="D17" s="28">
+        <v>5810</v>
+      </c>
+      <c r="E17" s="28">
+        <v>5132</v>
+      </c>
+      <c r="F17" s="28">
+        <v>241126</v>
+      </c>
+      <c r="G17" s="46">
+        <v>48973</v>
+      </c>
+      <c r="H17" s="46">
+        <v>4745</v>
+      </c>
+      <c r="I17" s="46">
+        <v>1293</v>
+      </c>
+      <c r="J17" s="46">
+        <v>815</v>
+      </c>
+      <c r="K17" s="46">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+    </row>
+    <row r="19" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="27">
+        <v>103243</v>
+      </c>
+      <c r="D19" s="28">
+        <v>66006</v>
+      </c>
+      <c r="E19" s="28">
+        <v>57255</v>
+      </c>
+      <c r="F19" s="28">
+        <v>7724822</v>
+      </c>
+      <c r="G19" s="46">
+        <v>3879768</v>
+      </c>
+      <c r="H19" s="46">
+        <v>541038</v>
+      </c>
+      <c r="I19" s="46">
+        <v>182783</v>
+      </c>
+      <c r="J19" s="46">
+        <v>137405</v>
+      </c>
+      <c r="K19" s="46">
+        <v>88189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="27">
+        <v>75248</v>
+      </c>
+      <c r="D20" s="28">
+        <v>53707</v>
+      </c>
+      <c r="E20" s="28">
+        <v>48469</v>
+      </c>
+      <c r="F20" s="28">
+        <v>3442459</v>
+      </c>
+      <c r="G20" s="46">
+        <v>1263140</v>
+      </c>
+      <c r="H20" s="46">
+        <v>212932</v>
+      </c>
+      <c r="I20" s="46">
+        <v>46020</v>
+      </c>
+      <c r="J20" s="46">
+        <v>40001</v>
+      </c>
+      <c r="K20" s="46">
+        <v>24381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+    </row>
+    <row r="22" spans="1:11" s="31" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="32">
+        <v>178491</v>
+      </c>
+      <c r="D22" s="33">
+        <v>119713</v>
+      </c>
+      <c r="E22" s="33">
+        <v>105724</v>
+      </c>
+      <c r="F22" s="33">
+        <v>11167280</v>
+      </c>
+      <c r="G22" s="48">
+        <v>5142908</v>
+      </c>
+      <c r="H22" s="48">
+        <v>753970</v>
+      </c>
+      <c r="I22" s="48">
+        <v>228803</v>
+      </c>
+      <c r="J22" s="48">
+        <v>177406</v>
+      </c>
+      <c r="K22" s="48">
+        <v>112570</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+    </row>
+    <row r="24" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+    </row>
+    <row r="25" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="27">
+        <v>64332</v>
+      </c>
+      <c r="D25" s="28">
+        <v>38870</v>
+      </c>
+      <c r="E25" s="28">
+        <v>34532</v>
+      </c>
+      <c r="F25" s="28">
+        <v>484021</v>
+      </c>
+      <c r="G25" s="46">
+        <v>82623</v>
+      </c>
+      <c r="H25" s="46">
+        <v>6249</v>
+      </c>
+      <c r="I25" s="46">
+        <v>974</v>
+      </c>
+      <c r="J25" s="46">
+        <v>1799</v>
+      </c>
+      <c r="K25" s="46">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="27">
+        <v>46118</v>
+      </c>
+      <c r="D26" s="28">
+        <v>27672</v>
+      </c>
+      <c r="E26" s="28">
+        <v>24739</v>
+      </c>
+      <c r="F26" s="28">
+        <v>666036</v>
+      </c>
+      <c r="G26" s="46">
+        <v>109585</v>
+      </c>
+      <c r="H26" s="46">
+        <v>8162</v>
+      </c>
+      <c r="I26" s="46">
+        <v>1423</v>
+      </c>
+      <c r="J26" s="46">
+        <v>2439</v>
+      </c>
+      <c r="K26" s="46">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="27">
+        <v>35935</v>
+      </c>
+      <c r="D27" s="28">
+        <v>26301</v>
+      </c>
+      <c r="E27" s="28">
+        <v>22681</v>
+      </c>
+      <c r="F27" s="28">
+        <v>1133209</v>
+      </c>
+      <c r="G27" s="46">
+        <v>249334</v>
+      </c>
+      <c r="H27" s="46">
+        <v>17164</v>
+      </c>
+      <c r="I27" s="46">
+        <v>3671</v>
+      </c>
+      <c r="J27" s="46">
+        <v>7060</v>
+      </c>
+      <c r="K27" s="46">
+        <v>4631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="27">
+        <v>25310</v>
+      </c>
+      <c r="D28" s="28">
+        <v>20642</v>
+      </c>
+      <c r="E28" s="28">
+        <v>18050</v>
+      </c>
+      <c r="F28" s="28">
+        <v>2675643</v>
+      </c>
+      <c r="G28" s="46">
+        <v>876134</v>
+      </c>
+      <c r="H28" s="46">
+        <v>48005</v>
+      </c>
+      <c r="I28" s="46">
+        <v>9231</v>
+      </c>
+      <c r="J28" s="46">
+        <v>14419</v>
+      </c>
+      <c r="K28" s="46">
+        <v>10220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="27">
+        <v>5656</v>
+      </c>
+      <c r="D29" s="28">
+        <v>5107</v>
+      </c>
+      <c r="E29" s="28">
+        <v>4631</v>
+      </c>
+      <c r="F29" s="28">
+        <v>2557404</v>
+      </c>
+      <c r="G29" s="46">
+        <v>1360650</v>
+      </c>
+      <c r="H29" s="46">
+        <v>104965</v>
+      </c>
+      <c r="I29" s="46">
+        <v>23014</v>
+      </c>
+      <c r="J29" s="46">
+        <v>24254</v>
+      </c>
+      <c r="K29" s="46">
+        <v>16012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="27">
+        <v>1140</v>
+      </c>
+      <c r="D30" s="28">
+        <v>1121</v>
+      </c>
+      <c r="E30" s="28">
+        <v>1091</v>
+      </c>
+      <c r="F30" s="28">
+        <v>3650968</v>
+      </c>
+      <c r="G30" s="46">
+        <v>2464582</v>
+      </c>
+      <c r="H30" s="46">
+        <v>569426</v>
+      </c>
+      <c r="I30" s="46">
+        <v>190490</v>
+      </c>
+      <c r="J30" s="46">
+        <v>127436</v>
+      </c>
+      <c r="K30" s="46">
+        <v>79247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+    </row>
+    <row r="32" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+    </row>
+    <row r="33" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+    </row>
+    <row r="34" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+    </row>
+    <row r="35" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+    </row>
+    <row r="36" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+    </row>
+    <row r="37" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+    </row>
+    <row r="38" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+    </row>
+    <row r="39" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+    </row>
+    <row r="40" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <conditionalFormatting sqref="A1:B1 L1:IA1">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4853F0-FDBD-EE4F-9D72-CE49D209E837}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -16485,7 +18876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB433839-1C2E-5649-91D6-AE9BC77B7EC5}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -16668,7 +19059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DCEB23-7272-134D-B8C1-86078E2CB3B5}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -16761,7 +19152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB24A8B2-2A01-594B-9EFB-AE4EA18D8AAF}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -16845,7 +19236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832BCFDB-A224-6D4B-8246-B221E11AFFBE}">
   <dimension ref="A1:E38"/>
   <sheetViews>
@@ -17511,7 +19902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB49BC20-BD07-9B4E-AF60-DA96205E68A6}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -18023,7 +20414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A328FC18-3C10-8D47-B29E-409DC103D216}">
   <dimension ref="A1:H38"/>
   <sheetViews>
@@ -18928,1744 +21319,6 @@
       <c r="H38" s="56">
         <v>4</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8892AF24-D85C-4D49-A7A1-70F793B3C12F}">
-  <dimension ref="A1:H38"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="56">
-        <v>7</v>
-      </c>
-      <c r="D2" s="66">
-        <v>1</v>
-      </c>
-      <c r="E2" s="66">
-        <v>1</v>
-      </c>
-      <c r="F2" s="66">
-        <v>5</v>
-      </c>
-      <c r="G2" s="66">
-        <v>5</v>
-      </c>
-      <c r="H2" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="56">
-        <v>43</v>
-      </c>
-      <c r="D3" s="66">
-        <v>23</v>
-      </c>
-      <c r="E3" s="66">
-        <v>7</v>
-      </c>
-      <c r="F3" s="66">
-        <v>10</v>
-      </c>
-      <c r="G3" s="66">
-        <v>2</v>
-      </c>
-      <c r="H3" s="66">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="56">
-        <v>43</v>
-      </c>
-      <c r="D4" s="66">
-        <v>6</v>
-      </c>
-      <c r="E4" s="66">
-        <v>1</v>
-      </c>
-      <c r="F4" s="66">
-        <v>5</v>
-      </c>
-      <c r="G4" s="66">
-        <v>1</v>
-      </c>
-      <c r="H4" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="56">
-        <v>8</v>
-      </c>
-      <c r="D5" s="66">
-        <v>8</v>
-      </c>
-      <c r="E5" s="66">
-        <v>1</v>
-      </c>
-      <c r="F5" s="66">
-        <v>1</v>
-      </c>
-      <c r="G5" s="66">
-        <v>0</v>
-      </c>
-      <c r="H5" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="56">
-        <v>35</v>
-      </c>
-      <c r="D6" s="66">
-        <v>23</v>
-      </c>
-      <c r="E6" s="66">
-        <v>23</v>
-      </c>
-      <c r="F6" s="66">
-        <v>6</v>
-      </c>
-      <c r="G6" s="66">
-        <v>7</v>
-      </c>
-      <c r="H6" s="66">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="56">
-        <v>45</v>
-      </c>
-      <c r="D7" s="66">
-        <v>32</v>
-      </c>
-      <c r="E7" s="66">
-        <v>26</v>
-      </c>
-      <c r="F7" s="66">
-        <v>2</v>
-      </c>
-      <c r="G7" s="66">
-        <v>13</v>
-      </c>
-      <c r="H7" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="56">
-        <v>38</v>
-      </c>
-      <c r="D8" s="66">
-        <v>33</v>
-      </c>
-      <c r="E8" s="66">
-        <v>1</v>
-      </c>
-      <c r="F8" s="66">
-        <v>5</v>
-      </c>
-      <c r="G8" s="66">
-        <v>0</v>
-      </c>
-      <c r="H8" s="66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="56">
-        <v>24</v>
-      </c>
-      <c r="D9" s="66">
-        <v>9</v>
-      </c>
-      <c r="E9" s="66">
-        <v>7</v>
-      </c>
-      <c r="F9" s="66">
-        <v>6</v>
-      </c>
-      <c r="G9" s="66">
-        <v>0</v>
-      </c>
-      <c r="H9" s="66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="56">
-        <v>23</v>
-      </c>
-      <c r="D10" s="66">
-        <v>1</v>
-      </c>
-      <c r="E10" s="66">
-        <v>0</v>
-      </c>
-      <c r="F10" s="66">
-        <v>0</v>
-      </c>
-      <c r="G10" s="66">
-        <v>0</v>
-      </c>
-      <c r="H10" s="66">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="56">
-        <v>34</v>
-      </c>
-      <c r="D11" s="66">
-        <v>26</v>
-      </c>
-      <c r="E11" s="66">
-        <v>10</v>
-      </c>
-      <c r="F11" s="66">
-        <v>9</v>
-      </c>
-      <c r="G11" s="66">
-        <v>7</v>
-      </c>
-      <c r="H11" s="66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="56">
-        <v>14</v>
-      </c>
-      <c r="D12" s="66">
-        <v>2</v>
-      </c>
-      <c r="E12" s="66">
-        <v>1</v>
-      </c>
-      <c r="F12" s="66">
-        <v>6</v>
-      </c>
-      <c r="G12" s="66">
-        <v>1</v>
-      </c>
-      <c r="H12" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="56">
-        <v>28</v>
-      </c>
-      <c r="D13" s="66">
-        <v>27</v>
-      </c>
-      <c r="E13" s="66">
-        <v>14</v>
-      </c>
-      <c r="F13" s="66">
-        <v>10</v>
-      </c>
-      <c r="G13" s="66">
-        <v>17</v>
-      </c>
-      <c r="H13" s="66">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="56">
-        <v>22</v>
-      </c>
-      <c r="D14" s="66">
-        <v>8</v>
-      </c>
-      <c r="E14" s="66">
-        <v>2</v>
-      </c>
-      <c r="F14" s="66">
-        <v>6</v>
-      </c>
-      <c r="G14" s="66">
-        <v>4</v>
-      </c>
-      <c r="H14" s="66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="56">
-        <v>88</v>
-      </c>
-      <c r="D15" s="66">
-        <v>75</v>
-      </c>
-      <c r="E15" s="66">
-        <v>56</v>
-      </c>
-      <c r="F15" s="66">
-        <v>35</v>
-      </c>
-      <c r="G15" s="66">
-        <v>8</v>
-      </c>
-      <c r="H15" s="66">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="56">
-        <v>20</v>
-      </c>
-      <c r="D16" s="66">
-        <v>11</v>
-      </c>
-      <c r="E16" s="66">
-        <v>3</v>
-      </c>
-      <c r="F16" s="66">
-        <v>10</v>
-      </c>
-      <c r="G16" s="66">
-        <v>5</v>
-      </c>
-      <c r="H16" s="66">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="56">
-        <v>31</v>
-      </c>
-      <c r="D18" s="66">
-        <v>19</v>
-      </c>
-      <c r="E18" s="66">
-        <v>10</v>
-      </c>
-      <c r="F18" s="66">
-        <v>5</v>
-      </c>
-      <c r="G18" s="66">
-        <v>4</v>
-      </c>
-      <c r="H18" s="66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="56">
-        <v>29</v>
-      </c>
-      <c r="D19" s="66">
-        <v>19</v>
-      </c>
-      <c r="E19" s="66">
-        <v>8</v>
-      </c>
-      <c r="F19" s="66">
-        <v>8</v>
-      </c>
-      <c r="G19" s="66">
-        <v>6</v>
-      </c>
-      <c r="H19" s="66">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-    </row>
-    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="56">
-        <v>30</v>
-      </c>
-      <c r="D21" s="70">
-        <v>19</v>
-      </c>
-      <c r="E21" s="70">
-        <v>9</v>
-      </c>
-      <c r="F21" s="70">
-        <v>8</v>
-      </c>
-      <c r="G21" s="70">
-        <v>6</v>
-      </c>
-      <c r="H21" s="70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="56">
-        <v>19</v>
-      </c>
-      <c r="D24" s="66">
-        <v>7</v>
-      </c>
-      <c r="E24" s="66">
-        <v>4</v>
-      </c>
-      <c r="F24" s="66">
-        <v>4</v>
-      </c>
-      <c r="G24" s="66">
-        <v>2</v>
-      </c>
-      <c r="H24" s="66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="56">
-        <v>32</v>
-      </c>
-      <c r="D25" s="66">
-        <v>25</v>
-      </c>
-      <c r="E25" s="66">
-        <v>13</v>
-      </c>
-      <c r="F25" s="66">
-        <v>11</v>
-      </c>
-      <c r="G25" s="66">
-        <v>6</v>
-      </c>
-      <c r="H25" s="66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="56">
-        <v>30</v>
-      </c>
-      <c r="D26" s="66">
-        <v>20</v>
-      </c>
-      <c r="E26" s="66">
-        <v>10</v>
-      </c>
-      <c r="F26" s="66">
-        <v>8</v>
-      </c>
-      <c r="G26" s="66">
-        <v>8</v>
-      </c>
-      <c r="H26" s="66">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="56">
-        <v>41</v>
-      </c>
-      <c r="D27" s="66">
-        <v>29</v>
-      </c>
-      <c r="E27" s="66">
-        <v>7</v>
-      </c>
-      <c r="F27" s="66">
-        <v>7</v>
-      </c>
-      <c r="G27" s="66">
-        <v>9</v>
-      </c>
-      <c r="H27" s="66">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="56">
-        <v>71</v>
-      </c>
-      <c r="D28" s="66">
-        <v>39</v>
-      </c>
-      <c r="E28" s="66">
-        <v>17</v>
-      </c>
-      <c r="F28" s="66">
-        <v>25</v>
-      </c>
-      <c r="G28" s="66">
-        <v>15</v>
-      </c>
-      <c r="H28" s="66">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="56">
-        <v>91</v>
-      </c>
-      <c r="D29" s="66">
-        <v>59</v>
-      </c>
-      <c r="E29" s="66">
-        <v>30</v>
-      </c>
-      <c r="F29" s="66">
-        <v>25</v>
-      </c>
-      <c r="G29" s="66">
-        <v>17</v>
-      </c>
-      <c r="H29" s="66">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="56">
-        <v>61</v>
-      </c>
-      <c r="D32" s="66">
-        <v>41</v>
-      </c>
-      <c r="E32" s="66">
-        <v>33</v>
-      </c>
-      <c r="F32" s="66">
-        <v>9</v>
-      </c>
-      <c r="G32" s="66">
-        <v>10</v>
-      </c>
-      <c r="H32" s="66">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="56">
-        <v>53</v>
-      </c>
-      <c r="D33" s="66">
-        <v>42</v>
-      </c>
-      <c r="E33" s="66">
-        <v>16</v>
-      </c>
-      <c r="F33" s="66">
-        <v>5</v>
-      </c>
-      <c r="G33" s="66">
-        <v>5</v>
-      </c>
-      <c r="H33" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="56">
-        <v>25</v>
-      </c>
-      <c r="D34" s="66">
-        <v>3</v>
-      </c>
-      <c r="E34" s="66">
-        <v>2</v>
-      </c>
-      <c r="F34" s="66">
-        <v>11</v>
-      </c>
-      <c r="G34" s="66">
-        <v>1</v>
-      </c>
-      <c r="H34" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="56">
-        <v>33</v>
-      </c>
-      <c r="D35" s="66">
-        <v>26</v>
-      </c>
-      <c r="E35" s="66">
-        <v>10</v>
-      </c>
-      <c r="F35" s="66">
-        <v>8</v>
-      </c>
-      <c r="G35" s="66">
-        <v>7</v>
-      </c>
-      <c r="H35" s="66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="56">
-        <v>31</v>
-      </c>
-      <c r="D36" s="66">
-        <v>19</v>
-      </c>
-      <c r="E36" s="66">
-        <v>10</v>
-      </c>
-      <c r="F36" s="66">
-        <v>11</v>
-      </c>
-      <c r="G36" s="66">
-        <v>4</v>
-      </c>
-      <c r="H36" s="66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="56">
-        <v>28</v>
-      </c>
-      <c r="D37" s="66">
-        <v>20</v>
-      </c>
-      <c r="E37" s="66">
-        <v>9</v>
-      </c>
-      <c r="F37" s="66">
-        <v>10</v>
-      </c>
-      <c r="G37" s="66">
-        <v>15</v>
-      </c>
-      <c r="H37" s="66">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="56">
-        <v>22</v>
-      </c>
-      <c r="D38" s="66">
-        <v>2</v>
-      </c>
-      <c r="E38" s="66">
-        <v>1</v>
-      </c>
-      <c r="F38" s="66">
-        <v>1</v>
-      </c>
-      <c r="G38" s="66">
-        <v>0</v>
-      </c>
-      <c r="H38" s="66">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD8627D-4657-EE4C-962D-304C4103ABD4}">
-  <dimension ref="A1:H38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="56">
-        <v>5</v>
-      </c>
-      <c r="D2" s="21">
-        <v>4</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="21">
-        <v>4</v>
-      </c>
-      <c r="G2" s="21">
-        <v>3</v>
-      </c>
-      <c r="H2" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="56">
-        <v>36</v>
-      </c>
-      <c r="D3" s="21">
-        <v>19</v>
-      </c>
-      <c r="E3" s="21">
-        <v>12</v>
-      </c>
-      <c r="F3" s="21">
-        <v>13</v>
-      </c>
-      <c r="G3" s="21">
-        <v>16</v>
-      </c>
-      <c r="H3" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="56">
-        <v>13</v>
-      </c>
-      <c r="D4" s="21">
-        <v>4</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="21">
-        <v>8</v>
-      </c>
-      <c r="G4" s="21">
-        <v>5</v>
-      </c>
-      <c r="H4" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="56">
-        <v>20</v>
-      </c>
-      <c r="D5" s="21">
-        <v>12</v>
-      </c>
-      <c r="E5" s="21">
-        <v>5</v>
-      </c>
-      <c r="F5" s="21">
-        <v>5</v>
-      </c>
-      <c r="G5" s="21">
-        <v>7</v>
-      </c>
-      <c r="H5" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="56">
-        <v>38</v>
-      </c>
-      <c r="D6" s="21">
-        <v>22</v>
-      </c>
-      <c r="E6" s="21">
-        <v>10</v>
-      </c>
-      <c r="F6" s="21">
-        <v>12</v>
-      </c>
-      <c r="G6" s="21">
-        <v>14</v>
-      </c>
-      <c r="H6" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="56">
-        <v>32</v>
-      </c>
-      <c r="D7" s="21">
-        <v>18</v>
-      </c>
-      <c r="E7" s="21">
-        <v>8</v>
-      </c>
-      <c r="F7" s="21">
-        <v>14</v>
-      </c>
-      <c r="G7" s="21">
-        <v>17</v>
-      </c>
-      <c r="H7" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="56">
-        <v>20</v>
-      </c>
-      <c r="D8" s="21">
-        <v>10</v>
-      </c>
-      <c r="E8" s="21">
-        <v>6</v>
-      </c>
-      <c r="F8" s="21">
-        <v>8</v>
-      </c>
-      <c r="G8" s="21">
-        <v>5</v>
-      </c>
-      <c r="H8" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="56">
-        <v>17</v>
-      </c>
-      <c r="D9" s="21">
-        <v>11</v>
-      </c>
-      <c r="E9" s="21">
-        <v>6</v>
-      </c>
-      <c r="F9" s="21">
-        <v>6</v>
-      </c>
-      <c r="G9" s="21">
-        <v>11</v>
-      </c>
-      <c r="H9" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="56">
-        <v>13</v>
-      </c>
-      <c r="D10" s="21">
-        <v>8</v>
-      </c>
-      <c r="E10" s="21">
-        <v>7</v>
-      </c>
-      <c r="F10" s="21">
-        <v>3</v>
-      </c>
-      <c r="G10" s="21">
-        <v>3</v>
-      </c>
-      <c r="H10" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="56">
-        <v>29</v>
-      </c>
-      <c r="D11" s="21">
-        <v>21</v>
-      </c>
-      <c r="E11" s="21">
-        <v>10</v>
-      </c>
-      <c r="F11" s="21">
-        <v>11</v>
-      </c>
-      <c r="G11" s="21">
-        <v>7</v>
-      </c>
-      <c r="H11" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="56">
-        <v>15</v>
-      </c>
-      <c r="D12" s="21">
-        <v>3</v>
-      </c>
-      <c r="E12" s="21">
-        <v>1</v>
-      </c>
-      <c r="F12" s="21">
-        <v>4</v>
-      </c>
-      <c r="G12" s="21">
-        <v>4</v>
-      </c>
-      <c r="H12" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="56">
-        <v>27</v>
-      </c>
-      <c r="D13" s="21">
-        <v>18</v>
-      </c>
-      <c r="E13" s="21">
-        <v>4</v>
-      </c>
-      <c r="F13" s="21">
-        <v>15</v>
-      </c>
-      <c r="G13" s="21">
-        <v>17</v>
-      </c>
-      <c r="H13" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="56">
-        <v>23</v>
-      </c>
-      <c r="D14" s="21">
-        <v>17</v>
-      </c>
-      <c r="E14" s="21">
-        <v>9</v>
-      </c>
-      <c r="F14" s="21">
-        <v>11</v>
-      </c>
-      <c r="G14" s="21">
-        <v>10</v>
-      </c>
-      <c r="H14" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="56">
-        <v>86</v>
-      </c>
-      <c r="D15" s="21">
-        <v>75</v>
-      </c>
-      <c r="E15" s="21">
-        <v>55</v>
-      </c>
-      <c r="F15" s="21">
-        <v>50</v>
-      </c>
-      <c r="G15" s="21">
-        <v>32</v>
-      </c>
-      <c r="H15" s="21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="56">
-        <v>20</v>
-      </c>
-      <c r="D16" s="21">
-        <v>3</v>
-      </c>
-      <c r="E16" s="21">
-        <v>2</v>
-      </c>
-      <c r="F16" s="21">
-        <v>6</v>
-      </c>
-      <c r="G16" s="21">
-        <v>9</v>
-      </c>
-      <c r="H16" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="56">
-        <v>24</v>
-      </c>
-      <c r="D18" s="21">
-        <v>14</v>
-      </c>
-      <c r="E18" s="21">
-        <v>7</v>
-      </c>
-      <c r="F18" s="21">
-        <v>9</v>
-      </c>
-      <c r="G18" s="21">
-        <v>11</v>
-      </c>
-      <c r="H18" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="56">
-        <v>26</v>
-      </c>
-      <c r="D19" s="21">
-        <v>17</v>
-      </c>
-      <c r="E19" s="21">
-        <v>9</v>
-      </c>
-      <c r="F19" s="21">
-        <v>11</v>
-      </c>
-      <c r="G19" s="21">
-        <v>9</v>
-      </c>
-      <c r="H19" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="56">
-        <v>25</v>
-      </c>
-      <c r="D21" s="26">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26">
-        <v>7</v>
-      </c>
-      <c r="F21" s="26">
-        <v>10</v>
-      </c>
-      <c r="G21" s="26">
-        <v>10</v>
-      </c>
-      <c r="H21" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="56">
-        <v>19</v>
-      </c>
-      <c r="D24" s="21">
-        <v>10</v>
-      </c>
-      <c r="E24" s="21">
-        <v>6</v>
-      </c>
-      <c r="F24" s="21">
-        <v>8</v>
-      </c>
-      <c r="G24" s="21">
-        <v>8</v>
-      </c>
-      <c r="H24" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="56">
-        <v>20</v>
-      </c>
-      <c r="D25" s="21">
-        <v>13</v>
-      </c>
-      <c r="E25" s="21">
-        <v>6</v>
-      </c>
-      <c r="F25" s="21">
-        <v>8</v>
-      </c>
-      <c r="G25" s="21">
-        <v>8</v>
-      </c>
-      <c r="H25" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="56">
-        <v>24</v>
-      </c>
-      <c r="D26" s="21">
-        <v>14</v>
-      </c>
-      <c r="E26" s="21">
-        <v>7</v>
-      </c>
-      <c r="F26" s="21">
-        <v>8</v>
-      </c>
-      <c r="G26" s="21">
-        <v>8</v>
-      </c>
-      <c r="H26" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="56">
-        <v>34</v>
-      </c>
-      <c r="D27" s="21">
-        <v>21</v>
-      </c>
-      <c r="E27" s="21">
-        <v>9</v>
-      </c>
-      <c r="F27" s="21">
-        <v>11</v>
-      </c>
-      <c r="G27" s="21">
-        <v>14</v>
-      </c>
-      <c r="H27" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="56">
-        <v>51</v>
-      </c>
-      <c r="D28" s="21">
-        <v>36</v>
-      </c>
-      <c r="E28" s="21">
-        <v>16</v>
-      </c>
-      <c r="F28" s="21">
-        <v>24</v>
-      </c>
-      <c r="G28" s="21">
-        <v>24</v>
-      </c>
-      <c r="H28" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="56">
-        <v>84</v>
-      </c>
-      <c r="D29" s="21">
-        <v>71</v>
-      </c>
-      <c r="E29" s="21">
-        <v>46</v>
-      </c>
-      <c r="F29" s="21">
-        <v>55</v>
-      </c>
-      <c r="G29" s="21">
-        <v>58</v>
-      </c>
-      <c r="H29" s="21">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21855,6 +22508,1744 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8892AF24-D85C-4D49-A7A1-70F793B3C12F}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="56">
+        <v>7</v>
+      </c>
+      <c r="D2" s="66">
+        <v>1</v>
+      </c>
+      <c r="E2" s="66">
+        <v>1</v>
+      </c>
+      <c r="F2" s="66">
+        <v>5</v>
+      </c>
+      <c r="G2" s="66">
+        <v>5</v>
+      </c>
+      <c r="H2" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="56">
+        <v>43</v>
+      </c>
+      <c r="D3" s="66">
+        <v>23</v>
+      </c>
+      <c r="E3" s="66">
+        <v>7</v>
+      </c>
+      <c r="F3" s="66">
+        <v>10</v>
+      </c>
+      <c r="G3" s="66">
+        <v>2</v>
+      </c>
+      <c r="H3" s="66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="56">
+        <v>43</v>
+      </c>
+      <c r="D4" s="66">
+        <v>6</v>
+      </c>
+      <c r="E4" s="66">
+        <v>1</v>
+      </c>
+      <c r="F4" s="66">
+        <v>5</v>
+      </c>
+      <c r="G4" s="66">
+        <v>1</v>
+      </c>
+      <c r="H4" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="56">
+        <v>8</v>
+      </c>
+      <c r="D5" s="66">
+        <v>8</v>
+      </c>
+      <c r="E5" s="66">
+        <v>1</v>
+      </c>
+      <c r="F5" s="66">
+        <v>1</v>
+      </c>
+      <c r="G5" s="66">
+        <v>0</v>
+      </c>
+      <c r="H5" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="56">
+        <v>35</v>
+      </c>
+      <c r="D6" s="66">
+        <v>23</v>
+      </c>
+      <c r="E6" s="66">
+        <v>23</v>
+      </c>
+      <c r="F6" s="66">
+        <v>6</v>
+      </c>
+      <c r="G6" s="66">
+        <v>7</v>
+      </c>
+      <c r="H6" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="56">
+        <v>45</v>
+      </c>
+      <c r="D7" s="66">
+        <v>32</v>
+      </c>
+      <c r="E7" s="66">
+        <v>26</v>
+      </c>
+      <c r="F7" s="66">
+        <v>2</v>
+      </c>
+      <c r="G7" s="66">
+        <v>13</v>
+      </c>
+      <c r="H7" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="56">
+        <v>38</v>
+      </c>
+      <c r="D8" s="66">
+        <v>33</v>
+      </c>
+      <c r="E8" s="66">
+        <v>1</v>
+      </c>
+      <c r="F8" s="66">
+        <v>5</v>
+      </c>
+      <c r="G8" s="66">
+        <v>0</v>
+      </c>
+      <c r="H8" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="56">
+        <v>24</v>
+      </c>
+      <c r="D9" s="66">
+        <v>9</v>
+      </c>
+      <c r="E9" s="66">
+        <v>7</v>
+      </c>
+      <c r="F9" s="66">
+        <v>6</v>
+      </c>
+      <c r="G9" s="66">
+        <v>0</v>
+      </c>
+      <c r="H9" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="56">
+        <v>23</v>
+      </c>
+      <c r="D10" s="66">
+        <v>1</v>
+      </c>
+      <c r="E10" s="66">
+        <v>0</v>
+      </c>
+      <c r="F10" s="66">
+        <v>0</v>
+      </c>
+      <c r="G10" s="66">
+        <v>0</v>
+      </c>
+      <c r="H10" s="66">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="56">
+        <v>34</v>
+      </c>
+      <c r="D11" s="66">
+        <v>26</v>
+      </c>
+      <c r="E11" s="66">
+        <v>10</v>
+      </c>
+      <c r="F11" s="66">
+        <v>9</v>
+      </c>
+      <c r="G11" s="66">
+        <v>7</v>
+      </c>
+      <c r="H11" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="56">
+        <v>14</v>
+      </c>
+      <c r="D12" s="66">
+        <v>2</v>
+      </c>
+      <c r="E12" s="66">
+        <v>1</v>
+      </c>
+      <c r="F12" s="66">
+        <v>6</v>
+      </c>
+      <c r="G12" s="66">
+        <v>1</v>
+      </c>
+      <c r="H12" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="56">
+        <v>28</v>
+      </c>
+      <c r="D13" s="66">
+        <v>27</v>
+      </c>
+      <c r="E13" s="66">
+        <v>14</v>
+      </c>
+      <c r="F13" s="66">
+        <v>10</v>
+      </c>
+      <c r="G13" s="66">
+        <v>17</v>
+      </c>
+      <c r="H13" s="66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="56">
+        <v>22</v>
+      </c>
+      <c r="D14" s="66">
+        <v>8</v>
+      </c>
+      <c r="E14" s="66">
+        <v>2</v>
+      </c>
+      <c r="F14" s="66">
+        <v>6</v>
+      </c>
+      <c r="G14" s="66">
+        <v>4</v>
+      </c>
+      <c r="H14" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="56">
+        <v>88</v>
+      </c>
+      <c r="D15" s="66">
+        <v>75</v>
+      </c>
+      <c r="E15" s="66">
+        <v>56</v>
+      </c>
+      <c r="F15" s="66">
+        <v>35</v>
+      </c>
+      <c r="G15" s="66">
+        <v>8</v>
+      </c>
+      <c r="H15" s="66">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="56">
+        <v>20</v>
+      </c>
+      <c r="D16" s="66">
+        <v>11</v>
+      </c>
+      <c r="E16" s="66">
+        <v>3</v>
+      </c>
+      <c r="F16" s="66">
+        <v>10</v>
+      </c>
+      <c r="G16" s="66">
+        <v>5</v>
+      </c>
+      <c r="H16" s="66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="56">
+        <v>31</v>
+      </c>
+      <c r="D18" s="66">
+        <v>19</v>
+      </c>
+      <c r="E18" s="66">
+        <v>10</v>
+      </c>
+      <c r="F18" s="66">
+        <v>5</v>
+      </c>
+      <c r="G18" s="66">
+        <v>4</v>
+      </c>
+      <c r="H18" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="56">
+        <v>29</v>
+      </c>
+      <c r="D19" s="66">
+        <v>19</v>
+      </c>
+      <c r="E19" s="66">
+        <v>8</v>
+      </c>
+      <c r="F19" s="66">
+        <v>8</v>
+      </c>
+      <c r="G19" s="66">
+        <v>6</v>
+      </c>
+      <c r="H19" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="56">
+        <v>30</v>
+      </c>
+      <c r="D21" s="70">
+        <v>19</v>
+      </c>
+      <c r="E21" s="70">
+        <v>9</v>
+      </c>
+      <c r="F21" s="70">
+        <v>8</v>
+      </c>
+      <c r="G21" s="70">
+        <v>6</v>
+      </c>
+      <c r="H21" s="70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="56">
+        <v>19</v>
+      </c>
+      <c r="D24" s="66">
+        <v>7</v>
+      </c>
+      <c r="E24" s="66">
+        <v>4</v>
+      </c>
+      <c r="F24" s="66">
+        <v>4</v>
+      </c>
+      <c r="G24" s="66">
+        <v>2</v>
+      </c>
+      <c r="H24" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="56">
+        <v>32</v>
+      </c>
+      <c r="D25" s="66">
+        <v>25</v>
+      </c>
+      <c r="E25" s="66">
+        <v>13</v>
+      </c>
+      <c r="F25" s="66">
+        <v>11</v>
+      </c>
+      <c r="G25" s="66">
+        <v>6</v>
+      </c>
+      <c r="H25" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="56">
+        <v>30</v>
+      </c>
+      <c r="D26" s="66">
+        <v>20</v>
+      </c>
+      <c r="E26" s="66">
+        <v>10</v>
+      </c>
+      <c r="F26" s="66">
+        <v>8</v>
+      </c>
+      <c r="G26" s="66">
+        <v>8</v>
+      </c>
+      <c r="H26" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="56">
+        <v>41</v>
+      </c>
+      <c r="D27" s="66">
+        <v>29</v>
+      </c>
+      <c r="E27" s="66">
+        <v>7</v>
+      </c>
+      <c r="F27" s="66">
+        <v>7</v>
+      </c>
+      <c r="G27" s="66">
+        <v>9</v>
+      </c>
+      <c r="H27" s="66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="56">
+        <v>71</v>
+      </c>
+      <c r="D28" s="66">
+        <v>39</v>
+      </c>
+      <c r="E28" s="66">
+        <v>17</v>
+      </c>
+      <c r="F28" s="66">
+        <v>25</v>
+      </c>
+      <c r="G28" s="66">
+        <v>15</v>
+      </c>
+      <c r="H28" s="66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="56">
+        <v>91</v>
+      </c>
+      <c r="D29" s="66">
+        <v>59</v>
+      </c>
+      <c r="E29" s="66">
+        <v>30</v>
+      </c>
+      <c r="F29" s="66">
+        <v>25</v>
+      </c>
+      <c r="G29" s="66">
+        <v>17</v>
+      </c>
+      <c r="H29" s="66">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="56">
+        <v>61</v>
+      </c>
+      <c r="D32" s="66">
+        <v>41</v>
+      </c>
+      <c r="E32" s="66">
+        <v>33</v>
+      </c>
+      <c r="F32" s="66">
+        <v>9</v>
+      </c>
+      <c r="G32" s="66">
+        <v>10</v>
+      </c>
+      <c r="H32" s="66">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="56">
+        <v>53</v>
+      </c>
+      <c r="D33" s="66">
+        <v>42</v>
+      </c>
+      <c r="E33" s="66">
+        <v>16</v>
+      </c>
+      <c r="F33" s="66">
+        <v>5</v>
+      </c>
+      <c r="G33" s="66">
+        <v>5</v>
+      </c>
+      <c r="H33" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="56">
+        <v>25</v>
+      </c>
+      <c r="D34" s="66">
+        <v>3</v>
+      </c>
+      <c r="E34" s="66">
+        <v>2</v>
+      </c>
+      <c r="F34" s="66">
+        <v>11</v>
+      </c>
+      <c r="G34" s="66">
+        <v>1</v>
+      </c>
+      <c r="H34" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="56">
+        <v>33</v>
+      </c>
+      <c r="D35" s="66">
+        <v>26</v>
+      </c>
+      <c r="E35" s="66">
+        <v>10</v>
+      </c>
+      <c r="F35" s="66">
+        <v>8</v>
+      </c>
+      <c r="G35" s="66">
+        <v>7</v>
+      </c>
+      <c r="H35" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="56">
+        <v>31</v>
+      </c>
+      <c r="D36" s="66">
+        <v>19</v>
+      </c>
+      <c r="E36" s="66">
+        <v>10</v>
+      </c>
+      <c r="F36" s="66">
+        <v>11</v>
+      </c>
+      <c r="G36" s="66">
+        <v>4</v>
+      </c>
+      <c r="H36" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="56">
+        <v>28</v>
+      </c>
+      <c r="D37" s="66">
+        <v>20</v>
+      </c>
+      <c r="E37" s="66">
+        <v>9</v>
+      </c>
+      <c r="F37" s="66">
+        <v>10</v>
+      </c>
+      <c r="G37" s="66">
+        <v>15</v>
+      </c>
+      <c r="H37" s="66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="56">
+        <v>22</v>
+      </c>
+      <c r="D38" s="66">
+        <v>2</v>
+      </c>
+      <c r="E38" s="66">
+        <v>1</v>
+      </c>
+      <c r="F38" s="66">
+        <v>1</v>
+      </c>
+      <c r="G38" s="66">
+        <v>0</v>
+      </c>
+      <c r="H38" s="66">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD8627D-4657-EE4C-962D-304C4103ABD4}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="56">
+        <v>5</v>
+      </c>
+      <c r="D2" s="21">
+        <v>4</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21">
+        <v>4</v>
+      </c>
+      <c r="G2" s="21">
+        <v>3</v>
+      </c>
+      <c r="H2" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="56">
+        <v>36</v>
+      </c>
+      <c r="D3" s="21">
+        <v>19</v>
+      </c>
+      <c r="E3" s="21">
+        <v>12</v>
+      </c>
+      <c r="F3" s="21">
+        <v>13</v>
+      </c>
+      <c r="G3" s="21">
+        <v>16</v>
+      </c>
+      <c r="H3" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="56">
+        <v>13</v>
+      </c>
+      <c r="D4" s="21">
+        <v>4</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
+        <v>8</v>
+      </c>
+      <c r="G4" s="21">
+        <v>5</v>
+      </c>
+      <c r="H4" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="56">
+        <v>20</v>
+      </c>
+      <c r="D5" s="21">
+        <v>12</v>
+      </c>
+      <c r="E5" s="21">
+        <v>5</v>
+      </c>
+      <c r="F5" s="21">
+        <v>5</v>
+      </c>
+      <c r="G5" s="21">
+        <v>7</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="56">
+        <v>38</v>
+      </c>
+      <c r="D6" s="21">
+        <v>22</v>
+      </c>
+      <c r="E6" s="21">
+        <v>10</v>
+      </c>
+      <c r="F6" s="21">
+        <v>12</v>
+      </c>
+      <c r="G6" s="21">
+        <v>14</v>
+      </c>
+      <c r="H6" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="56">
+        <v>32</v>
+      </c>
+      <c r="D7" s="21">
+        <v>18</v>
+      </c>
+      <c r="E7" s="21">
+        <v>8</v>
+      </c>
+      <c r="F7" s="21">
+        <v>14</v>
+      </c>
+      <c r="G7" s="21">
+        <v>17</v>
+      </c>
+      <c r="H7" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="56">
+        <v>20</v>
+      </c>
+      <c r="D8" s="21">
+        <v>10</v>
+      </c>
+      <c r="E8" s="21">
+        <v>6</v>
+      </c>
+      <c r="F8" s="21">
+        <v>8</v>
+      </c>
+      <c r="G8" s="21">
+        <v>5</v>
+      </c>
+      <c r="H8" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="56">
+        <v>17</v>
+      </c>
+      <c r="D9" s="21">
+        <v>11</v>
+      </c>
+      <c r="E9" s="21">
+        <v>6</v>
+      </c>
+      <c r="F9" s="21">
+        <v>6</v>
+      </c>
+      <c r="G9" s="21">
+        <v>11</v>
+      </c>
+      <c r="H9" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="56">
+        <v>13</v>
+      </c>
+      <c r="D10" s="21">
+        <v>8</v>
+      </c>
+      <c r="E10" s="21">
+        <v>7</v>
+      </c>
+      <c r="F10" s="21">
+        <v>3</v>
+      </c>
+      <c r="G10" s="21">
+        <v>3</v>
+      </c>
+      <c r="H10" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="56">
+        <v>29</v>
+      </c>
+      <c r="D11" s="21">
+        <v>21</v>
+      </c>
+      <c r="E11" s="21">
+        <v>10</v>
+      </c>
+      <c r="F11" s="21">
+        <v>11</v>
+      </c>
+      <c r="G11" s="21">
+        <v>7</v>
+      </c>
+      <c r="H11" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="56">
+        <v>15</v>
+      </c>
+      <c r="D12" s="21">
+        <v>3</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21">
+        <v>4</v>
+      </c>
+      <c r="G12" s="21">
+        <v>4</v>
+      </c>
+      <c r="H12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="56">
+        <v>27</v>
+      </c>
+      <c r="D13" s="21">
+        <v>18</v>
+      </c>
+      <c r="E13" s="21">
+        <v>4</v>
+      </c>
+      <c r="F13" s="21">
+        <v>15</v>
+      </c>
+      <c r="G13" s="21">
+        <v>17</v>
+      </c>
+      <c r="H13" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="56">
+        <v>23</v>
+      </c>
+      <c r="D14" s="21">
+        <v>17</v>
+      </c>
+      <c r="E14" s="21">
+        <v>9</v>
+      </c>
+      <c r="F14" s="21">
+        <v>11</v>
+      </c>
+      <c r="G14" s="21">
+        <v>10</v>
+      </c>
+      <c r="H14" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="56">
+        <v>86</v>
+      </c>
+      <c r="D15" s="21">
+        <v>75</v>
+      </c>
+      <c r="E15" s="21">
+        <v>55</v>
+      </c>
+      <c r="F15" s="21">
+        <v>50</v>
+      </c>
+      <c r="G15" s="21">
+        <v>32</v>
+      </c>
+      <c r="H15" s="21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="56">
+        <v>20</v>
+      </c>
+      <c r="D16" s="21">
+        <v>3</v>
+      </c>
+      <c r="E16" s="21">
+        <v>2</v>
+      </c>
+      <c r="F16" s="21">
+        <v>6</v>
+      </c>
+      <c r="G16" s="21">
+        <v>9</v>
+      </c>
+      <c r="H16" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="56">
+        <v>24</v>
+      </c>
+      <c r="D18" s="21">
+        <v>14</v>
+      </c>
+      <c r="E18" s="21">
+        <v>7</v>
+      </c>
+      <c r="F18" s="21">
+        <v>9</v>
+      </c>
+      <c r="G18" s="21">
+        <v>11</v>
+      </c>
+      <c r="H18" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="56">
+        <v>26</v>
+      </c>
+      <c r="D19" s="21">
+        <v>17</v>
+      </c>
+      <c r="E19" s="21">
+        <v>9</v>
+      </c>
+      <c r="F19" s="21">
+        <v>11</v>
+      </c>
+      <c r="G19" s="21">
+        <v>9</v>
+      </c>
+      <c r="H19" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="56">
+        <v>25</v>
+      </c>
+      <c r="D21" s="26">
+        <v>15</v>
+      </c>
+      <c r="E21" s="26">
+        <v>7</v>
+      </c>
+      <c r="F21" s="26">
+        <v>10</v>
+      </c>
+      <c r="G21" s="26">
+        <v>10</v>
+      </c>
+      <c r="H21" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="56">
+        <v>19</v>
+      </c>
+      <c r="D24" s="21">
+        <v>10</v>
+      </c>
+      <c r="E24" s="21">
+        <v>6</v>
+      </c>
+      <c r="F24" s="21">
+        <v>8</v>
+      </c>
+      <c r="G24" s="21">
+        <v>8</v>
+      </c>
+      <c r="H24" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="56">
+        <v>20</v>
+      </c>
+      <c r="D25" s="21">
+        <v>13</v>
+      </c>
+      <c r="E25" s="21">
+        <v>6</v>
+      </c>
+      <c r="F25" s="21">
+        <v>8</v>
+      </c>
+      <c r="G25" s="21">
+        <v>8</v>
+      </c>
+      <c r="H25" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="56">
+        <v>24</v>
+      </c>
+      <c r="D26" s="21">
+        <v>14</v>
+      </c>
+      <c r="E26" s="21">
+        <v>7</v>
+      </c>
+      <c r="F26" s="21">
+        <v>8</v>
+      </c>
+      <c r="G26" s="21">
+        <v>8</v>
+      </c>
+      <c r="H26" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="56">
+        <v>34</v>
+      </c>
+      <c r="D27" s="21">
+        <v>21</v>
+      </c>
+      <c r="E27" s="21">
+        <v>9</v>
+      </c>
+      <c r="F27" s="21">
+        <v>11</v>
+      </c>
+      <c r="G27" s="21">
+        <v>14</v>
+      </c>
+      <c r="H27" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="56">
+        <v>51</v>
+      </c>
+      <c r="D28" s="21">
+        <v>36</v>
+      </c>
+      <c r="E28" s="21">
+        <v>16</v>
+      </c>
+      <c r="F28" s="21">
+        <v>24</v>
+      </c>
+      <c r="G28" s="21">
+        <v>24</v>
+      </c>
+      <c r="H28" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="56">
+        <v>84</v>
+      </c>
+      <c r="D29" s="21">
+        <v>71</v>
+      </c>
+      <c r="E29" s="21">
+        <v>46</v>
+      </c>
+      <c r="F29" s="21">
+        <v>55</v>
+      </c>
+      <c r="G29" s="21">
+        <v>58</v>
+      </c>
+      <c r="H29" s="21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FE29F2-626E-664E-9813-62F674DA7A6D}">
   <dimension ref="A1:H38"/>
   <sheetViews>
@@ -22681,7 +25072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F37096C-7559-CA40-8E34-33BBEFF02349}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -23602,7 +25993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B88AB3-21CC-DA43-8C02-907780E2EA1D}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -24477,7 +26868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4127A38E-1EC4-954D-9DB2-9DE0917309B4}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -25250,7 +27641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807574F5-FF77-854A-A93F-8E1CF13D6163}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -25999,11 +28390,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B9D5ED-1821-684A-BE84-B774B2FEECBB}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -26702,7 +29093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D1B602-E86B-E146-BA02-5C569582881A}">
   <dimension ref="A1:F38"/>
   <sheetViews>
@@ -27405,7 +29796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C2E48A-BB55-9949-AE02-B813B2BB5A43}">
   <dimension ref="A1:F38"/>
   <sheetViews>
@@ -27986,1309 +30377,6 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985237C6-29B4-DB47-A521-10B54A0BB5EF}">
-  <dimension ref="A1:F38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="80">
-        <v>3</v>
-      </c>
-      <c r="C2" s="49">
-        <v>3</v>
-      </c>
-      <c r="D2" s="49">
-        <v>2</v>
-      </c>
-      <c r="E2" s="49">
-        <v>9</v>
-      </c>
-      <c r="F2" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="80">
-        <v>18</v>
-      </c>
-      <c r="C3" s="49">
-        <v>14</v>
-      </c>
-      <c r="D3" s="49">
-        <v>5</v>
-      </c>
-      <c r="E3" s="49">
-        <v>23</v>
-      </c>
-      <c r="F3" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="80">
-        <v>5</v>
-      </c>
-      <c r="C4" s="49">
-        <v>6</v>
-      </c>
-      <c r="D4" s="49">
-        <v>1</v>
-      </c>
-      <c r="E4" s="49">
-        <v>11</v>
-      </c>
-      <c r="F4" s="49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="80">
-        <v>12</v>
-      </c>
-      <c r="C5" s="49">
-        <v>10</v>
-      </c>
-      <c r="D5" s="49">
-        <v>6</v>
-      </c>
-      <c r="E5" s="49">
-        <v>13</v>
-      </c>
-      <c r="F5" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="80">
-        <v>28</v>
-      </c>
-      <c r="C6" s="49">
-        <v>12</v>
-      </c>
-      <c r="D6" s="49">
-        <v>8</v>
-      </c>
-      <c r="E6" s="49">
-        <v>19</v>
-      </c>
-      <c r="F6" s="49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="80">
-        <v>35</v>
-      </c>
-      <c r="C7" s="49">
-        <v>16</v>
-      </c>
-      <c r="D7" s="49">
-        <v>4</v>
-      </c>
-      <c r="E7" s="49">
-        <v>19</v>
-      </c>
-      <c r="F7" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="80">
-        <v>11</v>
-      </c>
-      <c r="C8" s="49">
-        <v>18</v>
-      </c>
-      <c r="D8" s="49">
-        <v>10</v>
-      </c>
-      <c r="E8" s="49">
-        <v>25</v>
-      </c>
-      <c r="F8" s="49">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="80">
-        <v>2</v>
-      </c>
-      <c r="C9" s="49">
-        <v>1</v>
-      </c>
-      <c r="D9" s="49">
-        <v>0</v>
-      </c>
-      <c r="E9" s="49">
-        <v>7</v>
-      </c>
-      <c r="F9" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="80">
-        <v>6</v>
-      </c>
-      <c r="C10" s="49">
-        <v>6</v>
-      </c>
-      <c r="D10" s="49">
-        <v>3</v>
-      </c>
-      <c r="E10" s="49">
-        <v>23</v>
-      </c>
-      <c r="F10" s="49">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="80">
-        <v>6</v>
-      </c>
-      <c r="C11" s="49">
-        <v>2</v>
-      </c>
-      <c r="D11" s="49">
-        <v>0</v>
-      </c>
-      <c r="E11" s="49">
-        <v>16</v>
-      </c>
-      <c r="F11" s="49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="80">
-        <v>2</v>
-      </c>
-      <c r="C12" s="49">
-        <v>0</v>
-      </c>
-      <c r="D12" s="49">
-        <v>0</v>
-      </c>
-      <c r="E12" s="49">
-        <v>13</v>
-      </c>
-      <c r="F12" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="80">
-        <v>1</v>
-      </c>
-      <c r="C13" s="49">
-        <v>5</v>
-      </c>
-      <c r="D13" s="49">
-        <v>1</v>
-      </c>
-      <c r="E13" s="49">
-        <v>33</v>
-      </c>
-      <c r="F13" s="49">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="80">
-        <v>4</v>
-      </c>
-      <c r="C14" s="49">
-        <v>1</v>
-      </c>
-      <c r="D14" s="49">
-        <v>0</v>
-      </c>
-      <c r="E14" s="49">
-        <v>4</v>
-      </c>
-      <c r="F14" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="80">
-        <v>38</v>
-      </c>
-      <c r="C15" s="49">
-        <v>5</v>
-      </c>
-      <c r="D15" s="49">
-        <v>3</v>
-      </c>
-      <c r="E15" s="49">
-        <v>22</v>
-      </c>
-      <c r="F15" s="49">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="80">
-        <v>1</v>
-      </c>
-      <c r="C16" s="49">
-        <v>2</v>
-      </c>
-      <c r="D16" s="49">
-        <v>1</v>
-      </c>
-      <c r="E16" s="49">
-        <v>11</v>
-      </c>
-      <c r="F16" s="49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="80">
-        <v>17</v>
-      </c>
-      <c r="C18" s="49">
-        <v>11</v>
-      </c>
-      <c r="D18" s="49">
-        <v>5</v>
-      </c>
-      <c r="E18" s="49">
-        <v>16</v>
-      </c>
-      <c r="F18" s="49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="80">
-        <v>5</v>
-      </c>
-      <c r="C19" s="49">
-        <v>2</v>
-      </c>
-      <c r="D19" s="49">
-        <v>0</v>
-      </c>
-      <c r="E19" s="49">
-        <v>14</v>
-      </c>
-      <c r="F19" s="49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="82">
-        <v>12</v>
-      </c>
-      <c r="C21" s="83">
-        <v>7</v>
-      </c>
-      <c r="D21" s="83">
-        <v>3</v>
-      </c>
-      <c r="E21" s="83">
-        <v>15</v>
-      </c>
-      <c r="F21" s="83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="80">
-        <v>6</v>
-      </c>
-      <c r="C24" s="49">
-        <v>5</v>
-      </c>
-      <c r="D24" s="49">
-        <v>2</v>
-      </c>
-      <c r="E24" s="49">
-        <v>12</v>
-      </c>
-      <c r="F24" s="49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="80">
-        <v>6</v>
-      </c>
-      <c r="C25" s="49">
-        <v>4</v>
-      </c>
-      <c r="D25" s="49">
-        <v>1</v>
-      </c>
-      <c r="E25" s="49">
-        <v>11</v>
-      </c>
-      <c r="F25" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="80">
-        <v>12</v>
-      </c>
-      <c r="C26" s="49">
-        <v>6</v>
-      </c>
-      <c r="D26" s="49">
-        <v>3</v>
-      </c>
-      <c r="E26" s="49">
-        <v>16</v>
-      </c>
-      <c r="F26" s="49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="80">
-        <v>22</v>
-      </c>
-      <c r="C27" s="49">
-        <v>13</v>
-      </c>
-      <c r="D27" s="49">
-        <v>5</v>
-      </c>
-      <c r="E27" s="49">
-        <v>22</v>
-      </c>
-      <c r="F27" s="49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="80">
-        <v>39</v>
-      </c>
-      <c r="C28" s="49">
-        <v>24</v>
-      </c>
-      <c r="D28" s="49">
-        <v>11</v>
-      </c>
-      <c r="E28" s="49">
-        <v>29</v>
-      </c>
-      <c r="F28" s="49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="80">
-        <v>51</v>
-      </c>
-      <c r="C29" s="49">
-        <v>29</v>
-      </c>
-      <c r="D29" s="49">
-        <v>14</v>
-      </c>
-      <c r="E29" s="49">
-        <v>39</v>
-      </c>
-      <c r="F29" s="49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D177C939-6B65-2B4B-9575-55CD93E36919}">
-  <dimension ref="A1:F39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="21">
-        <v>14</v>
-      </c>
-      <c r="D3" s="21">
-        <v>7</v>
-      </c>
-      <c r="E3" s="21">
-        <v>7</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="21">
-        <v>57</v>
-      </c>
-      <c r="D4" s="21">
-        <v>16</v>
-      </c>
-      <c r="E4" s="21">
-        <v>54</v>
-      </c>
-      <c r="F4" s="21">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="21">
-        <v>27</v>
-      </c>
-      <c r="D5" s="21">
-        <v>13</v>
-      </c>
-      <c r="E5" s="21">
-        <v>5</v>
-      </c>
-      <c r="F5" s="21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="21">
-        <v>19</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
-        <v>19</v>
-      </c>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="21">
-        <v>67</v>
-      </c>
-      <c r="D7" s="21">
-        <v>21</v>
-      </c>
-      <c r="E7" s="21">
-        <v>64</v>
-      </c>
-      <c r="F7" s="21">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="21">
-        <v>63</v>
-      </c>
-      <c r="D8" s="21">
-        <v>12</v>
-      </c>
-      <c r="E8" s="21">
-        <v>51</v>
-      </c>
-      <c r="F8" s="21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="21">
-        <v>23</v>
-      </c>
-      <c r="D9" s="21">
-        <v>17</v>
-      </c>
-      <c r="E9" s="21">
-        <v>15</v>
-      </c>
-      <c r="F9" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="21">
-        <v>8</v>
-      </c>
-      <c r="D10" s="21">
-        <v>3</v>
-      </c>
-      <c r="E10" s="21">
-        <v>6</v>
-      </c>
-      <c r="F10" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="21">
-        <v>20</v>
-      </c>
-      <c r="D11" s="21">
-        <v>6</v>
-      </c>
-      <c r="E11" s="21">
-        <v>12</v>
-      </c>
-      <c r="F11" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="21">
-        <v>50</v>
-      </c>
-      <c r="D12" s="21">
-        <v>6</v>
-      </c>
-      <c r="E12" s="21">
-        <v>39</v>
-      </c>
-      <c r="F12" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="21">
-        <v>30</v>
-      </c>
-      <c r="D14" s="21">
-        <v>4</v>
-      </c>
-      <c r="E14" s="21">
-        <v>22</v>
-      </c>
-      <c r="F14" s="21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="21">
-        <v>18</v>
-      </c>
-      <c r="D15" s="21">
-        <v>6</v>
-      </c>
-      <c r="E15" s="21">
-        <v>12</v>
-      </c>
-      <c r="F15" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="21">
-        <v>85</v>
-      </c>
-      <c r="D16" s="21">
-        <v>44</v>
-      </c>
-      <c r="E16" s="21">
-        <v>77</v>
-      </c>
-      <c r="F16" s="21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="21">
-        <v>25</v>
-      </c>
-      <c r="D17" s="21">
-        <v>18</v>
-      </c>
-      <c r="E17" s="21">
-        <v>18</v>
-      </c>
-      <c r="F17" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="21">
-        <v>38</v>
-      </c>
-      <c r="D19" s="21">
-        <v>12</v>
-      </c>
-      <c r="E19" s="21">
-        <v>31</v>
-      </c>
-      <c r="F19" s="21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="21">
-        <v>33</v>
-      </c>
-      <c r="D20" s="21">
-        <v>9</v>
-      </c>
-      <c r="E20" s="21">
-        <v>26</v>
-      </c>
-      <c r="F20" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="26">
-        <v>35</v>
-      </c>
-      <c r="D22" s="26">
-        <v>10</v>
-      </c>
-      <c r="E22" s="26">
-        <v>27</v>
-      </c>
-      <c r="F22" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="21">
-        <v>25</v>
-      </c>
-      <c r="D25" s="21">
-        <v>7</v>
-      </c>
-      <c r="E25" s="21">
-        <v>19</v>
-      </c>
-      <c r="F25" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="21">
-        <v>36</v>
-      </c>
-      <c r="D26" s="21">
-        <v>13</v>
-      </c>
-      <c r="E26" s="21">
-        <v>27</v>
-      </c>
-      <c r="F26" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="21">
-        <v>42</v>
-      </c>
-      <c r="D27" s="21">
-        <v>8</v>
-      </c>
-      <c r="E27" s="21">
-        <v>34</v>
-      </c>
-      <c r="F27" s="21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="21">
-        <v>53</v>
-      </c>
-      <c r="D28" s="21">
-        <v>16</v>
-      </c>
-      <c r="E28" s="21">
-        <v>43</v>
-      </c>
-      <c r="F28" s="21">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="21">
-        <v>58</v>
-      </c>
-      <c r="D29" s="21">
-        <v>18</v>
-      </c>
-      <c r="E29" s="21">
-        <v>51</v>
-      </c>
-      <c r="F29" s="21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="21">
-        <v>49</v>
-      </c>
-      <c r="D30" s="21">
-        <v>18</v>
-      </c>
-      <c r="E30" s="21">
-        <v>43</v>
-      </c>
-      <c r="F30" s="21">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="20">
-        <v>75</v>
-      </c>
-      <c r="D33" s="21">
-        <v>26</v>
-      </c>
-      <c r="E33" s="21">
-        <v>74</v>
-      </c>
-      <c r="F33" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="20">
-        <v>37</v>
-      </c>
-      <c r="D34" s="21">
-        <v>12</v>
-      </c>
-      <c r="E34" s="21">
-        <v>29</v>
-      </c>
-      <c r="F34" s="21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="20">
-        <v>0</v>
-      </c>
-      <c r="D35" s="21">
-        <v>0</v>
-      </c>
-      <c r="E35" s="21">
-        <v>0</v>
-      </c>
-      <c r="F35" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="20">
-        <v>49</v>
-      </c>
-      <c r="D36" s="21">
-        <v>7</v>
-      </c>
-      <c r="E36" s="21">
-        <v>38</v>
-      </c>
-      <c r="F36" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="20">
-        <v>33</v>
-      </c>
-      <c r="D37" s="21">
-        <v>16</v>
-      </c>
-      <c r="E37" s="21">
-        <v>25</v>
-      </c>
-      <c r="F37" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="20">
-        <v>30</v>
-      </c>
-      <c r="D38" s="21">
-        <v>9</v>
-      </c>
-      <c r="E38" s="21">
-        <v>24</v>
-      </c>
-      <c r="F38" s="21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="20">
-        <v>13</v>
-      </c>
-      <c r="D39" s="21">
-        <v>2</v>
-      </c>
-      <c r="E39" s="21">
-        <v>8</v>
-      </c>
-      <c r="F39" s="21">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -30367,6 +31455,1309 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985237C6-29B4-DB47-A521-10B54A0BB5EF}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="80">
+        <v>3</v>
+      </c>
+      <c r="C2" s="49">
+        <v>3</v>
+      </c>
+      <c r="D2" s="49">
+        <v>2</v>
+      </c>
+      <c r="E2" s="49">
+        <v>9</v>
+      </c>
+      <c r="F2" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="80">
+        <v>18</v>
+      </c>
+      <c r="C3" s="49">
+        <v>14</v>
+      </c>
+      <c r="D3" s="49">
+        <v>5</v>
+      </c>
+      <c r="E3" s="49">
+        <v>23</v>
+      </c>
+      <c r="F3" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="80">
+        <v>5</v>
+      </c>
+      <c r="C4" s="49">
+        <v>6</v>
+      </c>
+      <c r="D4" s="49">
+        <v>1</v>
+      </c>
+      <c r="E4" s="49">
+        <v>11</v>
+      </c>
+      <c r="F4" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="80">
+        <v>12</v>
+      </c>
+      <c r="C5" s="49">
+        <v>10</v>
+      </c>
+      <c r="D5" s="49">
+        <v>6</v>
+      </c>
+      <c r="E5" s="49">
+        <v>13</v>
+      </c>
+      <c r="F5" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="80">
+        <v>28</v>
+      </c>
+      <c r="C6" s="49">
+        <v>12</v>
+      </c>
+      <c r="D6" s="49">
+        <v>8</v>
+      </c>
+      <c r="E6" s="49">
+        <v>19</v>
+      </c>
+      <c r="F6" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="80">
+        <v>35</v>
+      </c>
+      <c r="C7" s="49">
+        <v>16</v>
+      </c>
+      <c r="D7" s="49">
+        <v>4</v>
+      </c>
+      <c r="E7" s="49">
+        <v>19</v>
+      </c>
+      <c r="F7" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="80">
+        <v>11</v>
+      </c>
+      <c r="C8" s="49">
+        <v>18</v>
+      </c>
+      <c r="D8" s="49">
+        <v>10</v>
+      </c>
+      <c r="E8" s="49">
+        <v>25</v>
+      </c>
+      <c r="F8" s="49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="80">
+        <v>2</v>
+      </c>
+      <c r="C9" s="49">
+        <v>1</v>
+      </c>
+      <c r="D9" s="49">
+        <v>0</v>
+      </c>
+      <c r="E9" s="49">
+        <v>7</v>
+      </c>
+      <c r="F9" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="80">
+        <v>6</v>
+      </c>
+      <c r="C10" s="49">
+        <v>6</v>
+      </c>
+      <c r="D10" s="49">
+        <v>3</v>
+      </c>
+      <c r="E10" s="49">
+        <v>23</v>
+      </c>
+      <c r="F10" s="49">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="80">
+        <v>6</v>
+      </c>
+      <c r="C11" s="49">
+        <v>2</v>
+      </c>
+      <c r="D11" s="49">
+        <v>0</v>
+      </c>
+      <c r="E11" s="49">
+        <v>16</v>
+      </c>
+      <c r="F11" s="49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="80">
+        <v>2</v>
+      </c>
+      <c r="C12" s="49">
+        <v>0</v>
+      </c>
+      <c r="D12" s="49">
+        <v>0</v>
+      </c>
+      <c r="E12" s="49">
+        <v>13</v>
+      </c>
+      <c r="F12" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="80">
+        <v>1</v>
+      </c>
+      <c r="C13" s="49">
+        <v>5</v>
+      </c>
+      <c r="D13" s="49">
+        <v>1</v>
+      </c>
+      <c r="E13" s="49">
+        <v>33</v>
+      </c>
+      <c r="F13" s="49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="80">
+        <v>4</v>
+      </c>
+      <c r="C14" s="49">
+        <v>1</v>
+      </c>
+      <c r="D14" s="49">
+        <v>0</v>
+      </c>
+      <c r="E14" s="49">
+        <v>4</v>
+      </c>
+      <c r="F14" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="80">
+        <v>38</v>
+      </c>
+      <c r="C15" s="49">
+        <v>5</v>
+      </c>
+      <c r="D15" s="49">
+        <v>3</v>
+      </c>
+      <c r="E15" s="49">
+        <v>22</v>
+      </c>
+      <c r="F15" s="49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="80">
+        <v>1</v>
+      </c>
+      <c r="C16" s="49">
+        <v>2</v>
+      </c>
+      <c r="D16" s="49">
+        <v>1</v>
+      </c>
+      <c r="E16" s="49">
+        <v>11</v>
+      </c>
+      <c r="F16" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="80">
+        <v>17</v>
+      </c>
+      <c r="C18" s="49">
+        <v>11</v>
+      </c>
+      <c r="D18" s="49">
+        <v>5</v>
+      </c>
+      <c r="E18" s="49">
+        <v>16</v>
+      </c>
+      <c r="F18" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="80">
+        <v>5</v>
+      </c>
+      <c r="C19" s="49">
+        <v>2</v>
+      </c>
+      <c r="D19" s="49">
+        <v>0</v>
+      </c>
+      <c r="E19" s="49">
+        <v>14</v>
+      </c>
+      <c r="F19" s="49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="82">
+        <v>12</v>
+      </c>
+      <c r="C21" s="83">
+        <v>7</v>
+      </c>
+      <c r="D21" s="83">
+        <v>3</v>
+      </c>
+      <c r="E21" s="83">
+        <v>15</v>
+      </c>
+      <c r="F21" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="80">
+        <v>6</v>
+      </c>
+      <c r="C24" s="49">
+        <v>5</v>
+      </c>
+      <c r="D24" s="49">
+        <v>2</v>
+      </c>
+      <c r="E24" s="49">
+        <v>12</v>
+      </c>
+      <c r="F24" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="80">
+        <v>6</v>
+      </c>
+      <c r="C25" s="49">
+        <v>4</v>
+      </c>
+      <c r="D25" s="49">
+        <v>1</v>
+      </c>
+      <c r="E25" s="49">
+        <v>11</v>
+      </c>
+      <c r="F25" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="80">
+        <v>12</v>
+      </c>
+      <c r="C26" s="49">
+        <v>6</v>
+      </c>
+      <c r="D26" s="49">
+        <v>3</v>
+      </c>
+      <c r="E26" s="49">
+        <v>16</v>
+      </c>
+      <c r="F26" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="80">
+        <v>22</v>
+      </c>
+      <c r="C27" s="49">
+        <v>13</v>
+      </c>
+      <c r="D27" s="49">
+        <v>5</v>
+      </c>
+      <c r="E27" s="49">
+        <v>22</v>
+      </c>
+      <c r="F27" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="80">
+        <v>39</v>
+      </c>
+      <c r="C28" s="49">
+        <v>24</v>
+      </c>
+      <c r="D28" s="49">
+        <v>11</v>
+      </c>
+      <c r="E28" s="49">
+        <v>29</v>
+      </c>
+      <c r="F28" s="49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="80">
+        <v>51</v>
+      </c>
+      <c r="C29" s="49">
+        <v>29</v>
+      </c>
+      <c r="D29" s="49">
+        <v>14</v>
+      </c>
+      <c r="E29" s="49">
+        <v>39</v>
+      </c>
+      <c r="F29" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D177C939-6B65-2B4B-9575-55CD93E36919}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21">
+        <v>14</v>
+      </c>
+      <c r="D3" s="21">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21">
+        <v>7</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="21">
+        <v>57</v>
+      </c>
+      <c r="D4" s="21">
+        <v>16</v>
+      </c>
+      <c r="E4" s="21">
+        <v>54</v>
+      </c>
+      <c r="F4" s="21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="21">
+        <v>27</v>
+      </c>
+      <c r="D5" s="21">
+        <v>13</v>
+      </c>
+      <c r="E5" s="21">
+        <v>5</v>
+      </c>
+      <c r="F5" s="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="21">
+        <v>19</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>19</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21">
+        <v>67</v>
+      </c>
+      <c r="D7" s="21">
+        <v>21</v>
+      </c>
+      <c r="E7" s="21">
+        <v>64</v>
+      </c>
+      <c r="F7" s="21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="21">
+        <v>63</v>
+      </c>
+      <c r="D8" s="21">
+        <v>12</v>
+      </c>
+      <c r="E8" s="21">
+        <v>51</v>
+      </c>
+      <c r="F8" s="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="21">
+        <v>23</v>
+      </c>
+      <c r="D9" s="21">
+        <v>17</v>
+      </c>
+      <c r="E9" s="21">
+        <v>15</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="21">
+        <v>8</v>
+      </c>
+      <c r="D10" s="21">
+        <v>3</v>
+      </c>
+      <c r="E10" s="21">
+        <v>6</v>
+      </c>
+      <c r="F10" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="21">
+        <v>20</v>
+      </c>
+      <c r="D11" s="21">
+        <v>6</v>
+      </c>
+      <c r="E11" s="21">
+        <v>12</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="21">
+        <v>50</v>
+      </c>
+      <c r="D12" s="21">
+        <v>6</v>
+      </c>
+      <c r="E12" s="21">
+        <v>39</v>
+      </c>
+      <c r="F12" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="21">
+        <v>30</v>
+      </c>
+      <c r="D14" s="21">
+        <v>4</v>
+      </c>
+      <c r="E14" s="21">
+        <v>22</v>
+      </c>
+      <c r="F14" s="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="21">
+        <v>18</v>
+      </c>
+      <c r="D15" s="21">
+        <v>6</v>
+      </c>
+      <c r="E15" s="21">
+        <v>12</v>
+      </c>
+      <c r="F15" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="21">
+        <v>85</v>
+      </c>
+      <c r="D16" s="21">
+        <v>44</v>
+      </c>
+      <c r="E16" s="21">
+        <v>77</v>
+      </c>
+      <c r="F16" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="21">
+        <v>25</v>
+      </c>
+      <c r="D17" s="21">
+        <v>18</v>
+      </c>
+      <c r="E17" s="21">
+        <v>18</v>
+      </c>
+      <c r="F17" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="21">
+        <v>38</v>
+      </c>
+      <c r="D19" s="21">
+        <v>12</v>
+      </c>
+      <c r="E19" s="21">
+        <v>31</v>
+      </c>
+      <c r="F19" s="21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="21">
+        <v>33</v>
+      </c>
+      <c r="D20" s="21">
+        <v>9</v>
+      </c>
+      <c r="E20" s="21">
+        <v>26</v>
+      </c>
+      <c r="F20" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="26">
+        <v>35</v>
+      </c>
+      <c r="D22" s="26">
+        <v>10</v>
+      </c>
+      <c r="E22" s="26">
+        <v>27</v>
+      </c>
+      <c r="F22" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="21">
+        <v>25</v>
+      </c>
+      <c r="D25" s="21">
+        <v>7</v>
+      </c>
+      <c r="E25" s="21">
+        <v>19</v>
+      </c>
+      <c r="F25" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="21">
+        <v>36</v>
+      </c>
+      <c r="D26" s="21">
+        <v>13</v>
+      </c>
+      <c r="E26" s="21">
+        <v>27</v>
+      </c>
+      <c r="F26" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="21">
+        <v>42</v>
+      </c>
+      <c r="D27" s="21">
+        <v>8</v>
+      </c>
+      <c r="E27" s="21">
+        <v>34</v>
+      </c>
+      <c r="F27" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="21">
+        <v>53</v>
+      </c>
+      <c r="D28" s="21">
+        <v>16</v>
+      </c>
+      <c r="E28" s="21">
+        <v>43</v>
+      </c>
+      <c r="F28" s="21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="21">
+        <v>58</v>
+      </c>
+      <c r="D29" s="21">
+        <v>18</v>
+      </c>
+      <c r="E29" s="21">
+        <v>51</v>
+      </c>
+      <c r="F29" s="21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="21">
+        <v>49</v>
+      </c>
+      <c r="D30" s="21">
+        <v>18</v>
+      </c>
+      <c r="E30" s="21">
+        <v>43</v>
+      </c>
+      <c r="F30" s="21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="20">
+        <v>75</v>
+      </c>
+      <c r="D33" s="21">
+        <v>26</v>
+      </c>
+      <c r="E33" s="21">
+        <v>74</v>
+      </c>
+      <c r="F33" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="20">
+        <v>37</v>
+      </c>
+      <c r="D34" s="21">
+        <v>12</v>
+      </c>
+      <c r="E34" s="21">
+        <v>29</v>
+      </c>
+      <c r="F34" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="20">
+        <v>0</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="20">
+        <v>49</v>
+      </c>
+      <c r="D36" s="21">
+        <v>7</v>
+      </c>
+      <c r="E36" s="21">
+        <v>38</v>
+      </c>
+      <c r="F36" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="20">
+        <v>33</v>
+      </c>
+      <c r="D37" s="21">
+        <v>16</v>
+      </c>
+      <c r="E37" s="21">
+        <v>25</v>
+      </c>
+      <c r="F37" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="20">
+        <v>30</v>
+      </c>
+      <c r="D38" s="21">
+        <v>9</v>
+      </c>
+      <c r="E38" s="21">
+        <v>24</v>
+      </c>
+      <c r="F38" s="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="20">
+        <v>13</v>
+      </c>
+      <c r="D39" s="21">
+        <v>2</v>
+      </c>
+      <c r="E39" s="21">
+        <v>8</v>
+      </c>
+      <c r="F39" s="21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA997AF-CFE8-384D-9ADC-A91F3B5ECC2C}">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -31077,7 +33468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0301A2E4-C076-F344-8CA6-A1C0FAD6CDFB}">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -31696,7 +34087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8059DFE-4CC2-FA43-9912-3A775AA99AFE}">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -33572,7 +35963,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 L1:IA1">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39018,7 +41409,7 @@
     <row r="4435" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 L1:IA1">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42443,7 +44834,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1 L1:IA1">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
